--- a/Config/Calibration_targets_Kenya.xlsx
+++ b/Config/Calibration_targets_Kenya.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17865" windowHeight="8250"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="47">
   <si>
     <t>N</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>DeVuyst 2012; BJC</t>
+  </si>
+  <si>
+    <t>HIV prevalence in women - ANC</t>
+  </si>
+  <si>
+    <t>ANC Surveillance Report 2011</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevalence estimates were reported in ANC surveillance report 2011. The number of HIV positive women and the number of women attending ANC each year were not available, except for 2011. The number positive each year from 1990-2003 were calculated using the number of women attending ANC in 2011.  </t>
   </si>
 </sst>
 </file>
@@ -521,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,163 +1797,418 @@
       <c r="J43" t="s">
         <v>30</v>
       </c>
+      <c r="K43" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="6"/>
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1990</v>
+      </c>
+      <c r="E44" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>73.8</v>
+      </c>
+      <c r="F44" s="1">
+        <v>410</v>
+      </c>
+      <c r="G44" s="6">
+        <v>0.18</v>
+      </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7"/>
+      <c r="J44" t="s">
+        <v>30</v>
+      </c>
       <c r="K44" s="8"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="6"/>
+      <c r="A45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1991</v>
+      </c>
+      <c r="E45" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>73.8</v>
+      </c>
+      <c r="F45" s="1">
+        <v>410</v>
+      </c>
+      <c r="G45" s="6">
+        <v>0.18</v>
+      </c>
       <c r="H45" s="7"/>
       <c r="I45" s="7"/>
+      <c r="J45" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="6"/>
+      <c r="A46" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1992</v>
+      </c>
+      <c r="E46" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>77.900000000000006</v>
+      </c>
+      <c r="F46" s="1">
+        <v>410</v>
+      </c>
+      <c r="G46" s="6">
+        <v>0.19</v>
+      </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7"/>
+      <c r="J46" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="6"/>
+      <c r="A47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1993</v>
+      </c>
+      <c r="E47" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>77.900000000000006</v>
+      </c>
+      <c r="F47" s="1">
+        <v>410</v>
+      </c>
+      <c r="G47" s="6">
+        <v>0.19</v>
+      </c>
       <c r="H47" s="7"/>
       <c r="I47" s="7"/>
+      <c r="J47" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="6"/>
+      <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="1">
+        <v>1994</v>
+      </c>
+      <c r="E48" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>118.89999999999999</v>
+      </c>
+      <c r="F48" s="1">
+        <v>410</v>
+      </c>
+      <c r="G48" s="6">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="H48" s="7"/>
       <c r="I48" s="7"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="6"/>
+      <c r="J48" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1995</v>
+      </c>
+      <c r="E49" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>98.399999999999991</v>
+      </c>
+      <c r="F49" s="1">
+        <v>410</v>
+      </c>
+      <c r="G49" s="6">
+        <v>0.24</v>
+      </c>
       <c r="H49" s="7"/>
       <c r="I49" s="7"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="6"/>
+      <c r="J49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1996</v>
+      </c>
+      <c r="E50" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>106.60000000000001</v>
+      </c>
+      <c r="F50" s="1">
+        <v>410</v>
+      </c>
+      <c r="G50" s="6">
+        <v>0.26</v>
+      </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="6"/>
+      <c r="J50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1997</v>
+      </c>
+      <c r="E51" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>131.19999999999999</v>
+      </c>
+      <c r="F51" s="1">
+        <v>410</v>
+      </c>
+      <c r="G51" s="6">
+        <v>0.32</v>
+      </c>
       <c r="H51" s="7"/>
       <c r="I51" s="7"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="6"/>
+      <c r="J51" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1998</v>
+      </c>
+      <c r="E52" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>110.7</v>
+      </c>
+      <c r="F52" s="1">
+        <v>410</v>
+      </c>
+      <c r="G52" s="6">
+        <v>0.27</v>
+      </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="6"/>
+      <c r="J52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="1">
+        <v>1999</v>
+      </c>
+      <c r="E53" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>102.5</v>
+      </c>
+      <c r="F53" s="1">
+        <v>410</v>
+      </c>
+      <c r="G53" s="6">
+        <v>0.25</v>
+      </c>
       <c r="H53" s="7"/>
       <c r="I53" s="7"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="6"/>
+      <c r="J53" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E54" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>135.30000000000001</v>
+      </c>
+      <c r="F54" s="1">
+        <v>410</v>
+      </c>
+      <c r="G54" s="6">
+        <v>0.33</v>
+      </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="6"/>
+      <c r="J54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" s="1">
+        <v>2001</v>
+      </c>
+      <c r="E55" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>118.89999999999999</v>
+      </c>
+      <c r="F55" s="1">
+        <v>410</v>
+      </c>
+      <c r="G55" s="6">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="H55" s="7"/>
       <c r="I55" s="7"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="6"/>
+      <c r="J55" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E56" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>106.60000000000001</v>
+      </c>
+      <c r="F56" s="1">
+        <v>410</v>
+      </c>
+      <c r="G56" s="6">
+        <v>0.26</v>
+      </c>
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="6"/>
+      <c r="J56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2003</v>
+      </c>
+      <c r="E57" s="1">
+        <f>Table1[[#This Row],[Mean]]*Table1[[#This Row],[N]]</f>
+        <v>106.60000000000001</v>
+      </c>
+      <c r="F57" s="1">
+        <v>410</v>
+      </c>
+      <c r="G57" s="6">
+        <v>0.26</v>
+      </c>
       <c r="H57" s="7"/>
       <c r="I57" s="7"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -1952,7 +2219,7 @@
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1963,7 +2230,7 @@
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -1974,7 +2241,7 @@
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -1985,7 +2252,7 @@
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -1996,7 +2263,7 @@
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>

--- a/Config/Calibration_targets_Kenya.xlsx
+++ b/Config/Calibration_targets_Kenya.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Kenya_model_Feb20\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\udrive.uw.edu\udrive\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FBC3E7-4A35-4B22-96AC-7AB4A3DFDF46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5520" windowHeight="3465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="85">
   <si>
     <t>Criteria</t>
   </si>
@@ -284,11 +285,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -451,40 +452,40 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="10" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="10" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="10" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
-    <cellStyle name="Attrib" xfId="10"/>
-    <cellStyle name="CC" xfId="9"/>
-    <cellStyle name="CIN" xfId="7"/>
-    <cellStyle name="CIN 2" xfId="8"/>
-    <cellStyle name="HIVM" xfId="1"/>
-    <cellStyle name="HPV" xfId="3"/>
-    <cellStyle name="HPV 2" xfId="4"/>
+    <cellStyle name="Attrib" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="CC" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="CIN" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="CIN 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="HIVM" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="HPV" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="HPV 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note 2" xfId="2"/>
-    <cellStyle name="Population" xfId="5"/>
-    <cellStyle name="Population 2" xfId="6"/>
+    <cellStyle name="Note 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Population" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Population 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <numFmt numFmtId="177" formatCode="0.000000000"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
+      <numFmt numFmtId="166" formatCode="0.000000000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -517,24 +518,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:M179" totalsRowShown="0">
-  <autoFilter ref="A1:M179"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M174" totalsRowShown="0">
+  <autoFilter ref="A1:M174" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
-    <tableColumn id="1" name="Criteria"/>
-    <tableColumn id="9" name="Source"/>
-    <tableColumn id="14" name="HIV status "/>
-    <tableColumn id="2" name="Age group"/>
-    <tableColumn id="7" name="Year"/>
-    <tableColumn id="10" name="n"/>
-    <tableColumn id="3" name="Total N"/>
-    <tableColumn id="4" name="Prevalence" dataDxfId="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Criteria"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Source"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="HIV status "/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Age group"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Year"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="n"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Total N"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Prevalence" dataDxfId="3">
       <calculatedColumnFormula>Table1[n]/Table1[Total N]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Variance" dataDxfId="0"/>
-    <tableColumn id="5" name="LB" dataDxfId="2"/>
-    <tableColumn id="6" name="UB" dataDxfId="1"/>
-    <tableColumn id="8" name="Usage Status"/>
-    <tableColumn id="11" name="Notes"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Variance" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LB" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="UB" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Usage Status"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -802,11 +803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M179"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I180" sqref="I180"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3200,115 +3201,127 @@
       <c r="M65" s="3"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2007</v>
-      </c>
-      <c r="F66" s="3">
-        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>38.924999999999997</v>
-      </c>
-      <c r="G66" s="3">
-        <v>519</v>
-      </c>
-      <c r="H66" s="3">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="I66" s="37">
+      <c r="A66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2009</v>
+      </c>
+      <c r="F66" s="2">
+        <v>27</v>
+      </c>
+      <c r="G66" s="9">
+        <v>985.73961226471283</v>
+      </c>
+      <c r="H66" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>2.7390600584639341E-2</v>
+      </c>
+      <c r="I66" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.3367052023121389E-4</v>
-      </c>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3" t="s">
+        <v>2.7025753305222793E-5</v>
+      </c>
+      <c r="J66" s="5">
+        <v>1.4563999999999999E-2</v>
+      </c>
+      <c r="K66" s="5">
+        <v>4.0217000000000003E-2</v>
+      </c>
+      <c r="L66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M66" s="3"/>
+      <c r="M66" s="2"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E67" s="3">
-        <v>2007</v>
-      </c>
-      <c r="F67" s="3">
-        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>19.975000000000001</v>
-      </c>
-      <c r="G67" s="3">
-        <v>425</v>
-      </c>
-      <c r="H67" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="I67" s="37">
+      <c r="A67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2009</v>
+      </c>
+      <c r="F67" s="2">
+        <v>55</v>
+      </c>
+      <c r="G67" s="9">
+        <v>858.66782721474306</v>
+      </c>
+      <c r="H67" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>6.4052708459338983E-2</v>
+      </c>
+      <c r="I67" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.0539058823529411E-4</v>
-      </c>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3" t="s">
+        <v>6.981740447038912E-5</v>
+      </c>
+      <c r="J67" s="5">
+        <v>4.3031E-2</v>
+      </c>
+      <c r="K67" s="5">
+        <v>8.5074000000000011E-2</v>
+      </c>
+      <c r="L67" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M67" s="3"/>
+      <c r="M67" s="2"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="3">
-        <v>2007</v>
-      </c>
-      <c r="F68" s="3">
-        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>4.3520000000000003</v>
-      </c>
-      <c r="G68" s="3">
-        <v>256</v>
-      </c>
-      <c r="H68" s="3">
-        <v>1.7000000000000001E-2</v>
-      </c>
-      <c r="I68" s="37">
+      <c r="A68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2009</v>
+      </c>
+      <c r="F68" s="2">
+        <v>66</v>
+      </c>
+      <c r="G68" s="9">
+        <v>634.03978209252944</v>
+      </c>
+      <c r="H68" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.1040944146788067</v>
+      </c>
+      <c r="I68" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>6.5277343750000001E-5</v>
-      </c>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3" t="s">
+        <v>1.4708661845113291E-4</v>
+      </c>
+      <c r="J68" s="5">
+        <v>7.1454000000000004E-2</v>
+      </c>
+      <c r="K68" s="5">
+        <v>0.136735</v>
+      </c>
+      <c r="L68" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M68" s="3"/>
+      <c r="M68" s="2"/>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
@@ -3321,30 +3334,30 @@
         <v>59</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E69" s="2">
         <v>2009</v>
       </c>
       <c r="F69" s="2">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="G69" s="9">
-        <v>985.73961226471283</v>
+        <v>570.52483920244788</v>
       </c>
       <c r="H69" s="7">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>2.7390600584639341E-2</v>
+        <v>0.11042464003507614</v>
       </c>
       <c r="I69" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>2.7025753305222793E-5</v>
+        <v>1.7217662082078642E-4</v>
       </c>
       <c r="J69" s="5">
-        <v>1.4563999999999999E-2</v>
+        <v>7.4653999999999998E-2</v>
       </c>
       <c r="K69" s="5">
-        <v>4.0217000000000003E-2</v>
+        <v>0.14619499999999999</v>
       </c>
       <c r="L69" s="2" t="s">
         <v>18</v>
@@ -3362,30 +3375,30 @@
         <v>59</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E70" s="2">
         <v>2009</v>
       </c>
       <c r="F70" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G70" s="9">
-        <v>858.66782721474306</v>
+        <v>511.71589006081274</v>
       </c>
       <c r="H70" s="7">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>6.4052708459338983E-2</v>
+        <v>8.7939422781364407E-2</v>
       </c>
       <c r="I70" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>6.981740447038912E-5</v>
+        <v>1.5673947645579876E-4</v>
       </c>
       <c r="J70" s="5">
-        <v>4.3031E-2</v>
+        <v>5.7251000000000003E-2</v>
       </c>
       <c r="K70" s="5">
-        <v>8.5074000000000011E-2</v>
+        <v>0.118628</v>
       </c>
       <c r="L70" s="2" t="s">
         <v>18</v>
@@ -3403,30 +3416,30 @@
         <v>59</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E71" s="2">
         <v>2009</v>
       </c>
       <c r="F71" s="2">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G71" s="9">
-        <v>634.03978209252944</v>
+        <v>252.28591608340213</v>
       </c>
       <c r="H71" s="7">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>0.1040944146788067</v>
+        <v>0.14269524259966582</v>
       </c>
       <c r="I71" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.4708661845113291E-4</v>
+        <v>4.8489948324601163E-4</v>
       </c>
       <c r="J71" s="5">
-        <v>7.1454000000000004E-2</v>
+        <v>6.7178000000000002E-2</v>
       </c>
       <c r="K71" s="5">
-        <v>0.136735</v>
+        <v>0.21821300000000002</v>
       </c>
       <c r="L71" s="2" t="s">
         <v>18</v>
@@ -3444,30 +3457,30 @@
         <v>59</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E72" s="2">
         <v>2009</v>
       </c>
       <c r="F72" s="2">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="G72" s="9">
-        <v>570.52483920244788</v>
+        <v>405.78012714494355</v>
       </c>
       <c r="H72" s="7">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>0.11042464003507614</v>
+        <v>6.4074108761646847E-2</v>
       </c>
       <c r="I72" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.7217662082078642E-4</v>
+        <v>1.4778598885555297E-4</v>
       </c>
       <c r="J72" s="5">
-        <v>7.4653999999999998E-2</v>
+        <v>3.5684999999999995E-2</v>
       </c>
       <c r="K72" s="5">
-        <v>0.14619499999999999</v>
+        <v>9.2463000000000004E-2</v>
       </c>
       <c r="L72" s="2" t="s">
         <v>18</v>
@@ -3475,127 +3488,127 @@
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E73" s="2">
-        <v>2009</v>
-      </c>
-      <c r="F73" s="2">
-        <v>45</v>
-      </c>
-      <c r="G73" s="9">
-        <v>511.71589006081274</v>
-      </c>
-      <c r="H73" s="7">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>8.7939422781364407E-2</v>
-      </c>
-      <c r="I73" s="36">
-        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.5673947645579876E-4</v>
-      </c>
-      <c r="J73" s="5">
-        <v>5.7251000000000003E-2</v>
-      </c>
-      <c r="K73" s="5">
-        <v>0.118628</v>
-      </c>
-      <c r="L73" s="2" t="s">
+      <c r="A73" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E73" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F73" s="3">
+        <v>4</v>
+      </c>
+      <c r="G73" s="10">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>1119.0432681886909</v>
+      </c>
+      <c r="H73" s="6">
+        <v>3.5744819826980341E-3</v>
+      </c>
+      <c r="I73" s="37">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.1828126422836702E-6</v>
+      </c>
+      <c r="J73" s="6">
+        <v>0</v>
+      </c>
+      <c r="K73" s="6">
+        <v>7.5190000000000005E-3</v>
+      </c>
+      <c r="L73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M73" s="2"/>
+      <c r="M73" s="3"/>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="2">
-        <v>2009</v>
-      </c>
-      <c r="F74" s="2">
-        <v>36</v>
-      </c>
-      <c r="G74" s="9">
-        <v>252.28591608340213</v>
-      </c>
-      <c r="H74" s="7">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>0.14269524259966582</v>
-      </c>
-      <c r="I74" s="36">
-        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>4.8489948324601163E-4</v>
-      </c>
-      <c r="J74" s="5">
-        <v>6.7178000000000002E-2</v>
-      </c>
-      <c r="K74" s="5">
-        <v>0.21821300000000002</v>
-      </c>
-      <c r="L74" s="2" t="s">
+      <c r="A74" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E74" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F74" s="3">
+        <v>14</v>
+      </c>
+      <c r="G74" s="10">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>581.83871888986232</v>
+      </c>
+      <c r="H74" s="6">
+        <v>2.4061650669642172E-2</v>
+      </c>
+      <c r="I74" s="37">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>4.0359444764175919E-5</v>
+      </c>
+      <c r="J74" s="6">
+        <v>1.2016000000000001E-2</v>
+      </c>
+      <c r="K74" s="6">
+        <v>3.6107E-2</v>
+      </c>
+      <c r="L74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M74" s="2"/>
+      <c r="M74" s="3"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="2">
-        <v>2009</v>
-      </c>
-      <c r="F75" s="2">
-        <v>26</v>
-      </c>
-      <c r="G75" s="9">
-        <v>405.78012714494355</v>
-      </c>
-      <c r="H75" s="7">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>6.4074108761646847E-2</v>
-      </c>
-      <c r="I75" s="36">
-        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.4778598885555297E-4</v>
-      </c>
-      <c r="J75" s="5">
-        <v>3.5684999999999995E-2</v>
-      </c>
-      <c r="K75" s="5">
-        <v>9.2463000000000004E-2</v>
-      </c>
-      <c r="L75" s="2" t="s">
+      <c r="A75" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F75" s="3">
+        <v>31</v>
+      </c>
+      <c r="G75" s="10">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>423.4401999605733</v>
+      </c>
+      <c r="H75" s="6">
+        <v>7.3209865295941257E-2</v>
+      </c>
+      <c r="I75" s="37">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>1.6023556791634088E-4</v>
+      </c>
+      <c r="J75" s="6">
+        <v>4.4005999999999997E-2</v>
+      </c>
+      <c r="K75" s="6">
+        <v>0.10241400000000001</v>
+      </c>
+      <c r="L75" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M75" s="2"/>
+      <c r="M75" s="3"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
@@ -3608,30 +3621,30 @@
         <v>59</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E76" s="3">
         <v>2003</v>
       </c>
       <c r="F76" s="3">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="G76" s="10">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>1119.0432681886909</v>
+        <v>332.79868372251627</v>
       </c>
       <c r="H76" s="6">
-        <v>3.5744819826980341E-3</v>
+        <v>6.6106030690744402E-2</v>
       </c>
       <c r="I76" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.1828126422836702E-6</v>
+        <v>1.8550561170047641E-4</v>
       </c>
       <c r="J76" s="6">
-        <v>0</v>
+        <v>3.8716E-2</v>
       </c>
       <c r="K76" s="6">
-        <v>7.5190000000000005E-3</v>
+        <v>9.349600000000001E-2</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>18</v>
@@ -3649,30 +3662,30 @@
         <v>59</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E77" s="3">
         <v>2003</v>
       </c>
       <c r="F77" s="3">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="G77" s="10">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>581.83871888986232</v>
+        <v>285.40208064747873</v>
       </c>
       <c r="H77" s="6">
-        <v>2.4061650669642172E-2</v>
+        <v>8.4091888698051148E-2</v>
       </c>
       <c r="I77" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.0359444764175919E-5</v>
+        <v>2.6986643817912239E-4</v>
       </c>
       <c r="J77" s="6">
-        <v>1.2016000000000001E-2</v>
+        <v>4.9303999999999994E-2</v>
       </c>
       <c r="K77" s="6">
-        <v>3.6107E-2</v>
+        <v>0.11888</v>
       </c>
       <c r="L77" s="3" t="s">
         <v>18</v>
@@ -3690,30 +3703,30 @@
         <v>59</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E78" s="3">
         <v>2003</v>
       </c>
       <c r="F78" s="3">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G78" s="10">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>423.4401999605733</v>
+        <v>251.09726150204338</v>
       </c>
       <c r="H78" s="6">
-        <v>7.3209865295941257E-2</v>
+        <v>8.7615451751236917E-2</v>
       </c>
       <c r="I78" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.6023556791634088E-4</v>
+        <v>3.1835864671512186E-4</v>
       </c>
       <c r="J78" s="6">
-        <v>4.4005999999999997E-2</v>
+        <v>4.7294999999999997E-2</v>
       </c>
       <c r="K78" s="6">
-        <v>0.10241400000000001</v>
+        <v>0.12793599999999999</v>
       </c>
       <c r="L78" s="3" t="s">
         <v>18</v>
@@ -3731,30 +3744,30 @@
         <v>59</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E79" s="3">
         <v>2003</v>
       </c>
       <c r="F79" s="3">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G79" s="10">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>332.79868372251627</v>
+        <v>135.62233534638352</v>
       </c>
       <c r="H79" s="6">
-        <v>6.6106030690744402E-2</v>
+        <v>5.1613917295567795E-2</v>
       </c>
       <c r="I79" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.8550561170047641E-4</v>
+        <v>3.6092816652916735E-4</v>
       </c>
       <c r="J79" s="6">
-        <v>3.8716E-2</v>
+        <v>1.1973000000000001E-2</v>
       </c>
       <c r="K79" s="6">
-        <v>9.349600000000001E-2</v>
+        <v>9.1255000000000003E-2</v>
       </c>
       <c r="L79" s="3" t="s">
         <v>18</v>
@@ -3772,30 +3785,30 @@
         <v>59</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E80" s="3">
         <v>2003</v>
       </c>
       <c r="F80" s="3">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="G80" s="10">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>285.40208064747873</v>
+        <v>158.88050719816081</v>
       </c>
       <c r="H80" s="6">
-        <v>8.4091888698051148E-2</v>
+        <v>5.6646344845657587E-2</v>
       </c>
       <c r="I80" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.6986643817912239E-4</v>
+        <v>3.3633790200981317E-4</v>
       </c>
       <c r="J80" s="6">
-        <v>4.9303999999999994E-2</v>
+        <v>2.0834999999999999E-2</v>
       </c>
       <c r="K80" s="6">
-        <v>0.11888</v>
+        <v>9.2457999999999985E-2</v>
       </c>
       <c r="L80" s="3" t="s">
         <v>18</v>
@@ -3804,40 +3817,36 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E81" s="3">
-        <v>2003</v>
-      </c>
-      <c r="F81" s="3">
-        <v>22</v>
+        <v>2007</v>
+      </c>
+      <c r="F81" s="10">
+        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
+        <v>11.75</v>
       </c>
       <c r="G81" s="10">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>251.09726150204338</v>
-      </c>
-      <c r="H81" s="6">
-        <v>8.7615451751236917E-2</v>
+        <v>1175</v>
+      </c>
+      <c r="H81" s="8">
+        <v>0.01</v>
       </c>
       <c r="I81" s="37">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.1835864671512186E-4</v>
-      </c>
-      <c r="J81" s="6">
-        <v>4.7294999999999997E-2</v>
-      </c>
-      <c r="K81" s="6">
-        <v>0.12793599999999999</v>
-      </c>
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>8.4255319148936176E-6</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
       <c r="L81" s="3" t="s">
         <v>18</v>
       </c>
@@ -3845,40 +3854,36 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E82" s="3">
-        <v>2003</v>
-      </c>
-      <c r="F82" s="3">
-        <v>7</v>
+        <v>2007</v>
+      </c>
+      <c r="F82" s="10">
+        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
+        <v>19.646000000000001</v>
       </c>
       <c r="G82" s="10">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>135.62233534638352</v>
-      </c>
-      <c r="H82" s="6">
-        <v>5.1613917295567795E-2</v>
+        <v>1034</v>
+      </c>
+      <c r="H82" s="8">
+        <v>1.9E-2</v>
       </c>
       <c r="I82" s="37">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.6092816652916735E-4</v>
-      </c>
-      <c r="J82" s="6">
-        <v>1.1973000000000001E-2</v>
-      </c>
-      <c r="K82" s="6">
-        <v>9.1255000000000003E-2</v>
-      </c>
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>1.8026112185686654E-5</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
       <c r="L82" s="3" t="s">
         <v>18</v>
       </c>
@@ -3886,40 +3891,36 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E83" s="3">
-        <v>2003</v>
-      </c>
-      <c r="F83" s="3">
-        <v>9</v>
+        <v>2007</v>
+      </c>
+      <c r="F83" s="10">
+        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
+        <v>63.801999999999992</v>
       </c>
       <c r="G83" s="10">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>158.88050719816081</v>
-      </c>
-      <c r="H83" s="6">
-        <v>5.6646344845657587E-2</v>
+        <v>874</v>
+      </c>
+      <c r="H83" s="8">
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="I83" s="37">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.3633790200981317E-4</v>
-      </c>
-      <c r="J83" s="6">
-        <v>2.0834999999999999E-2</v>
-      </c>
-      <c r="K83" s="6">
-        <v>9.2457999999999985E-2</v>
-      </c>
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>7.7426773455377572E-5</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
       <c r="L83" s="3" t="s">
         <v>18</v>
       </c>
@@ -3936,24 +3937,24 @@
         <v>59</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E84" s="3">
         <v>2007</v>
       </c>
       <c r="F84" s="10">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>11.75</v>
+        <v>68.708000000000013</v>
       </c>
       <c r="G84" s="10">
-        <v>1175</v>
+        <v>772</v>
       </c>
       <c r="H84" s="8">
-        <v>0.01</v>
+        <v>8.900000000000001E-2</v>
       </c>
       <c r="I84" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>8.4255319148936176E-6</v>
+        <v>1.0502461139896374E-4</v>
       </c>
       <c r="J84" s="3"/>
       <c r="K84" s="3"/>
@@ -3973,24 +3974,24 @@
         <v>59</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E85" s="3">
         <v>2007</v>
       </c>
       <c r="F85" s="10">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>19.646000000000001</v>
+        <v>63.054000000000009</v>
       </c>
       <c r="G85" s="10">
-        <v>1034</v>
+        <v>678</v>
       </c>
       <c r="H85" s="8">
-        <v>1.9E-2</v>
+        <v>9.3000000000000013E-2</v>
       </c>
       <c r="I85" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.8026112185686654E-5</v>
+        <v>1.2441150442477877E-4</v>
       </c>
       <c r="J85" s="3"/>
       <c r="K85" s="3"/>
@@ -4010,24 +4011,24 @@
         <v>59</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E86" s="3">
         <v>2007</v>
       </c>
       <c r="F86" s="10">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>63.801999999999992</v>
+        <v>58.751999999999995</v>
       </c>
       <c r="G86" s="10">
-        <v>874</v>
+        <v>576</v>
       </c>
       <c r="H86" s="8">
-        <v>7.2999999999999995E-2</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="I86" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>7.7426773455377572E-5</v>
+        <v>1.5902083333333333E-4</v>
       </c>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -4047,24 +4048,24 @@
         <v>59</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E87" s="3">
         <v>2007</v>
       </c>
       <c r="F87" s="10">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>68.708000000000013</v>
+        <v>30.743999999999996</v>
       </c>
       <c r="G87" s="10">
-        <v>772</v>
+        <v>549</v>
       </c>
       <c r="H87" s="8">
-        <v>8.900000000000001E-2</v>
+        <v>5.5999999999999994E-2</v>
       </c>
       <c r="I87" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.0502461139896374E-4</v>
+        <v>9.6291438979963562E-5</v>
       </c>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -4084,24 +4085,24 @@
         <v>59</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="E88" s="3">
         <v>2007</v>
       </c>
       <c r="F88" s="10">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>63.054000000000009</v>
+        <v>35.274999999999999</v>
       </c>
       <c r="G88" s="10">
-        <v>678</v>
+        <v>425</v>
       </c>
       <c r="H88" s="8">
-        <v>9.3000000000000013E-2</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="I88" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.2441150442477877E-4</v>
+        <v>1.7908470588235296E-4</v>
       </c>
       <c r="J88" s="3"/>
       <c r="K88" s="3"/>
@@ -4112,36 +4113,40 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E89" s="3">
-        <v>2007</v>
-      </c>
-      <c r="F89" s="10">
-        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>58.751999999999995</v>
+        <v>2009</v>
+      </c>
+      <c r="F89" s="3">
+        <v>7</v>
       </c>
       <c r="G89" s="10">
-        <v>576</v>
-      </c>
-      <c r="H89" s="8">
-        <v>0.10199999999999999</v>
+        <v>963.49708650572427</v>
+      </c>
+      <c r="H89" s="6">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>7.2652010037587301E-3</v>
       </c>
       <c r="I89" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.5902083333333333E-4</v>
-      </c>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
+        <v>7.4856664946343489E-6</v>
+      </c>
+      <c r="J89" s="4">
+        <v>7.0699999999999995E-4</v>
+      </c>
+      <c r="K89" s="4">
+        <v>1.3823E-2</v>
+      </c>
       <c r="L89" s="3" t="s">
         <v>18</v>
       </c>
@@ -4149,36 +4154,40 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E90" s="3">
-        <v>2007</v>
-      </c>
-      <c r="F90" s="10">
-        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>30.743999999999996</v>
+        <v>2009</v>
+      </c>
+      <c r="F90" s="3">
+        <v>10</v>
       </c>
       <c r="G90" s="10">
-        <v>549</v>
-      </c>
-      <c r="H90" s="8">
-        <v>5.5999999999999994E-2</v>
+        <v>670.05493031263165</v>
+      </c>
+      <c r="H90" s="6">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>1.4924149569848309E-2</v>
       </c>
       <c r="I90" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>9.6291438979963562E-5</v>
-      </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
+        <v>2.1940618096199626E-5</v>
+      </c>
+      <c r="J90" s="4">
+        <v>3.8409999999999998E-3</v>
+      </c>
+      <c r="K90" s="4">
+        <v>2.6006999999999999E-2</v>
+      </c>
       <c r="L90" s="3" t="s">
         <v>18</v>
       </c>
@@ -4186,36 +4195,40 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="E91" s="3">
-        <v>2007</v>
-      </c>
-      <c r="F91" s="10">
-        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>35.274999999999999</v>
+        <v>2009</v>
+      </c>
+      <c r="F91" s="3">
+        <v>24</v>
       </c>
       <c r="G91" s="10">
-        <v>425</v>
-      </c>
-      <c r="H91" s="8">
-        <v>8.3000000000000004E-2</v>
+        <v>368.03944592214856</v>
+      </c>
+      <c r="H91" s="6">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>6.5210401401040924E-2</v>
       </c>
       <c r="I91" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.7908470588235296E-4</v>
-      </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
+        <v>1.6562899880859645E-4</v>
+      </c>
+      <c r="J91" s="4">
+        <v>3.2902000000000001E-2</v>
+      </c>
+      <c r="K91" s="4">
+        <v>9.7518999999999995E-2</v>
+      </c>
       <c r="L91" s="3" t="s">
         <v>18</v>
       </c>
@@ -4223,73 +4236,81 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="E92" s="3">
-        <v>2007</v>
-      </c>
-      <c r="F92" s="10">
-        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>8.74</v>
+        <v>2009</v>
+      </c>
+      <c r="F92" s="3">
+        <v>34</v>
       </c>
       <c r="G92" s="10">
-        <v>380</v>
-      </c>
-      <c r="H92" s="8">
-        <v>2.3E-2</v>
+        <v>499.58022619476617</v>
+      </c>
+      <c r="H92" s="6">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>6.8057137206917334E-2</v>
       </c>
       <c r="I92" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>5.9134210526315781E-5</v>
-      </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
+        <v>1.2695731327322225E-4</v>
+      </c>
+      <c r="J92" s="4">
+        <v>4.1223000000000003E-2</v>
+      </c>
+      <c r="K92" s="4">
+        <v>9.4891000000000003E-2</v>
+      </c>
       <c r="L92" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M92" s="3"/>
     </row>
-    <row r="93" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="3">
+        <v>2009</v>
+      </c>
+      <c r="F93" s="3">
         <v>35</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E93" s="3">
-        <v>2007</v>
-      </c>
-      <c r="F93" s="10">
-        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>11.594000000000001</v>
-      </c>
       <c r="G93" s="10">
-        <v>341</v>
-      </c>
-      <c r="H93" s="8">
-        <v>3.4000000000000002E-2</v>
+        <v>335.51817350394879</v>
+      </c>
+      <c r="H93" s="6">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.10431625695407548</v>
       </c>
       <c r="I93" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>9.6316715542521994E-5</v>
-      </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
+        <v>2.7847783776775698E-4</v>
+      </c>
+      <c r="J93" s="4">
+        <v>6.2424999999999994E-2</v>
+      </c>
+      <c r="K93" s="4">
+        <v>0.146207</v>
+      </c>
       <c r="L93" s="3" t="s">
         <v>18</v>
       </c>
@@ -4306,30 +4327,30 @@
         <v>59</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E94" s="3">
         <v>2009</v>
       </c>
       <c r="F94" s="3">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G94" s="10">
-        <v>963.49708650572427</v>
+        <v>317.52684689160503</v>
       </c>
       <c r="H94" s="6">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>7.2652010037587301E-3</v>
+        <v>5.6688120000589134E-2</v>
       </c>
       <c r="I94" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>7.4856664946343489E-6</v>
+        <v>1.6840962449276832E-4</v>
       </c>
       <c r="J94" s="4">
-        <v>7.0699999999999995E-4</v>
+        <v>2.5624999999999998E-2</v>
       </c>
       <c r="K94" s="4">
-        <v>1.3823E-2</v>
+        <v>8.7750999999999996E-2</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>18</v>
@@ -4347,30 +4368,30 @@
         <v>59</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E95" s="3">
         <v>2009</v>
       </c>
       <c r="F95" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G95" s="10">
-        <v>670.05493031263165</v>
+        <v>258.69483208444495</v>
       </c>
       <c r="H95" s="6">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>1.4924149569848309E-2</v>
+        <v>4.2521143199371308E-2</v>
       </c>
       <c r="I95" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>2.1940618096199626E-5</v>
+        <v>1.5737885156940444E-4</v>
       </c>
       <c r="J95" s="4">
-        <v>3.8409999999999998E-3</v>
+        <v>8.685E-3</v>
       </c>
       <c r="K95" s="4">
-        <v>2.6006999999999999E-2</v>
+        <v>7.6356999999999994E-2</v>
       </c>
       <c r="L95" s="3" t="s">
         <v>18</v>
@@ -4388,30 +4409,30 @@
         <v>59</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E96" s="3">
         <v>2009</v>
       </c>
       <c r="F96" s="3">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G96" s="10">
-        <v>368.03944592214856</v>
+        <v>164.65714491839395</v>
       </c>
       <c r="H96" s="6">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>6.5210401401040924E-2</v>
+        <v>9.1098385116747768E-2</v>
       </c>
       <c r="I96" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.6562899880859645E-4</v>
+        <v>5.0285986306215194E-4</v>
       </c>
       <c r="J96" s="4">
-        <v>3.2902000000000001E-2</v>
+        <v>2.3006000000000002E-2</v>
       </c>
       <c r="K96" s="4">
-        <v>9.7518999999999995E-2</v>
+        <v>0.159191</v>
       </c>
       <c r="L96" s="3" t="s">
         <v>18</v>
@@ -4419,209 +4440,179 @@
       <c r="M96" s="3"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D97" s="3" t="s">
+      <c r="A97" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E97" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F97" s="2">
+        <v>17</v>
+      </c>
+      <c r="G97" s="9">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>1545.4545454545453</v>
+      </c>
+      <c r="H97" s="2">
+        <v>1.1000000000000001E-2</v>
+      </c>
+      <c r="I97" s="36">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>7.0393529411764727E-6</v>
+      </c>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="11">
+        <v>2012</v>
+      </c>
+      <c r="F98" s="2">
+        <v>58</v>
+      </c>
+      <c r="G98" s="9">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>1870.9677419354839</v>
+      </c>
+      <c r="H98" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I98" s="36">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>1.6055327586206897E-5</v>
+      </c>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F99" s="2">
+        <v>112</v>
+      </c>
+      <c r="G99" s="9">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>1777.7777777777778</v>
+      </c>
+      <c r="H99" s="2">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I99" s="36">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>3.3204937500000004E-5</v>
+      </c>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E97" s="3">
-        <v>2009</v>
-      </c>
-      <c r="F97" s="3">
-        <v>34</v>
-      </c>
-      <c r="G97" s="10">
-        <v>499.58022619476617</v>
-      </c>
-      <c r="H97" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>6.8057137206917334E-2</v>
-      </c>
-      <c r="I97" s="37">
+      <c r="E100" s="11">
+        <v>2012</v>
+      </c>
+      <c r="F100" s="2">
+        <v>97</v>
+      </c>
+      <c r="G100" s="9">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>1469.6969696969695</v>
+      </c>
+      <c r="H100" s="2">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="I100" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.2695731327322225E-4</v>
-      </c>
-      <c r="J97" s="4">
-        <v>4.1223000000000003E-2</v>
-      </c>
-      <c r="K97" s="4">
-        <v>9.4891000000000003E-2</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C98" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D98" s="3" t="s">
+        <v>4.1943340206185571E-5</v>
+      </c>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E98" s="3">
-        <v>2009</v>
-      </c>
-      <c r="F98" s="3">
-        <v>35</v>
-      </c>
-      <c r="G98" s="10">
-        <v>335.51817350394879</v>
-      </c>
-      <c r="H98" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>0.10431625695407548</v>
-      </c>
-      <c r="I98" s="37">
+      <c r="E101" s="2">
+        <v>2012</v>
+      </c>
+      <c r="F101" s="2">
+        <v>108</v>
+      </c>
+      <c r="G101" s="9">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>1241.3793103448277</v>
+      </c>
+      <c r="H101" s="2">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="I101" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>2.7847783776775698E-4</v>
-      </c>
-      <c r="J98" s="4">
-        <v>6.2424999999999994E-2</v>
-      </c>
-      <c r="K98" s="4">
-        <v>0.146207</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="3">
-        <v>2009</v>
-      </c>
-      <c r="F99" s="3">
-        <v>18</v>
-      </c>
-      <c r="G99" s="10">
-        <v>317.52684689160503</v>
-      </c>
-      <c r="H99" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>5.6688120000589134E-2</v>
-      </c>
-      <c r="I99" s="37">
-        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.6840962449276832E-4</v>
-      </c>
-      <c r="J99" s="4">
-        <v>2.5624999999999998E-2</v>
-      </c>
-      <c r="K99" s="4">
-        <v>8.7750999999999996E-2</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E100" s="3">
-        <v>2009</v>
-      </c>
-      <c r="F100" s="3">
-        <v>11</v>
-      </c>
-      <c r="G100" s="10">
-        <v>258.69483208444495</v>
-      </c>
-      <c r="H100" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>4.2521143199371308E-2</v>
-      </c>
-      <c r="I100" s="37">
-        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.5737885156940444E-4</v>
-      </c>
-      <c r="J100" s="4">
-        <v>8.685E-3</v>
-      </c>
-      <c r="K100" s="4">
-        <v>7.6356999999999994E-2</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E101" s="3">
-        <v>2009</v>
-      </c>
-      <c r="F101" s="3">
-        <v>15</v>
-      </c>
-      <c r="G101" s="10">
-        <v>164.65714491839395</v>
-      </c>
-      <c r="H101" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>9.1098385116747768E-2</v>
-      </c>
-      <c r="I101" s="37">
-        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>5.0285986306215194E-4</v>
-      </c>
-      <c r="J101" s="4">
-        <v>2.3006000000000002E-2</v>
-      </c>
-      <c r="K101" s="4">
-        <v>0.159191</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M101" s="3"/>
+        <v>6.3986083333333324E-5</v>
+      </c>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
@@ -4634,24 +4625,24 @@
         <v>59</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E102" s="2">
+        <v>6</v>
+      </c>
+      <c r="E102" s="11">
         <v>2012</v>
       </c>
       <c r="F102" s="2">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="G102" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>1545.4545454545453</v>
+        <v>967.74193548387086</v>
       </c>
       <c r="H102" s="2">
-        <v>1.1000000000000001E-2</v>
+        <v>9.3000000000000013E-2</v>
       </c>
       <c r="I102" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>7.0393529411764727E-6</v>
+        <v>8.7162700000000025E-5</v>
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
@@ -4669,24 +4660,24 @@
         <v>59</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E103" s="11">
+        <v>7</v>
+      </c>
+      <c r="E103" s="2">
         <v>2012</v>
       </c>
       <c r="F103" s="2">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G103" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>1870.9677419354839</v>
+        <v>673.46938775510205</v>
       </c>
       <c r="H103" s="2">
-        <v>3.1E-2</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="I103" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.6055327586206897E-5</v>
+        <v>1.3125466666666667E-4</v>
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
@@ -4704,24 +4695,24 @@
         <v>59</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E104" s="2">
+        <v>32</v>
+      </c>
+      <c r="E104" s="11">
         <v>2012</v>
       </c>
       <c r="F104" s="2">
-        <v>112</v>
+        <v>60</v>
       </c>
       <c r="G104" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>1777.7777777777778</v>
+        <v>714.28571428571422</v>
       </c>
       <c r="H104" s="2">
-        <v>6.3E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="I104" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>3.3204937500000004E-5</v>
+        <v>1.0772160000000002E-4</v>
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
@@ -4739,24 +4730,24 @@
         <v>59</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E105" s="11">
         <v>2012</v>
       </c>
       <c r="F105" s="2">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="G105" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>1469.6969696969695</v>
+        <v>545.45454545454538</v>
       </c>
       <c r="H105" s="2">
-        <v>6.6000000000000003E-2</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="I105" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>4.1943340206185571E-5</v>
+        <v>7.7117333333333348E-5</v>
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
@@ -4774,24 +4765,24 @@
         <v>59</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E106" s="2">
         <v>2012</v>
       </c>
       <c r="F106" s="2">
-        <v>108</v>
-      </c>
-      <c r="G106" s="9">
+        <v>16</v>
+      </c>
+      <c r="G106" s="2">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>1241.3793103448277</v>
+        <v>400</v>
       </c>
       <c r="H106" s="2">
-        <v>8.6999999999999994E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I106" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>6.3986083333333324E-5</v>
+        <v>9.5999999999999989E-5</v>
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
@@ -4799,179 +4790,179 @@
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="11">
-        <v>2012</v>
-      </c>
-      <c r="F107" s="2">
-        <v>90</v>
-      </c>
-      <c r="G107" s="9">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>967.74193548387086</v>
-      </c>
-      <c r="H107" s="2">
-        <v>9.3000000000000013E-2</v>
-      </c>
-      <c r="I107" s="36">
-        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>8.7162700000000025E-5</v>
-      </c>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
+      <c r="A107" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E107" s="18">
+        <v>1979</v>
+      </c>
+      <c r="F107" s="18">
+        <v>2843406</v>
+      </c>
+      <c r="G107" s="18">
+        <v>15297576</v>
+      </c>
+      <c r="H107" s="18">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>0.1858729775227134</v>
+      </c>
+      <c r="I107" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>9.8920386961669154E-9</v>
+      </c>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="17"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="2">
-        <v>2012</v>
-      </c>
-      <c r="F108" s="2">
-        <v>66</v>
-      </c>
-      <c r="G108" s="9">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>673.46938775510205</v>
-      </c>
-      <c r="H108" s="2">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="I108" s="36">
-        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.3125466666666667E-4</v>
-      </c>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
+      <c r="A108" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E108" s="18">
+        <v>1979</v>
+      </c>
+      <c r="F108" s="18">
+        <v>2491840</v>
+      </c>
+      <c r="G108" s="18">
+        <v>15297576</v>
+      </c>
+      <c r="H108" s="18">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>0.16289116654821653</v>
+      </c>
+      <c r="I108" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>8.9136758927543632E-9</v>
+      </c>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E109" s="11">
-        <v>2012</v>
-      </c>
-      <c r="F109" s="2">
-        <v>60</v>
-      </c>
-      <c r="G109" s="9">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>714.28571428571422</v>
-      </c>
-      <c r="H109" s="2">
-        <v>8.4000000000000005E-2</v>
-      </c>
-      <c r="I109" s="36">
-        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.0772160000000002E-4</v>
-      </c>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
+      <c r="A109" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E109" s="18">
+        <v>1979</v>
+      </c>
+      <c r="F109" s="18">
+        <v>2074771</v>
+      </c>
+      <c r="G109" s="18">
+        <v>15297576</v>
+      </c>
+      <c r="H109" s="18">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>0.13562743535315661</v>
+      </c>
+      <c r="I109" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>7.6634778041097449E-9</v>
+      </c>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E110" s="11">
-        <v>2012</v>
-      </c>
-      <c r="F110" s="2">
-        <v>24</v>
-      </c>
-      <c r="G110" s="9">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>545.45454545454538</v>
-      </c>
-      <c r="H110" s="2">
-        <v>4.4000000000000004E-2</v>
-      </c>
-      <c r="I110" s="36">
-        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>7.7117333333333348E-5</v>
-      </c>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
+      <c r="A110" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="18">
+        <v>1979</v>
+      </c>
+      <c r="F110" s="18">
+        <v>1741845</v>
+      </c>
+      <c r="G110" s="18">
+        <v>15297576</v>
+      </c>
+      <c r="H110" s="18">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>0.11386411807988403</v>
+      </c>
+      <c r="I110" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>6.5957561311526906E-9</v>
+      </c>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E111" s="2">
-        <v>2012</v>
-      </c>
-      <c r="F111" s="2">
-        <v>16</v>
-      </c>
-      <c r="G111" s="2">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>400</v>
-      </c>
-      <c r="H111" s="2">
-        <v>0.04</v>
-      </c>
-      <c r="I111" s="36">
-        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>9.5999999999999989E-5</v>
-      </c>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
+      <c r="A111" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="18">
+        <v>1979</v>
+      </c>
+      <c r="F111" s="18">
+        <v>1327404</v>
+      </c>
+      <c r="G111" s="18">
+        <v>15297576</v>
+      </c>
+      <c r="H111" s="18">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>8.6772178807936626E-2</v>
+      </c>
+      <c r="I111" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>5.1800865570375403E-9</v>
+      </c>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="17" t="s">
@@ -4984,29 +4975,29 @@
         <v>59</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E112" s="18">
         <v>1979</v>
       </c>
       <c r="F112" s="18">
-        <v>2843406</v>
+        <v>1055712</v>
       </c>
       <c r="G112" s="18">
         <v>15297576</v>
       </c>
       <c r="H112" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>0.1858729775227134</v>
+        <v>6.9011717934919892E-2</v>
       </c>
       <c r="I112" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>9.8920386961669154E-9</v>
+        <v>4.1999530332512125E-9</v>
       </c>
       <c r="J112" s="18"/>
       <c r="K112" s="18"/>
       <c r="L112" s="18"/>
-      <c r="M112" s="17"/>
+      <c r="M112" s="18"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="s">
@@ -5018,25 +5009,25 @@
       <c r="C113" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D113" s="21" t="s">
-        <v>54</v>
+      <c r="D113" s="18" t="s">
+        <v>4</v>
       </c>
       <c r="E113" s="18">
         <v>1979</v>
       </c>
       <c r="F113" s="18">
-        <v>2491840</v>
+        <v>818076</v>
       </c>
       <c r="G113" s="18">
         <v>15297576</v>
       </c>
       <c r="H113" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>0.16289116654821653</v>
+        <v>5.3477492120320241E-2</v>
       </c>
       <c r="I113" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>8.9136758927543632E-9</v>
+        <v>3.3088673628319498E-9</v>
       </c>
       <c r="J113" s="18"/>
       <c r="K113" s="18"/>
@@ -5053,25 +5044,25 @@
       <c r="C114" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="D114" s="21" t="s">
-        <v>55</v>
+      <c r="D114" s="18" t="s">
+        <v>5</v>
       </c>
       <c r="E114" s="18">
         <v>1979</v>
       </c>
       <c r="F114" s="18">
-        <v>2074771</v>
+        <v>615594</v>
       </c>
       <c r="G114" s="18">
         <v>15297576</v>
       </c>
       <c r="H114" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>0.13562743535315661</v>
+        <v>4.024127744160251E-2</v>
       </c>
       <c r="I114" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>7.6634778041097449E-9</v>
+        <v>2.5247082957110647E-9</v>
       </c>
       <c r="J114" s="18"/>
       <c r="K114" s="18"/>
@@ -5089,24 +5080,24 @@
         <v>59</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E115" s="18">
         <v>1979</v>
       </c>
       <c r="F115" s="18">
-        <v>1741845</v>
+        <v>535182</v>
       </c>
       <c r="G115" s="18">
         <v>15297576</v>
       </c>
       <c r="H115" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>0.11386411807988403</v>
+        <v>3.4984758369561296E-2</v>
       </c>
       <c r="I115" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>6.5957561311526906E-9</v>
+        <v>2.2069395210969835E-9</v>
       </c>
       <c r="J115" s="18"/>
       <c r="K115" s="18"/>
@@ -5124,24 +5115,24 @@
         <v>59</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E116" s="18">
         <v>1979</v>
       </c>
       <c r="F116" s="18">
-        <v>1327404</v>
+        <v>440879</v>
       </c>
       <c r="G116" s="18">
         <v>15297576</v>
       </c>
       <c r="H116" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>8.6772178807936626E-2</v>
+        <v>2.8820186936806196E-2</v>
       </c>
       <c r="I116" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>5.1800865570375403E-9</v>
+        <v>1.8296744374228794E-9</v>
       </c>
       <c r="J116" s="18"/>
       <c r="K116" s="18"/>
@@ -5159,24 +5150,24 @@
         <v>59</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E117" s="18">
         <v>1979</v>
       </c>
       <c r="F117" s="18">
-        <v>1055712</v>
+        <v>373930</v>
       </c>
       <c r="G117" s="18">
         <v>15297576</v>
       </c>
       <c r="H117" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>6.9011717934919892E-2</v>
+        <v>2.4443741936631007E-2</v>
       </c>
       <c r="I117" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.1999530332512125E-9</v>
+        <v>1.5588250986147345E-9</v>
       </c>
       <c r="J117" s="18"/>
       <c r="K117" s="18"/>
@@ -5194,24 +5185,24 @@
         <v>59</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E118" s="18">
         <v>1979</v>
       </c>
       <c r="F118" s="18">
-        <v>818076</v>
+        <v>275311</v>
       </c>
       <c r="G118" s="18">
         <v>15297576</v>
       </c>
       <c r="H118" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>5.3477492120320241E-2</v>
+        <v>1.7997034301382126E-2</v>
       </c>
       <c r="I118" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.3088673628319498E-9</v>
+        <v>1.1552902929024183E-9</v>
       </c>
       <c r="J118" s="18"/>
       <c r="K118" s="18"/>
@@ -5229,24 +5220,24 @@
         <v>59</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E119" s="18">
         <v>1979</v>
       </c>
       <c r="F119" s="18">
-        <v>615594</v>
+        <v>217228</v>
       </c>
       <c r="G119" s="18">
         <v>15297576</v>
       </c>
       <c r="H119" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>4.024127744160251E-2</v>
+        <v>1.4200158247293558E-2</v>
       </c>
       <c r="I119" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.5247082957110647E-9</v>
+        <v>9.1508051687701232E-10</v>
       </c>
       <c r="J119" s="18"/>
       <c r="K119" s="18"/>
@@ -5264,24 +5255,24 @@
         <v>59</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E120" s="18">
         <v>1979</v>
       </c>
       <c r="F120" s="18">
-        <v>535182</v>
+        <v>183127</v>
       </c>
       <c r="G120" s="18">
         <v>15297576</v>
       </c>
       <c r="H120" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>3.4984758369561296E-2</v>
+        <v>1.1970981546357409E-2</v>
       </c>
       <c r="I120" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.2069395210969835E-9</v>
+        <v>7.7317328883832182E-10</v>
       </c>
       <c r="J120" s="18"/>
       <c r="K120" s="18"/>
@@ -5299,24 +5290,24 @@
         <v>59</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E121" s="18">
         <v>1979</v>
       </c>
       <c r="F121" s="18">
-        <v>440879</v>
+        <v>128908</v>
       </c>
       <c r="G121" s="18">
         <v>15297576</v>
       </c>
       <c r="H121" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>2.8820186936806196E-2</v>
+        <v>8.4266945299046065E-3</v>
       </c>
       <c r="I121" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.8296744374228794E-9</v>
+        <v>5.4620976220051341E-10</v>
       </c>
       <c r="J121" s="18"/>
       <c r="K121" s="18"/>
@@ -5334,24 +5325,24 @@
         <v>59</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E122" s="18">
         <v>1979</v>
       </c>
       <c r="F122" s="18">
-        <v>373930</v>
+        <v>174363</v>
       </c>
       <c r="G122" s="18">
         <v>15297576</v>
       </c>
       <c r="H122" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>2.4443741936631007E-2</v>
+        <v>1.1398080323313969E-2</v>
       </c>
       <c r="I122" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.5588250986147345E-9</v>
+        <v>7.3659801319223717E-10</v>
       </c>
       <c r="J122" s="18"/>
       <c r="K122" s="18"/>
@@ -5359,179 +5350,179 @@
       <c r="M122" s="18"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="17" t="s">
+      <c r="A123" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B123" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C123" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D123" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E123" s="18">
-        <v>1979</v>
-      </c>
-      <c r="F123" s="18">
-        <v>275311</v>
-      </c>
-      <c r="G123" s="18">
-        <v>15297576</v>
-      </c>
-      <c r="H123" s="18">
+      <c r="C123" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E123" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F123" s="20">
+        <v>3800043</v>
+      </c>
+      <c r="G123" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H123" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>1.7997034301382126E-2</v>
-      </c>
-      <c r="I123" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.1552902929024183E-9</v>
-      </c>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
+        <v>0.17889200816529208</v>
+      </c>
+      <c r="I123" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>6.915023283467334E-9</v>
+      </c>
+      <c r="J123" s="20"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="20"/>
+      <c r="M123" s="20"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="17" t="s">
+      <c r="A124" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B124" s="18" t="s">
+      <c r="B124" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C124" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D124" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E124" s="18">
-        <v>1979</v>
-      </c>
-      <c r="F124" s="18">
-        <v>217228</v>
-      </c>
-      <c r="G124" s="18">
-        <v>15297576</v>
-      </c>
-      <c r="H124" s="18">
+      <c r="C124" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E124" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F124" s="20">
+        <v>3468938</v>
+      </c>
+      <c r="G124" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H124" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>1.4200158247293558E-2</v>
-      </c>
-      <c r="I124" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>9.1508051687701232E-10</v>
-      </c>
-      <c r="J124" s="18"/>
-      <c r="K124" s="18"/>
-      <c r="L124" s="18"/>
-      <c r="M124" s="18"/>
+        <v>0.16330480603006123</v>
+      </c>
+      <c r="I124" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>6.432335209962011E-9</v>
+      </c>
+      <c r="J124" s="20"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="20"/>
+      <c r="M124" s="20"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="17" t="s">
+      <c r="A125" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B125" s="18" t="s">
+      <c r="B125" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C125" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D125" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E125" s="18">
-        <v>1979</v>
-      </c>
-      <c r="F125" s="18">
-        <v>183127</v>
-      </c>
-      <c r="G125" s="18">
-        <v>15297576</v>
-      </c>
-      <c r="H125" s="18">
+      <c r="C125" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D125" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E125" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F125" s="20">
+        <v>2989692</v>
+      </c>
+      <c r="G125" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H125" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>1.1970981546357409E-2</v>
-      </c>
-      <c r="I125" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>7.7317328883832182E-10</v>
-      </c>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
+        <v>0.14074367202573981</v>
+      </c>
+      <c r="I125" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>5.693168596863739E-9</v>
+      </c>
+      <c r="J125" s="20"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="20"/>
+      <c r="M125" s="20"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C126" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D126" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E126" s="18">
-        <v>1979</v>
-      </c>
-      <c r="F126" s="18">
-        <v>128908</v>
-      </c>
-      <c r="G126" s="18">
-        <v>15297576</v>
-      </c>
-      <c r="H126" s="18">
+      <c r="C126" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E126" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F126" s="20">
+        <v>2378696</v>
+      </c>
+      <c r="G126" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H126" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>8.4266945299046065E-3</v>
-      </c>
-      <c r="I126" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>5.4620976220051341E-10</v>
-      </c>
-      <c r="J126" s="18"/>
-      <c r="K126" s="18"/>
-      <c r="L126" s="18"/>
-      <c r="M126" s="18"/>
+        <v>0.11198023397491755</v>
+      </c>
+      <c r="I126" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>4.6812995459979474E-9</v>
+      </c>
+      <c r="J126" s="20"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="20"/>
+      <c r="M126" s="20"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="17" t="s">
+      <c r="A127" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B127" s="18" t="s">
+      <c r="B127" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C127" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D127" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E127" s="18">
-        <v>1979</v>
-      </c>
-      <c r="F127" s="18">
-        <v>174363</v>
-      </c>
-      <c r="G127" s="18">
-        <v>15297576</v>
-      </c>
-      <c r="H127" s="18">
+      <c r="C127" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E127" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F127" s="20">
+        <v>1902934</v>
+      </c>
+      <c r="G127" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H127" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>1.1398080323313969E-2</v>
-      </c>
-      <c r="I127" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>7.3659801319223717E-10</v>
-      </c>
-      <c r="J127" s="18"/>
-      <c r="K127" s="18"/>
-      <c r="L127" s="18"/>
-      <c r="M127" s="18"/>
+        <v>8.9583113840030745E-2</v>
+      </c>
+      <c r="I127" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.8394488547771505E-9</v>
+      </c>
+      <c r="J127" s="20"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="20"/>
+      <c r="M127" s="20"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="19" t="s">
@@ -5544,24 +5535,24 @@
         <v>59</v>
       </c>
       <c r="D128" s="20" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E128" s="20">
         <v>1989</v>
       </c>
       <c r="F128" s="20">
-        <v>3800043</v>
+        <v>1629761</v>
       </c>
       <c r="G128" s="20">
         <v>21242106</v>
       </c>
       <c r="H128" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>0.17889200816529208</v>
+        <v>7.6723136585421431E-2</v>
       </c>
       <c r="I128" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>6.915023283467334E-9</v>
+        <v>3.3347304122254265E-9</v>
       </c>
       <c r="J128" s="20"/>
       <c r="K128" s="20"/>
@@ -5579,24 +5570,24 @@
         <v>59</v>
       </c>
       <c r="D129" s="20" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E129" s="20">
         <v>1989</v>
       </c>
       <c r="F129" s="20">
-        <v>3468938</v>
+        <v>1159424</v>
       </c>
       <c r="G129" s="20">
         <v>21242106</v>
       </c>
       <c r="H129" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>0.16330480603006123</v>
+        <v>5.4581405440684648E-2</v>
       </c>
       <c r="I129" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>6.432335209962011E-9</v>
+        <v>2.429244803731054E-9</v>
       </c>
       <c r="J129" s="20"/>
       <c r="K129" s="20"/>
@@ -5614,24 +5605,24 @@
         <v>59</v>
       </c>
       <c r="D130" s="20" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E130" s="20">
         <v>1989</v>
       </c>
       <c r="F130" s="20">
-        <v>2989692</v>
+        <v>918892</v>
       </c>
       <c r="G130" s="20">
         <v>21242106</v>
       </c>
       <c r="H130" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>0.14074367202573981</v>
+        <v>4.3258046071326446E-2</v>
       </c>
       <c r="I130" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>5.693168596863739E-9</v>
+        <v>1.9483373033454144E-9</v>
       </c>
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
@@ -5649,24 +5640,24 @@
         <v>59</v>
       </c>
       <c r="D131" s="20" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E131" s="20">
         <v>1989</v>
       </c>
       <c r="F131" s="20">
-        <v>2378696</v>
+        <v>732178</v>
       </c>
       <c r="G131" s="20">
         <v>21242106</v>
       </c>
       <c r="H131" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>0.11198023397491755</v>
+        <v>3.4468239636879693E-2</v>
       </c>
       <c r="I131" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.6812995459979474E-9</v>
+        <v>1.5667081264548027E-9</v>
       </c>
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
@@ -5684,24 +5675,24 @@
         <v>59</v>
       </c>
       <c r="D132" s="20" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E132" s="20">
         <v>1989</v>
       </c>
       <c r="F132" s="20">
-        <v>1902934</v>
+        <v>574532</v>
       </c>
       <c r="G132" s="20">
         <v>21242106</v>
       </c>
       <c r="H132" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>8.9583113840030745E-2</v>
+        <v>2.7046847426521647E-2</v>
       </c>
       <c r="I132" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.8394488547771505E-9</v>
+        <v>1.2388279895980232E-9</v>
       </c>
       <c r="J132" s="20"/>
       <c r="K132" s="20"/>
@@ -5719,24 +5710,24 @@
         <v>59</v>
       </c>
       <c r="D133" s="20" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E133" s="20">
         <v>1989</v>
       </c>
       <c r="F133" s="20">
-        <v>1629761</v>
+        <v>476523</v>
       </c>
       <c r="G133" s="20">
         <v>21242106</v>
       </c>
       <c r="H133" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>7.6723136585421431E-2</v>
+        <v>2.243294520797514E-2</v>
       </c>
       <c r="I133" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.3347304122254265E-9</v>
+        <v>1.0323697743185692E-9</v>
       </c>
       <c r="J133" s="20"/>
       <c r="K133" s="20"/>
@@ -5754,24 +5745,24 @@
         <v>59</v>
       </c>
       <c r="D134" s="20" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E134" s="20">
         <v>1989</v>
       </c>
       <c r="F134" s="20">
-        <v>1159424</v>
+        <v>360172</v>
       </c>
       <c r="G134" s="20">
         <v>21242106</v>
       </c>
       <c r="H134" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>5.4581405440684648E-2</v>
+        <v>1.6955569283008003E-2</v>
       </c>
       <c r="I134" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.429244803731054E-9</v>
+        <v>7.8467163064232515E-10</v>
       </c>
       <c r="J134" s="20"/>
       <c r="K134" s="20"/>
@@ -5789,24 +5780,24 @@
         <v>59</v>
       </c>
       <c r="D135" s="20" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E135" s="20">
         <v>1989</v>
       </c>
       <c r="F135" s="20">
-        <v>918892</v>
+        <v>318397</v>
       </c>
       <c r="G135" s="20">
         <v>21242106</v>
       </c>
       <c r="H135" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>4.3258046071326446E-2</v>
+        <v>1.4988956368073863E-2</v>
       </c>
       <c r="I135" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.9483373033454144E-9</v>
+        <v>6.9504820073253754E-10</v>
       </c>
       <c r="J135" s="20"/>
       <c r="K135" s="20"/>
@@ -5824,24 +5815,24 @@
         <v>59</v>
       </c>
       <c r="D136" s="20" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E136" s="20">
         <v>1989</v>
       </c>
       <c r="F136" s="20">
-        <v>732178</v>
+        <v>230670</v>
       </c>
       <c r="G136" s="20">
         <v>21242106</v>
       </c>
       <c r="H136" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>3.4468239636879693E-2</v>
+        <v>1.085909278486794E-2</v>
       </c>
       <c r="I136" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.5667081264548027E-9</v>
+        <v>5.0565480130630977E-10</v>
       </c>
       <c r="J136" s="20"/>
       <c r="K136" s="20"/>
@@ -5859,24 +5850,24 @@
         <v>59</v>
       </c>
       <c r="D137" s="20" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E137" s="20">
         <v>1989</v>
       </c>
       <c r="F137" s="20">
-        <v>574532</v>
+        <v>174178</v>
       </c>
       <c r="G137" s="20">
         <v>21242106</v>
       </c>
       <c r="H137" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>2.7046847426521647E-2</v>
+        <v>8.199657792876092E-3</v>
       </c>
       <c r="I137" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.2388279895980232E-9</v>
+        <v>3.8284449785514764E-10</v>
       </c>
       <c r="J137" s="20"/>
       <c r="K137" s="20"/>
@@ -5894,24 +5885,24 @@
         <v>59</v>
       </c>
       <c r="D138" s="20" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E138" s="20">
         <v>1989</v>
       </c>
       <c r="F138" s="20">
-        <v>476523</v>
+        <v>127076</v>
       </c>
       <c r="G138" s="20">
         <v>21242106</v>
       </c>
       <c r="H138" s="20">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>2.243294520797514E-2</v>
+        <v>5.982269366323659E-3</v>
       </c>
       <c r="I138" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.0323697743185692E-9</v>
+        <v>2.7993843075410722E-10</v>
       </c>
       <c r="J138" s="20"/>
       <c r="K138" s="20"/>
@@ -5919,179 +5910,179 @@
       <c r="M138" s="20"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="19" t="s">
+      <c r="A139" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B139" s="20" t="s">
+      <c r="B139" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C139" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D139" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E139" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F139" s="20">
-        <v>360172</v>
-      </c>
-      <c r="G139" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H139" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>1.6955569283008003E-2</v>
-      </c>
-      <c r="I139" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>7.8467163064232515E-10</v>
-      </c>
-      <c r="J139" s="20"/>
-      <c r="K139" s="20"/>
-      <c r="L139" s="20"/>
-      <c r="M139" s="20"/>
+      <c r="C139" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E139" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F139" s="18">
+        <v>4534902</v>
+      </c>
+      <c r="G139" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H139" s="18">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.16036164223630081</v>
+      </c>
+      <c r="I139" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>4.7612978963661429E-9</v>
+      </c>
+      <c r="J139" s="18"/>
+      <c r="K139" s="18"/>
+      <c r="L139" s="18"/>
+      <c r="M139" s="18"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="19" t="s">
+      <c r="A140" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C140" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D140" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E140" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F140" s="20">
-        <v>318397</v>
-      </c>
-      <c r="G140" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H140" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>1.4988956368073863E-2</v>
-      </c>
-      <c r="I140" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>6.9504820073253754E-10</v>
-      </c>
-      <c r="J140" s="20"/>
-      <c r="K140" s="20"/>
-      <c r="L140" s="20"/>
-      <c r="M140" s="20"/>
+      <c r="C140" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D140" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E140" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F140" s="18">
+        <v>3963136</v>
+      </c>
+      <c r="G140" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H140" s="18">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.14014304991944793</v>
+      </c>
+      <c r="I140" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>4.2611847052325967E-9</v>
+      </c>
+      <c r="J140" s="18"/>
+      <c r="K140" s="18"/>
+      <c r="L140" s="18"/>
+      <c r="M140" s="18"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="19" t="s">
+      <c r="A141" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C141" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D141" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E141" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F141" s="20">
-        <v>230670</v>
-      </c>
-      <c r="G141" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H141" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>1.085909278486794E-2</v>
-      </c>
-      <c r="I141" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>5.0565480130630977E-10</v>
-      </c>
-      <c r="J141" s="20"/>
-      <c r="K141" s="20"/>
-      <c r="L141" s="20"/>
-      <c r="M141" s="20"/>
+      <c r="C141" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E141" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F141" s="18">
+        <v>4038635</v>
+      </c>
+      <c r="G141" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H141" s="18">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.14281281954781</v>
+      </c>
+      <c r="I141" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>4.3288790302382347E-9</v>
+      </c>
+      <c r="J141" s="18"/>
+      <c r="K141" s="18"/>
+      <c r="L141" s="18"/>
+      <c r="M141" s="18"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="19" t="s">
+      <c r="A142" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B142" s="20" t="s">
+      <c r="B142" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C142" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D142" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E142" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F142" s="20">
-        <v>174178</v>
-      </c>
-      <c r="G142" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H142" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>8.199657792876092E-3</v>
-      </c>
-      <c r="I142" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.8284449785514764E-10</v>
-      </c>
-      <c r="J142" s="20"/>
-      <c r="K142" s="20"/>
-      <c r="L142" s="20"/>
-      <c r="M142" s="20"/>
+      <c r="C142" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D142" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F142" s="18">
+        <v>3403178</v>
+      </c>
+      <c r="G142" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H142" s="18">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.12034200803070269</v>
+      </c>
+      <c r="I142" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.7433781015607605E-9</v>
+      </c>
+      <c r="J142" s="18"/>
+      <c r="K142" s="18"/>
+      <c r="L142" s="18"/>
+      <c r="M142" s="18"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="19" t="s">
+      <c r="A143" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C143" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D143" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E143" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F143" s="20">
-        <v>127076</v>
-      </c>
-      <c r="G143" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H143" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>5.982269366323659E-3</v>
-      </c>
-      <c r="I143" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.7993843075410722E-10</v>
-      </c>
-      <c r="J143" s="20"/>
-      <c r="K143" s="20"/>
-      <c r="L143" s="20"/>
-      <c r="M143" s="20"/>
+      <c r="C143" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F143" s="18">
+        <v>2832918</v>
+      </c>
+      <c r="G143" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H143" s="18">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.10017667036702817</v>
+      </c>
+      <c r="I143" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.1875457763244433E-9</v>
+      </c>
+      <c r="J143" s="18"/>
+      <c r="K143" s="18"/>
+      <c r="L143" s="18"/>
+      <c r="M143" s="18"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" s="17" t="s">
@@ -6104,24 +6095,24 @@
         <v>59</v>
       </c>
       <c r="D144" s="18" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E144" s="18">
         <v>1999</v>
       </c>
       <c r="F144" s="18">
-        <v>4534902</v>
+        <v>2259503</v>
       </c>
       <c r="G144" s="18">
         <v>28279219</v>
       </c>
       <c r="H144" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>0.16036164223630081</v>
+        <v>7.9899766680260872E-2</v>
       </c>
       <c r="I144" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.7612978963661429E-9</v>
+        <v>2.5996401797624167E-9</v>
       </c>
       <c r="J144" s="18"/>
       <c r="K144" s="18"/>
@@ -6139,24 +6130,24 @@
         <v>59</v>
       </c>
       <c r="D145" s="18" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E145" s="18">
         <v>1999</v>
       </c>
       <c r="F145" s="18">
-        <v>3963136</v>
+        <v>1685922</v>
       </c>
       <c r="G145" s="18">
         <v>28279219</v>
       </c>
       <c r="H145" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>0.14014304991944793</v>
+        <v>5.9616992958681073E-2</v>
       </c>
       <c r="I145" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.2611847052325967E-9</v>
+        <v>1.9824736711875122E-9</v>
       </c>
       <c r="J145" s="18"/>
       <c r="K145" s="18"/>
@@ -6174,24 +6165,24 @@
         <v>59</v>
       </c>
       <c r="D146" s="18" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E146" s="18">
         <v>1999</v>
       </c>
       <c r="F146" s="18">
-        <v>4038635</v>
+        <v>1419012</v>
       </c>
       <c r="G146" s="18">
         <v>28279219</v>
       </c>
       <c r="H146" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>0.14281281954781</v>
+        <v>5.0178613489997727E-2</v>
       </c>
       <c r="I146" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.3288790302382347E-9</v>
+        <v>1.685361969799065E-9</v>
       </c>
       <c r="J146" s="18"/>
       <c r="K146" s="18"/>
@@ -6209,24 +6200,24 @@
         <v>59</v>
       </c>
       <c r="D147" s="18" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E147" s="18">
         <v>1999</v>
       </c>
       <c r="F147" s="18">
-        <v>3403178</v>
+        <v>1033491</v>
       </c>
       <c r="G147" s="18">
         <v>28279219</v>
       </c>
       <c r="H147" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>0.12034200803070269</v>
+        <v>3.6545952701169011E-2</v>
       </c>
       <c r="I147" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.7433781015607605E-9</v>
+        <v>1.2450961266763743E-9</v>
       </c>
       <c r="J147" s="18"/>
       <c r="K147" s="18"/>
@@ -6244,24 +6235,24 @@
         <v>59</v>
       </c>
       <c r="D148" s="18" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E148" s="18">
         <v>1999</v>
       </c>
       <c r="F148" s="18">
-        <v>2832918</v>
+        <v>838328</v>
       </c>
       <c r="G148" s="18">
         <v>28279219</v>
       </c>
       <c r="H148" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>0.10017667036702817</v>
+        <v>2.9644665929423299E-2</v>
       </c>
       <c r="I148" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.1875457763244433E-9</v>
+        <v>1.0172084211857546E-9</v>
       </c>
       <c r="J148" s="18"/>
       <c r="K148" s="18"/>
@@ -6279,24 +6270,24 @@
         <v>59</v>
       </c>
       <c r="D149" s="18" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E149" s="18">
         <v>1999</v>
       </c>
       <c r="F149" s="18">
-        <v>2259503</v>
+        <v>684806</v>
       </c>
       <c r="G149" s="18">
         <v>28279219</v>
       </c>
       <c r="H149" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>7.9899766680260872E-2</v>
+        <v>2.4215873854224898E-2</v>
       </c>
       <c r="I149" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.5996401797624167E-9</v>
+        <v>8.3557701178738938E-10</v>
       </c>
       <c r="J149" s="18"/>
       <c r="K149" s="18"/>
@@ -6314,24 +6305,24 @@
         <v>59</v>
       </c>
       <c r="D150" s="18" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E150" s="18">
         <v>1999</v>
       </c>
       <c r="F150" s="18">
-        <v>1685922</v>
+        <v>459916</v>
       </c>
       <c r="G150" s="18">
         <v>28279219</v>
       </c>
       <c r="H150" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>5.9616992958681073E-2</v>
+        <v>1.6263391149522199E-2</v>
       </c>
       <c r="I150" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.9824736711875122E-9</v>
+        <v>5.6574735171575428E-10</v>
       </c>
       <c r="J150" s="18"/>
       <c r="K150" s="18"/>
@@ -6349,24 +6340,24 @@
         <v>59</v>
       </c>
       <c r="D151" s="18" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E151" s="18">
         <v>1999</v>
       </c>
       <c r="F151" s="18">
-        <v>1419012</v>
+        <v>409228</v>
       </c>
       <c r="G151" s="18">
         <v>28279219</v>
       </c>
       <c r="H151" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>5.0178613489997727E-2</v>
+        <v>1.4470979555694236E-2</v>
       </c>
       <c r="I151" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.685361969799065E-9</v>
+        <v>5.04312736019793E-10</v>
       </c>
       <c r="J151" s="18"/>
       <c r="K151" s="18"/>
@@ -6384,24 +6375,24 @@
         <v>59</v>
       </c>
       <c r="D152" s="18" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E152" s="18">
         <v>1999</v>
       </c>
       <c r="F152" s="18">
-        <v>1033491</v>
+        <v>301333</v>
       </c>
       <c r="G152" s="18">
         <v>28279219</v>
       </c>
       <c r="H152" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>3.6545952701169011E-2</v>
+        <v>1.0655633735853879E-2</v>
       </c>
       <c r="I152" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.2450961266763743E-9</v>
+        <v>3.7278579742747534E-10</v>
       </c>
       <c r="J152" s="18"/>
       <c r="K152" s="18"/>
@@ -6419,24 +6410,24 @@
         <v>59</v>
       </c>
       <c r="D153" s="18" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E153" s="18">
         <v>1999</v>
       </c>
       <c r="F153" s="18">
-        <v>838328</v>
+        <v>254125</v>
       </c>
       <c r="G153" s="18">
         <v>28279219</v>
       </c>
       <c r="H153" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>2.9644665929423299E-2</v>
+        <v>8.9862807031552035E-3</v>
       </c>
       <c r="I153" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.0172084211857546E-9</v>
+        <v>3.1491419413949525E-10</v>
       </c>
       <c r="J153" s="18"/>
       <c r="K153" s="18"/>
@@ -6454,24 +6445,24 @@
         <v>59</v>
       </c>
       <c r="D154" s="18" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E154" s="18">
         <v>1999</v>
       </c>
       <c r="F154" s="18">
-        <v>684806</v>
+        <v>160786</v>
       </c>
       <c r="G154" s="18">
         <v>28279219</v>
       </c>
       <c r="H154" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>2.4215873854224898E-2</v>
+        <v>5.6856591407280378E-3</v>
       </c>
       <c r="I154" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>8.3557701178738938E-10</v>
+        <v>1.9991119347615269E-10</v>
       </c>
       <c r="J154" s="18"/>
       <c r="K154" s="18"/>
@@ -6479,179 +6470,179 @@
       <c r="M154" s="18"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="17" t="s">
+      <c r="A155" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B155" s="18" t="s">
+      <c r="B155" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C155" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D155" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E155" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F155" s="18">
-        <v>459916</v>
-      </c>
-      <c r="G155" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H155" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>1.6263391149522199E-2</v>
-      </c>
-      <c r="I155" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>5.6574735171575428E-10</v>
-      </c>
-      <c r="J155" s="18"/>
-      <c r="K155" s="18"/>
-      <c r="L155" s="18"/>
-      <c r="M155" s="18"/>
+      <c r="C155" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D155" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E155" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F155" s="20">
+        <v>5939306</v>
+      </c>
+      <c r="G155" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H155" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.15545760523864352</v>
+      </c>
+      <c r="I155" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.4364473999061804E-9</v>
+      </c>
+      <c r="J155" s="20"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="20"/>
+      <c r="M155" s="20"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B156" s="18" t="s">
+      <c r="B156" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C156" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D156" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E156" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F156" s="18">
-        <v>409228</v>
-      </c>
-      <c r="G156" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H156" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>1.4470979555694236E-2</v>
-      </c>
-      <c r="I156" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>5.04312736019793E-10</v>
-      </c>
-      <c r="J156" s="18"/>
-      <c r="K156" s="18"/>
-      <c r="L156" s="18"/>
-      <c r="M156" s="18"/>
+      <c r="C156" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D156" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E156" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F156" s="20">
+        <v>5597716</v>
+      </c>
+      <c r="G156" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H156" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.14651670147421916</v>
+      </c>
+      <c r="I156" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.2730936527758496E-9</v>
+      </c>
+      <c r="J156" s="20"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="20"/>
+      <c r="M156" s="20"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="17" t="s">
+      <c r="A157" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B157" s="18" t="s">
+      <c r="B157" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C157" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D157" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E157" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F157" s="18">
-        <v>301333</v>
-      </c>
-      <c r="G157" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H157" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>1.0655633735853879E-2</v>
-      </c>
-      <c r="I157" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.7278579742747534E-10</v>
-      </c>
-      <c r="J157" s="18"/>
-      <c r="K157" s="18"/>
-      <c r="L157" s="18"/>
-      <c r="M157" s="18"/>
+      <c r="C157" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D157" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E157" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F157" s="20">
+        <v>5034855</v>
+      </c>
+      <c r="G157" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H157" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.13178416822164249</v>
+      </c>
+      <c r="I157" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>2.9947957817322335E-9</v>
+      </c>
+      <c r="J157" s="20"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="20"/>
+      <c r="M157" s="20"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="17" t="s">
+      <c r="A158" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B158" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C158" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D158" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E158" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F158" s="18">
-        <v>254125</v>
-      </c>
-      <c r="G158" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H158" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>8.9862807031552035E-3</v>
-      </c>
-      <c r="I158" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.1491419413949525E-10</v>
-      </c>
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="18"/>
+      <c r="C158" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D158" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E158" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F158" s="20">
+        <v>4169543</v>
+      </c>
+      <c r="G158" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H158" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.10913516995412417</v>
+      </c>
+      <c r="I158" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>2.5447950725490409E-9</v>
+      </c>
+      <c r="J158" s="20"/>
+      <c r="K158" s="20"/>
+      <c r="L158" s="20"/>
+      <c r="M158" s="20"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="17" t="s">
+      <c r="A159" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B159" s="18" t="s">
+      <c r="B159" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C159" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D159" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E159" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F159" s="18">
-        <v>160786</v>
-      </c>
-      <c r="G159" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H159" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>5.6856591407280378E-3</v>
-      </c>
-      <c r="I159" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.9991119347615269E-10</v>
-      </c>
-      <c r="J159" s="18"/>
-      <c r="K159" s="18"/>
-      <c r="L159" s="18"/>
-      <c r="M159" s="18"/>
+      <c r="C159" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D159" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F159" s="20">
+        <v>3775103</v>
+      </c>
+      <c r="G159" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H159" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>9.8810950624402732E-2</v>
+      </c>
+      <c r="I159" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>2.3307583857088082E-9</v>
+      </c>
+      <c r="J159" s="20"/>
+      <c r="K159" s="20"/>
+      <c r="L159" s="20"/>
+      <c r="M159" s="20"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160" s="19" t="s">
@@ -6664,24 +6655,24 @@
         <v>59</v>
       </c>
       <c r="D160" s="20" t="s">
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="E160" s="20">
         <v>2009</v>
       </c>
       <c r="F160" s="20">
-        <v>5939306</v>
+        <v>3201226</v>
       </c>
       <c r="G160" s="20">
         <v>38205310</v>
       </c>
       <c r="H160" s="20">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>0.15545760523864352</v>
+        <v>8.3790080488811633E-2</v>
       </c>
       <c r="I160" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.4364473999061804E-9</v>
+        <v>2.0093882997020596E-9</v>
       </c>
       <c r="J160" s="20"/>
       <c r="K160" s="20"/>
@@ -6699,24 +6690,24 @@
         <v>59</v>
       </c>
       <c r="D161" s="20" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="E161" s="20">
         <v>2009</v>
       </c>
       <c r="F161" s="20">
-        <v>5597716</v>
+        <v>2519506</v>
       </c>
       <c r="G161" s="20">
         <v>38205310</v>
       </c>
       <c r="H161" s="20">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>0.14651670147421916</v>
+        <v>6.59464875432237E-2</v>
       </c>
       <c r="I161" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.2730936527758496E-9</v>
+        <v>1.6122771500593803E-9</v>
       </c>
       <c r="J161" s="20"/>
       <c r="K161" s="20"/>
@@ -6734,24 +6725,24 @@
         <v>59</v>
       </c>
       <c r="D162" s="20" t="s">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="E162" s="20">
         <v>2009</v>
       </c>
       <c r="F162" s="20">
-        <v>5034855</v>
+        <v>2008632</v>
       </c>
       <c r="G162" s="20">
         <v>38205310</v>
       </c>
       <c r="H162" s="20">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>0.13178416822164249</v>
+        <v>5.257468137282488E-2</v>
       </c>
       <c r="I162" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.9947957817322335E-9</v>
+        <v>1.3037607665366628E-9</v>
       </c>
       <c r="J162" s="20"/>
       <c r="K162" s="20"/>
@@ -6769,24 +6760,24 @@
         <v>59</v>
       </c>
       <c r="D163" s="20" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E163" s="20">
         <v>2009</v>
       </c>
       <c r="F163" s="20">
-        <v>4169543</v>
+        <v>1476169</v>
       </c>
       <c r="G163" s="20">
         <v>38205310</v>
       </c>
       <c r="H163" s="20">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>0.10913516995412417</v>
+        <v>3.8637796683235914E-2</v>
       </c>
       <c r="I163" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.5447950725490409E-9</v>
+        <v>9.7224488822890954E-10</v>
       </c>
       <c r="J163" s="20"/>
       <c r="K163" s="20"/>
@@ -6804,24 +6795,24 @@
         <v>59</v>
       </c>
       <c r="D164" s="20" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E164" s="20">
         <v>2009</v>
       </c>
       <c r="F164" s="20">
-        <v>3775103</v>
+        <v>1272745</v>
       </c>
       <c r="G164" s="20">
         <v>38205310</v>
       </c>
       <c r="H164" s="20">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>9.8810950624402732E-2</v>
+        <v>3.3313301213888855E-2</v>
       </c>
       <c r="I164" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.3307583857088082E-9</v>
+        <v>8.429070507770141E-10</v>
       </c>
       <c r="J164" s="20"/>
       <c r="K164" s="20"/>
@@ -6839,24 +6830,24 @@
         <v>59</v>
       </c>
       <c r="D165" s="20" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="E165" s="20">
         <v>2009</v>
       </c>
       <c r="F165" s="20">
-        <v>3201226</v>
+        <v>956206</v>
       </c>
       <c r="G165" s="20">
         <v>38205310</v>
       </c>
       <c r="H165" s="20">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>8.3790080488811633E-2</v>
+        <v>2.5028091644852507E-2</v>
       </c>
       <c r="I165" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.0093882997020596E-9</v>
+        <v>6.3869881630248177E-10</v>
       </c>
       <c r="J165" s="20"/>
       <c r="K165" s="20"/>
@@ -6874,24 +6865,24 @@
         <v>59</v>
       </c>
       <c r="D166" s="20" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="E166" s="20">
         <v>2009</v>
       </c>
       <c r="F166" s="20">
-        <v>2519506</v>
+        <v>711953</v>
       </c>
       <c r="G166" s="20">
         <v>38205310</v>
       </c>
       <c r="H166" s="20">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>6.59464875432237E-2</v>
+        <v>1.8634922737179729E-2</v>
       </c>
       <c r="I166" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.6122771500593803E-9</v>
+        <v>4.7866808021605036E-10</v>
       </c>
       <c r="J166" s="20"/>
       <c r="K166" s="20"/>
@@ -6909,24 +6900,24 @@
         <v>59</v>
       </c>
       <c r="D167" s="20" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="E167" s="20">
         <v>2009</v>
       </c>
       <c r="F167" s="20">
-        <v>2008632</v>
+        <v>593778</v>
       </c>
       <c r="G167" s="20">
         <v>38205310</v>
       </c>
       <c r="H167" s="20">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>5.257468137282488E-2</v>
+        <v>1.5541766314682435E-2</v>
       </c>
       <c r="I167" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.3037607665366628E-9</v>
+        <v>4.0047364658216983E-10</v>
       </c>
       <c r="J167" s="20"/>
       <c r="K167" s="20"/>
@@ -6944,24 +6935,24 @@
         <v>59</v>
       </c>
       <c r="D168" s="20" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="E168" s="20">
         <v>2009</v>
       </c>
       <c r="F168" s="20">
-        <v>1476169</v>
+        <v>390763</v>
       </c>
       <c r="G168" s="20">
         <v>38205310</v>
       </c>
       <c r="H168" s="20">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>3.8637796683235914E-2</v>
+        <v>1.022797616352282E-2</v>
       </c>
       <c r="I168" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>9.7224488822890954E-10</v>
+        <v>2.6497271366522689E-10</v>
       </c>
       <c r="J168" s="20"/>
       <c r="K168" s="20"/>
@@ -6979,24 +6970,24 @@
         <v>59</v>
       </c>
       <c r="D169" s="20" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="E169" s="20">
         <v>2009</v>
       </c>
       <c r="F169" s="20">
-        <v>1272745</v>
+        <v>339301</v>
       </c>
       <c r="G169" s="20">
         <v>38205310</v>
       </c>
       <c r="H169" s="20">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>3.3313301213888855E-2</v>
+        <v>8.8809906266956087E-3</v>
       </c>
       <c r="I169" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>8.429070507770141E-10</v>
+        <v>2.3038992831583237E-10</v>
       </c>
       <c r="J169" s="20"/>
       <c r="K169" s="20"/>
@@ -7014,24 +7005,24 @@
         <v>59</v>
       </c>
       <c r="D170" s="20" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E170" s="20">
         <v>2009</v>
       </c>
       <c r="F170" s="20">
-        <v>956206</v>
+        <v>218508</v>
       </c>
       <c r="G170" s="20">
         <v>38205310</v>
       </c>
       <c r="H170" s="20">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>2.5028091644852507E-2</v>
+        <v>5.719309698049826E-3</v>
       </c>
       <c r="I170" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>6.3869881630248177E-10</v>
+        <v>1.4884316328352313E-10</v>
       </c>
       <c r="J170" s="20"/>
       <c r="K170" s="20"/>
@@ -7039,299 +7030,124 @@
       <c r="M170" s="20"/>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B171" s="20" t="s">
+      <c r="A171" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B171" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C171" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D171" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E171" s="20">
+      <c r="C171" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D171" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E171" s="18">
+        <v>1979</v>
+      </c>
+      <c r="F171" s="18"/>
+      <c r="G171" s="18"/>
+      <c r="H171" s="18">
+        <v>15297576</v>
+      </c>
+      <c r="I171" s="38">
+        <f>SUM(I107:I122)</f>
+        <v>5.8000354704160582E-8</v>
+      </c>
+      <c r="J171" s="18"/>
+      <c r="K171" s="18"/>
+      <c r="L171" s="18"/>
+      <c r="M171" s="18"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A172" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B172" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C172" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D172" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E172" s="18">
+        <v>1989</v>
+      </c>
+      <c r="F172" s="18"/>
+      <c r="G172" s="18"/>
+      <c r="H172" s="18">
+        <v>21242106</v>
+      </c>
+      <c r="I172" s="38">
+        <f>SUM(I123:I138)</f>
+        <v>4.1759651462031905E-8</v>
+      </c>
+      <c r="J172" s="18"/>
+      <c r="K172" s="18"/>
+      <c r="L172" s="18"/>
+      <c r="M172" s="18"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A173" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C173" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D173" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F173" s="18"/>
+      <c r="G173" s="18"/>
+      <c r="H173" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="I173" s="38">
+        <f>SUM(I139:I154)</f>
+        <v>3.1605314162899356E-8</v>
+      </c>
+      <c r="J173" s="18"/>
+      <c r="K173" s="18"/>
+      <c r="L173" s="18"/>
+      <c r="M173" s="18"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A174" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B174" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C174" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D174" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E174" s="18">
         <v>2009</v>
       </c>
-      <c r="F171" s="20">
-        <v>711953</v>
-      </c>
-      <c r="G171" s="20">
+      <c r="F174" s="18"/>
+      <c r="G174" s="18"/>
+      <c r="H174" s="18">
         <v>38205310</v>
       </c>
-      <c r="H171" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>1.8634922737179729E-2</v>
-      </c>
-      <c r="I171" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.7866808021605036E-10</v>
-      </c>
-      <c r="J171" s="20"/>
-      <c r="K171" s="20"/>
-      <c r="L171" s="20"/>
-      <c r="M171" s="20"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B172" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C172" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D172" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E172" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F172" s="20">
-        <v>593778</v>
-      </c>
-      <c r="G172" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H172" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>1.5541766314682435E-2</v>
-      </c>
-      <c r="I172" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.0047364658216983E-10</v>
-      </c>
-      <c r="J172" s="20"/>
-      <c r="K172" s="20"/>
-      <c r="L172" s="20"/>
-      <c r="M172" s="20"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B173" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D173" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E173" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F173" s="20">
-        <v>390763</v>
-      </c>
-      <c r="G173" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H173" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>1.022797616352282E-2</v>
-      </c>
-      <c r="I173" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.6497271366522689E-10</v>
-      </c>
-      <c r="J173" s="20"/>
-      <c r="K173" s="20"/>
-      <c r="L173" s="20"/>
-      <c r="M173" s="20"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B174" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C174" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D174" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E174" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F174" s="20">
-        <v>339301</v>
-      </c>
-      <c r="G174" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H174" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>8.8809906266956087E-3</v>
-      </c>
-      <c r="I174" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.3038992831583237E-10</v>
-      </c>
-      <c r="J174" s="20"/>
-      <c r="K174" s="20"/>
-      <c r="L174" s="20"/>
-      <c r="M174" s="20"/>
-    </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B175" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C175" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D175" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E175" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F175" s="20">
-        <v>218508</v>
-      </c>
-      <c r="G175" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H175" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>5.719309698049826E-3</v>
-      </c>
-      <c r="I175" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.4884316328352313E-10</v>
-      </c>
-      <c r="J175" s="20"/>
-      <c r="K175" s="20"/>
-      <c r="L175" s="20"/>
-      <c r="M175" s="20"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B176" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D176" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E176" s="18">
-        <v>1979</v>
-      </c>
-      <c r="F176" s="18"/>
-      <c r="G176" s="18"/>
-      <c r="H176" s="18">
-        <v>15297576</v>
-      </c>
-      <c r="I176" s="38">
-        <f>SUM(I112:I127)</f>
-        <v>5.8000354704160582E-8</v>
-      </c>
-      <c r="J176" s="18"/>
-      <c r="K176" s="18"/>
-      <c r="L176" s="18"/>
-      <c r="M176" s="18"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B177" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C177" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D177" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E177" s="18">
-        <v>1989</v>
-      </c>
-      <c r="F177" s="18"/>
-      <c r="G177" s="18"/>
-      <c r="H177" s="18">
-        <v>21242106</v>
-      </c>
-      <c r="I177" s="38">
-        <f>SUM(I128:I143)</f>
-        <v>4.1759651462031905E-8</v>
-      </c>
-      <c r="J177" s="18"/>
-      <c r="K177" s="18"/>
-      <c r="L177" s="18"/>
-      <c r="M177" s="18"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B178" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C178" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D178" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E178" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F178" s="18"/>
-      <c r="G178" s="18"/>
-      <c r="H178" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="I178" s="38">
-        <f>SUM(I144:I159)</f>
-        <v>3.1605314162899356E-8</v>
-      </c>
-      <c r="J178" s="18"/>
-      <c r="K178" s="18"/>
-      <c r="L178" s="18"/>
-      <c r="M178" s="18"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="B179" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C179" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D179" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E179" s="18">
-        <v>2009</v>
-      </c>
-      <c r="F179" s="18"/>
-      <c r="G179" s="18"/>
-      <c r="H179" s="18">
-        <v>38205310</v>
-      </c>
-      <c r="I179" s="38">
-        <f>SUM(I160:I175)</f>
+      <c r="I174" s="38">
+        <f>SUM(I155:I170)</f>
         <v>2.3482514796341427E-8</v>
       </c>
-      <c r="J179" s="18"/>
-      <c r="K179" s="18"/>
-      <c r="L179" s="18"/>
-      <c r="M179" s="18"/>
+      <c r="J174" s="18"/>
+      <c r="K174" s="18"/>
+      <c r="L174" s="18"/>
+      <c r="M174" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Calibration_targets_Kenya.xlsx
+++ b/Config/Calibration_targets_Kenya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20364"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\udrive.uw.edu\udrive\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FBC3E7-4A35-4B22-96AC-7AB4A3DFDF46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D5381A-B9E7-486E-9B3F-177201184EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="84">
   <si>
     <t>Criteria</t>
   </si>
@@ -274,9 +274,6 @@
   </si>
   <si>
     <t>% CIN3 attributable to non-9v HPV</t>
-  </si>
-  <si>
-    <t>N</t>
   </si>
   <si>
     <t xml:space="preserve">Total population size </t>
@@ -806,24 +803,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.28515625" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" style="29" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="13" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1132,7 +1129,9 @@
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M10" s="25">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]*100000</f>
         <v>0.71663276482550387</v>
@@ -1170,7 +1169,9 @@
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="L11" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M11" s="25">
         <v>0.84806759505553897</v>
       </c>
@@ -1207,7 +1208,9 @@
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="L12" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M12" s="25">
         <v>7.9909247379126498</v>
       </c>
@@ -1244,7 +1247,9 @@
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="L13" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M13" s="25">
         <v>20.976373024565699</v>
       </c>
@@ -1281,7 +1286,9 @@
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="L14" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M14" s="25">
         <v>40.716632764825398</v>
       </c>
@@ -1318,7 +1325,9 @@
       </c>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="L15" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M15" s="25">
         <v>62.664684712877403</v>
       </c>
@@ -1355,7 +1364,9 @@
       </c>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="L16" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M16" s="25">
         <v>83.052730402127906</v>
       </c>
@@ -1392,7 +1403,9 @@
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="L17" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M17" s="25">
         <v>103.442340791738</v>
       </c>
@@ -1429,7 +1442,9 @@
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="L18" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M18" s="25">
         <v>130.32389297449501</v>
       </c>
@@ -1466,7 +1481,9 @@
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="L19" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M19" s="25">
         <v>150.45376310436501</v>
       </c>
@@ -1503,7 +1520,9 @@
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="L20" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M20" s="25">
         <v>156.29791894852099</v>
       </c>
@@ -1540,7 +1559,9 @@
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="L21" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M21" s="25">
         <v>150.71350336410501</v>
       </c>
@@ -1577,7 +1598,9 @@
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="L22" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M22" s="25">
         <v>133.18103583163801</v>
       </c>
@@ -1729,7 +1752,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="M26" s="24"/>
     </row>
@@ -1766,7 +1789,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
       <c r="L27" s="24" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="M27" s="24"/>
     </row>
@@ -1803,7 +1826,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="M28" s="24"/>
     </row>
@@ -1839,7 +1862,9 @@
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="L29" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1874,7 +1899,9 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="L30" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1909,7 +1936,9 @@
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+      <c r="L31" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1944,7 +1973,9 @@
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
+      <c r="L32" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1979,7 +2010,9 @@
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+      <c r="L33" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="M33" s="15"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2014,7 +2047,9 @@
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
+      <c r="L34" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2049,7 +2084,9 @@
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
+      <c r="L35" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2084,7 +2121,9 @@
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
+      <c r="L36" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2119,7 +2158,9 @@
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="L37" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2154,7 +2195,9 @@
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
+      <c r="L38" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2189,7 +2232,9 @@
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
+      <c r="L39" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2224,7 +2269,9 @@
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
+      <c r="L40" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="M40" s="12"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4471,7 +4518,9 @@
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+      <c r="L97" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="M97" s="2"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4506,7 +4555,9 @@
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
+      <c r="L98" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="M98" s="2"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4541,7 +4592,9 @@
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
+      <c r="L99" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="M99" s="2"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4576,7 +4629,9 @@
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
+      <c r="L100" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="M100" s="2"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4611,7 +4666,9 @@
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
+      <c r="L101" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="M101" s="2"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4646,7 +4703,9 @@
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
+      <c r="L102" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="M102" s="2"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4681,7 +4740,9 @@
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
+      <c r="L103" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="M103" s="2"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4716,7 +4777,9 @@
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
+      <c r="L104" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="M104" s="2"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4751,7 +4814,9 @@
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
+      <c r="L105" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4786,7 +4851,9 @@
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
+      <c r="L106" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4821,7 +4888,9 @@
       </c>
       <c r="J107" s="18"/>
       <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
+      <c r="L107" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M107" s="17"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4856,7 +4925,9 @@
       </c>
       <c r="J108" s="18"/>
       <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
+      <c r="L108" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M108" s="18"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -4891,7 +4962,9 @@
       </c>
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
+      <c r="L109" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M109" s="18"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -4926,7 +4999,9 @@
       </c>
       <c r="J110" s="18"/>
       <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
+      <c r="L110" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M110" s="18"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -4961,7 +5036,9 @@
       </c>
       <c r="J111" s="18"/>
       <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
+      <c r="L111" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M111" s="18"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -4996,7 +5073,9 @@
       </c>
       <c r="J112" s="18"/>
       <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
+      <c r="L112" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M112" s="18"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5031,7 +5110,9 @@
       </c>
       <c r="J113" s="18"/>
       <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
+      <c r="L113" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M113" s="18"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5066,7 +5147,9 @@
       </c>
       <c r="J114" s="18"/>
       <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
+      <c r="L114" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M114" s="18"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5101,7 +5184,9 @@
       </c>
       <c r="J115" s="18"/>
       <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
+      <c r="L115" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M115" s="18"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5136,7 +5221,9 @@
       </c>
       <c r="J116" s="18"/>
       <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
+      <c r="L116" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M116" s="18"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5171,7 +5258,9 @@
       </c>
       <c r="J117" s="18"/>
       <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
+      <c r="L117" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M117" s="18"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5206,7 +5295,9 @@
       </c>
       <c r="J118" s="18"/>
       <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
+      <c r="L118" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M118" s="18"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5241,7 +5332,9 @@
       </c>
       <c r="J119" s="18"/>
       <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
+      <c r="L119" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M119" s="18"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5276,7 +5369,9 @@
       </c>
       <c r="J120" s="18"/>
       <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
+      <c r="L120" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M120" s="18"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5311,7 +5406,9 @@
       </c>
       <c r="J121" s="18"/>
       <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
+      <c r="L121" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M121" s="18"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5346,7 +5443,9 @@
       </c>
       <c r="J122" s="18"/>
       <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
+      <c r="L122" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M122" s="18"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5381,7 +5480,9 @@
       </c>
       <c r="J123" s="20"/>
       <c r="K123" s="20"/>
-      <c r="L123" s="20"/>
+      <c r="L123" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M123" s="20"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5416,7 +5517,9 @@
       </c>
       <c r="J124" s="20"/>
       <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
+      <c r="L124" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M124" s="20"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5451,7 +5554,9 @@
       </c>
       <c r="J125" s="20"/>
       <c r="K125" s="20"/>
-      <c r="L125" s="20"/>
+      <c r="L125" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M125" s="20"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5486,7 +5591,9 @@
       </c>
       <c r="J126" s="20"/>
       <c r="K126" s="20"/>
-      <c r="L126" s="20"/>
+      <c r="L126" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M126" s="20"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5521,7 +5628,9 @@
       </c>
       <c r="J127" s="20"/>
       <c r="K127" s="20"/>
-      <c r="L127" s="20"/>
+      <c r="L127" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M127" s="20"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5556,7 +5665,9 @@
       </c>
       <c r="J128" s="20"/>
       <c r="K128" s="20"/>
-      <c r="L128" s="20"/>
+      <c r="L128" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M128" s="20"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5591,7 +5702,9 @@
       </c>
       <c r="J129" s="20"/>
       <c r="K129" s="20"/>
-      <c r="L129" s="20"/>
+      <c r="L129" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M129" s="20"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -5626,7 +5739,9 @@
       </c>
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
-      <c r="L130" s="20"/>
+      <c r="L130" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M130" s="20"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -5661,7 +5776,9 @@
       </c>
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
-      <c r="L131" s="20"/>
+      <c r="L131" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M131" s="20"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -5696,7 +5813,9 @@
       </c>
       <c r="J132" s="20"/>
       <c r="K132" s="20"/>
-      <c r="L132" s="20"/>
+      <c r="L132" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M132" s="20"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -5731,7 +5850,9 @@
       </c>
       <c r="J133" s="20"/>
       <c r="K133" s="20"/>
-      <c r="L133" s="20"/>
+      <c r="L133" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M133" s="20"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -5766,7 +5887,9 @@
       </c>
       <c r="J134" s="20"/>
       <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
+      <c r="L134" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M134" s="20"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -5801,7 +5924,9 @@
       </c>
       <c r="J135" s="20"/>
       <c r="K135" s="20"/>
-      <c r="L135" s="20"/>
+      <c r="L135" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M135" s="20"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -5836,7 +5961,9 @@
       </c>
       <c r="J136" s="20"/>
       <c r="K136" s="20"/>
-      <c r="L136" s="20"/>
+      <c r="L136" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M136" s="20"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -5871,7 +5998,9 @@
       </c>
       <c r="J137" s="20"/>
       <c r="K137" s="20"/>
-      <c r="L137" s="20"/>
+      <c r="L137" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M137" s="20"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -5906,7 +6035,9 @@
       </c>
       <c r="J138" s="20"/>
       <c r="K138" s="20"/>
-      <c r="L138" s="20"/>
+      <c r="L138" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M138" s="20"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -5941,7 +6072,9 @@
       </c>
       <c r="J139" s="18"/>
       <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
+      <c r="L139" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M139" s="18"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -5976,7 +6109,9 @@
       </c>
       <c r="J140" s="18"/>
       <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
+      <c r="L140" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M140" s="18"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6011,7 +6146,9 @@
       </c>
       <c r="J141" s="18"/>
       <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
+      <c r="L141" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M141" s="18"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6046,7 +6183,9 @@
       </c>
       <c r="J142" s="18"/>
       <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
+      <c r="L142" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6081,7 +6220,9 @@
       </c>
       <c r="J143" s="18"/>
       <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
+      <c r="L143" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M143" s="18"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6116,7 +6257,9 @@
       </c>
       <c r="J144" s="18"/>
       <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
+      <c r="L144" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M144" s="18"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6151,7 +6294,9 @@
       </c>
       <c r="J145" s="18"/>
       <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
+      <c r="L145" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6186,7 +6331,9 @@
       </c>
       <c r="J146" s="18"/>
       <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
+      <c r="L146" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M146" s="18"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6221,7 +6368,9 @@
       </c>
       <c r="J147" s="18"/>
       <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
+      <c r="L147" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M147" s="18"/>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6256,7 +6405,9 @@
       </c>
       <c r="J148" s="18"/>
       <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
+      <c r="L148" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M148" s="18"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6291,7 +6442,9 @@
       </c>
       <c r="J149" s="18"/>
       <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
+      <c r="L149" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M149" s="18"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6326,7 +6479,9 @@
       </c>
       <c r="J150" s="18"/>
       <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
+      <c r="L150" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M150" s="18"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6361,7 +6516,9 @@
       </c>
       <c r="J151" s="18"/>
       <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
+      <c r="L151" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6396,7 +6553,9 @@
       </c>
       <c r="J152" s="18"/>
       <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
+      <c r="L152" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M152" s="18"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6431,7 +6590,9 @@
       </c>
       <c r="J153" s="18"/>
       <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
+      <c r="L153" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6466,7 +6627,9 @@
       </c>
       <c r="J154" s="18"/>
       <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
+      <c r="L154" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M154" s="18"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -6501,7 +6664,9 @@
       </c>
       <c r="J155" s="20"/>
       <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
+      <c r="L155" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M155" s="20"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -6536,7 +6701,9 @@
       </c>
       <c r="J156" s="20"/>
       <c r="K156" s="20"/>
-      <c r="L156" s="20"/>
+      <c r="L156" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M156" s="20"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -6571,7 +6738,9 @@
       </c>
       <c r="J157" s="20"/>
       <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
+      <c r="L157" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M157" s="20"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -6606,7 +6775,9 @@
       </c>
       <c r="J158" s="20"/>
       <c r="K158" s="20"/>
-      <c r="L158" s="20"/>
+      <c r="L158" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M158" s="20"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -6641,7 +6812,9 @@
       </c>
       <c r="J159" s="20"/>
       <c r="K159" s="20"/>
-      <c r="L159" s="20"/>
+      <c r="L159" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M159" s="20"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -6676,7 +6849,9 @@
       </c>
       <c r="J160" s="20"/>
       <c r="K160" s="20"/>
-      <c r="L160" s="20"/>
+      <c r="L160" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M160" s="20"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -6711,7 +6886,9 @@
       </c>
       <c r="J161" s="20"/>
       <c r="K161" s="20"/>
-      <c r="L161" s="20"/>
+      <c r="L161" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M161" s="20"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -6746,7 +6923,9 @@
       </c>
       <c r="J162" s="20"/>
       <c r="K162" s="20"/>
-      <c r="L162" s="20"/>
+      <c r="L162" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M162" s="20"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -6781,7 +6960,9 @@
       </c>
       <c r="J163" s="20"/>
       <c r="K163" s="20"/>
-      <c r="L163" s="20"/>
+      <c r="L163" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M163" s="20"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -6816,7 +6997,9 @@
       </c>
       <c r="J164" s="20"/>
       <c r="K164" s="20"/>
-      <c r="L164" s="20"/>
+      <c r="L164" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M164" s="20"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -6851,7 +7034,9 @@
       </c>
       <c r="J165" s="20"/>
       <c r="K165" s="20"/>
-      <c r="L165" s="20"/>
+      <c r="L165" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M165" s="20"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -6886,7 +7071,9 @@
       </c>
       <c r="J166" s="20"/>
       <c r="K166" s="20"/>
-      <c r="L166" s="20"/>
+      <c r="L166" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M166" s="20"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -6921,7 +7108,9 @@
       </c>
       <c r="J167" s="20"/>
       <c r="K167" s="20"/>
-      <c r="L167" s="20"/>
+      <c r="L167" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M167" s="20"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -6956,7 +7145,9 @@
       </c>
       <c r="J168" s="20"/>
       <c r="K168" s="20"/>
-      <c r="L168" s="20"/>
+      <c r="L168" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M168" s="20"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -6991,7 +7182,9 @@
       </c>
       <c r="J169" s="20"/>
       <c r="K169" s="20"/>
-      <c r="L169" s="20"/>
+      <c r="L169" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M169" s="20"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7026,12 +7219,14 @@
       </c>
       <c r="J170" s="20"/>
       <c r="K170" s="20"/>
-      <c r="L170" s="20"/>
+      <c r="L170" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M170" s="20"/>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A171" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>52</v>
@@ -7056,12 +7251,14 @@
       </c>
       <c r="J171" s="18"/>
       <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
+      <c r="L171" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A172" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B172" s="18" t="s">
         <v>52</v>
@@ -7086,12 +7283,14 @@
       </c>
       <c r="J172" s="18"/>
       <c r="K172" s="18"/>
-      <c r="L172" s="18"/>
+      <c r="L172" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M172" s="18"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>52</v>
@@ -7116,12 +7315,14 @@
       </c>
       <c r="J173" s="18"/>
       <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
+      <c r="L173" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M173" s="18"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A174" s="18" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B174" s="18" t="s">
         <v>52</v>
@@ -7146,7 +7347,9 @@
       </c>
       <c r="J174" s="18"/>
       <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
+      <c r="L174" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M174" s="18"/>
     </row>
   </sheetData>

--- a/Config/Calibration_targets_Kenya.xlsx
+++ b/Config/Calibration_targets_Kenya.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D5381A-B9E7-486E-9B3F-177201184EF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC5D01F0-731F-4086-98A7-71E075F1AC0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="85">
   <si>
     <t>Criteria</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t xml:space="preserve">Total population size </t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -803,13 +806,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F97" sqref="F97"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -1752,7 +1755,7 @@
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="M26" s="24"/>
     </row>
@@ -1789,7 +1792,7 @@
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
       <c r="L27" s="24" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="M27" s="24"/>
     </row>
@@ -1826,7 +1829,7 @@
       <c r="J28" s="24"/>
       <c r="K28" s="24"/>
       <c r="L28" s="24" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="M28" s="24"/>
     </row>

--- a/Config/Calibration_targets_Kenya.xlsx
+++ b/Config/Calibration_targets_Kenya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20364"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\udrive.uw.edu\udrive\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Kenya_model_Feb20\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FBC3E7-4A35-4B22-96AC-7AB4A3DFDF46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F7DA8E-CFBC-425C-8375-3E17C9E9B439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="91">
   <si>
     <t>Criteria</t>
   </si>
@@ -281,6 +281,24 @@
   <si>
     <t xml:space="preserve">Total population size </t>
   </si>
+  <si>
+    <t>HIV prevalence in men</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All </t>
+  </si>
+  <si>
+    <t>HIV prevalence in men 2012</t>
+  </si>
+  <si>
+    <t>HIV prevalence in women 2012</t>
+  </si>
+  <si>
+    <t>UNAIDS 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIV prevalence in women </t>
+  </si>
 </sst>
 </file>
 
@@ -291,7 +309,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,8 +324,146 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,19 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF1E8F8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEFEF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD5D5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,8 +518,211 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEBEB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCDCD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F0FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEADCF4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -398,84 +745,317 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="42" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="44" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="43" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="1" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="42" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="42" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="42" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="42" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="2" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="4" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="4" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="6" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="7" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="6" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="8" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="9" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="10" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="8" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="9" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" xfId="10" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" xfId="10" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="45" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="45" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="8" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="42" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="45" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="44" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="43" borderId="1" xfId="46" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="44" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="45" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="64">
+    <cellStyle name="20% - Accent1" xfId="27" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="33" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="36" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="39" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="42" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="28" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="34" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="37" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="40" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="43" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Accent1" xfId="26" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="32" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="35" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="38" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="41" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Attrib" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Attrib 2" xfId="44" xr:uid="{DA877E2D-0478-4338-B712-F45EC6BCE671}"/>
+    <cellStyle name="Bad" xfId="16" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="19" builtinId="22" customBuiltin="1"/>
     <cellStyle name="CC" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Check Cell" xfId="21" builtinId="23" customBuiltin="1"/>
     <cellStyle name="CIN" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="CIN 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="HIVM" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Data" xfId="57" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Data 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Explanatory Text" xfId="24" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="15" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Header" xfId="56" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Heading 1" xfId="11" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="12" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="13" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="14" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="HIVF" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="HIVM" xfId="46" xr:uid="{ADAFB709-FF9D-4146-8AE8-01B6B550B3ED}"/>
     <cellStyle name="HPV" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="HPV 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Input" xfId="17" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Normal 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Note" xfId="23" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Note 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Note 2 2" xfId="61" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Note 3" xfId="62" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Note 4" xfId="63" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Output" xfId="18" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
     <cellStyle name="Population" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Population 2" xfId="6" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Style 1" xfId="60" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Title 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Total" xfId="25" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="22" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
@@ -494,16 +1074,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEADCF4"/>
+      <color rgb="FFF6F0FA"/>
+      <color rgb="FFFFCDCD"/>
+      <color rgb="FFFFEBEB"/>
       <color rgb="FFF1E8F8"/>
       <color rgb="FFFFEDB9"/>
       <color rgb="FFFFF7E1"/>
       <color rgb="FFC1EFFF"/>
       <color rgb="FFEBFAFF"/>
       <color rgb="FFFFD5D5"/>
-      <color rgb="FFFFEFEF"/>
-      <color rgb="FFFFBDBD"/>
-      <color rgb="FFFFDDDD"/>
-      <color rgb="FFEADCF4"/>
     </mruColors>
   </colors>
   <extLst>
@@ -518,8 +1098,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M174" totalsRowShown="0">
-  <autoFilter ref="A1:M174" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M254" totalsRowShown="0">
+  <autoFilter ref="A1:M254" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Criteria"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Source"/>
@@ -804,10 +1384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:M254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J225" sqref="J225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1132,7 +1712,9 @@
       </c>
       <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M10" s="25">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]*100000</f>
         <v>0.71663276482550387</v>
@@ -1170,7 +1752,9 @@
       </c>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="L11" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M11" s="25">
         <v>0.84806759505553897</v>
       </c>
@@ -1207,7 +1791,9 @@
       </c>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
+      <c r="L12" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M12" s="25">
         <v>7.9909247379126498</v>
       </c>
@@ -1244,7 +1830,9 @@
       </c>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
+      <c r="L13" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M13" s="25">
         <v>20.976373024565699</v>
       </c>
@@ -1281,7 +1869,9 @@
       </c>
       <c r="J14" s="25"/>
       <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
+      <c r="L14" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M14" s="25">
         <v>40.716632764825398</v>
       </c>
@@ -1318,7 +1908,9 @@
       </c>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
+      <c r="L15" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M15" s="25">
         <v>62.664684712877403</v>
       </c>
@@ -1355,7 +1947,9 @@
       </c>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="L16" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M16" s="25">
         <v>83.052730402127906</v>
       </c>
@@ -1392,7 +1986,9 @@
       </c>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
+      <c r="L17" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M17" s="25">
         <v>103.442340791738</v>
       </c>
@@ -1429,7 +2025,9 @@
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
+      <c r="L18" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M18" s="25">
         <v>130.32389297449501</v>
       </c>
@@ -1466,7 +2064,9 @@
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
+      <c r="L19" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M19" s="25">
         <v>150.45376310436501</v>
       </c>
@@ -1503,7 +2103,9 @@
       </c>
       <c r="J20" s="25"/>
       <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
+      <c r="L20" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M20" s="25">
         <v>156.29791894852099</v>
       </c>
@@ -1540,7 +2142,9 @@
       </c>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
+      <c r="L21" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M21" s="25">
         <v>150.71350336410501</v>
       </c>
@@ -1577,7 +2181,9 @@
       </c>
       <c r="J22" s="25"/>
       <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
+      <c r="L22" s="25" t="s">
+        <v>18</v>
+      </c>
       <c r="M22" s="25">
         <v>133.18103583163801</v>
       </c>
@@ -1839,7 +2445,9 @@
       </c>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
+      <c r="L29" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="M29" s="22"/>
     </row>
     <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1874,7 +2482,9 @@
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+      <c r="L30" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="M30" s="24"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1909,7 +2519,9 @@
       </c>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
+      <c r="L31" s="22" t="s">
+        <v>18</v>
+      </c>
       <c r="M31" s="22"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1944,7 +2556,9 @@
       </c>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
+      <c r="L32" s="24" t="s">
+        <v>18</v>
+      </c>
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
@@ -1979,7 +2593,9 @@
       </c>
       <c r="J33" s="15"/>
       <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
+      <c r="L33" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="M33" s="15"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
@@ -2014,7 +2630,9 @@
       </c>
       <c r="J34" s="15"/>
       <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
+      <c r="L34" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="M34" s="15"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
@@ -2049,7 +2667,9 @@
       </c>
       <c r="J35" s="15"/>
       <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
+      <c r="L35" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="M35" s="15"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
@@ -2084,7 +2704,9 @@
       </c>
       <c r="J36" s="15"/>
       <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
+      <c r="L36" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="M36" s="15"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
@@ -2119,7 +2741,9 @@
       </c>
       <c r="J37" s="12"/>
       <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
+      <c r="L37" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="M37" s="12"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
@@ -2154,7 +2778,9 @@
       </c>
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
+      <c r="L38" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="M38" s="12"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
@@ -2189,7 +2815,9 @@
       </c>
       <c r="J39" s="12"/>
       <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
+      <c r="L39" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="M39" s="12"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
@@ -2224,7 +2852,9 @@
       </c>
       <c r="J40" s="12"/>
       <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
+      <c r="L40" s="12" t="s">
+        <v>18</v>
+      </c>
       <c r="M40" s="12"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
@@ -4471,7 +5101,9 @@
       </c>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
+      <c r="L97" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M97" s="2"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
@@ -4506,7 +5138,9 @@
       </c>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
+      <c r="L98" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M98" s="2"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
@@ -4541,7 +5175,9 @@
       </c>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
+      <c r="L99" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M99" s="2"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
@@ -4576,7 +5212,9 @@
       </c>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
+      <c r="L100" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M100" s="2"/>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
@@ -4611,7 +5249,9 @@
       </c>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
+      <c r="L101" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M101" s="2"/>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
@@ -4646,7 +5286,9 @@
       </c>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
+      <c r="L102" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M102" s="2"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
@@ -4681,7 +5323,9 @@
       </c>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
+      <c r="L103" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M103" s="2"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
@@ -4716,7 +5360,9 @@
       </c>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
+      <c r="L104" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M104" s="2"/>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
@@ -4751,7 +5397,9 @@
       </c>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
+      <c r="L105" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M105" s="2"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
@@ -4786,7 +5434,9 @@
       </c>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
+      <c r="L106" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="M106" s="2"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
@@ -4821,7 +5471,9 @@
       </c>
       <c r="J107" s="18"/>
       <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
+      <c r="L107" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M107" s="17"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
@@ -4856,7 +5508,9 @@
       </c>
       <c r="J108" s="18"/>
       <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
+      <c r="L108" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M108" s="18"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
@@ -4891,7 +5545,9 @@
       </c>
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
+      <c r="L109" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M109" s="18"/>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
@@ -4926,7 +5582,9 @@
       </c>
       <c r="J110" s="18"/>
       <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
+      <c r="L110" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M110" s="18"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
@@ -4961,7 +5619,9 @@
       </c>
       <c r="J111" s="18"/>
       <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
+      <c r="L111" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M111" s="18"/>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
@@ -4996,7 +5656,9 @@
       </c>
       <c r="J112" s="18"/>
       <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
+      <c r="L112" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M112" s="18"/>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
@@ -5031,7 +5693,9 @@
       </c>
       <c r="J113" s="18"/>
       <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
+      <c r="L113" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M113" s="18"/>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
@@ -5066,7 +5730,9 @@
       </c>
       <c r="J114" s="18"/>
       <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
+      <c r="L114" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M114" s="18"/>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
@@ -5101,7 +5767,9 @@
       </c>
       <c r="J115" s="18"/>
       <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
+      <c r="L115" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M115" s="18"/>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
@@ -5136,7 +5804,9 @@
       </c>
       <c r="J116" s="18"/>
       <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
+      <c r="L116" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M116" s="18"/>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
@@ -5171,7 +5841,9 @@
       </c>
       <c r="J117" s="18"/>
       <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
+      <c r="L117" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M117" s="18"/>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
@@ -5206,7 +5878,9 @@
       </c>
       <c r="J118" s="18"/>
       <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
+      <c r="L118" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M118" s="18"/>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
@@ -5241,7 +5915,9 @@
       </c>
       <c r="J119" s="18"/>
       <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
+      <c r="L119" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M119" s="18"/>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
@@ -5276,7 +5952,9 @@
       </c>
       <c r="J120" s="18"/>
       <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
+      <c r="L120" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M120" s="18"/>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
@@ -5311,7 +5989,9 @@
       </c>
       <c r="J121" s="18"/>
       <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
+      <c r="L121" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M121" s="18"/>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
@@ -5346,7 +6026,9 @@
       </c>
       <c r="J122" s="18"/>
       <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
+      <c r="L122" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M122" s="18"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
@@ -5381,7 +6063,9 @@
       </c>
       <c r="J123" s="20"/>
       <c r="K123" s="20"/>
-      <c r="L123" s="20"/>
+      <c r="L123" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M123" s="20"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
@@ -5416,7 +6100,9 @@
       </c>
       <c r="J124" s="20"/>
       <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
+      <c r="L124" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M124" s="20"/>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
@@ -5451,7 +6137,9 @@
       </c>
       <c r="J125" s="20"/>
       <c r="K125" s="20"/>
-      <c r="L125" s="20"/>
+      <c r="L125" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M125" s="20"/>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
@@ -5486,7 +6174,9 @@
       </c>
       <c r="J126" s="20"/>
       <c r="K126" s="20"/>
-      <c r="L126" s="20"/>
+      <c r="L126" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M126" s="20"/>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
@@ -5521,7 +6211,9 @@
       </c>
       <c r="J127" s="20"/>
       <c r="K127" s="20"/>
-      <c r="L127" s="20"/>
+      <c r="L127" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M127" s="20"/>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
@@ -5556,7 +6248,9 @@
       </c>
       <c r="J128" s="20"/>
       <c r="K128" s="20"/>
-      <c r="L128" s="20"/>
+      <c r="L128" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M128" s="20"/>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
@@ -5591,7 +6285,9 @@
       </c>
       <c r="J129" s="20"/>
       <c r="K129" s="20"/>
-      <c r="L129" s="20"/>
+      <c r="L129" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M129" s="20"/>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
@@ -5626,7 +6322,9 @@
       </c>
       <c r="J130" s="20"/>
       <c r="K130" s="20"/>
-      <c r="L130" s="20"/>
+      <c r="L130" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M130" s="20"/>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
@@ -5661,7 +6359,9 @@
       </c>
       <c r="J131" s="20"/>
       <c r="K131" s="20"/>
-      <c r="L131" s="20"/>
+      <c r="L131" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M131" s="20"/>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
@@ -5696,7 +6396,9 @@
       </c>
       <c r="J132" s="20"/>
       <c r="K132" s="20"/>
-      <c r="L132" s="20"/>
+      <c r="L132" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M132" s="20"/>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
@@ -5731,7 +6433,9 @@
       </c>
       <c r="J133" s="20"/>
       <c r="K133" s="20"/>
-      <c r="L133" s="20"/>
+      <c r="L133" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M133" s="20"/>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
@@ -5766,7 +6470,9 @@
       </c>
       <c r="J134" s="20"/>
       <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
+      <c r="L134" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M134" s="20"/>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
@@ -5801,7 +6507,9 @@
       </c>
       <c r="J135" s="20"/>
       <c r="K135" s="20"/>
-      <c r="L135" s="20"/>
+      <c r="L135" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M135" s="20"/>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
@@ -5836,7 +6544,9 @@
       </c>
       <c r="J136" s="20"/>
       <c r="K136" s="20"/>
-      <c r="L136" s="20"/>
+      <c r="L136" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M136" s="20"/>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
@@ -5871,7 +6581,9 @@
       </c>
       <c r="J137" s="20"/>
       <c r="K137" s="20"/>
-      <c r="L137" s="20"/>
+      <c r="L137" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M137" s="20"/>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
@@ -5906,7 +6618,9 @@
       </c>
       <c r="J138" s="20"/>
       <c r="K138" s="20"/>
-      <c r="L138" s="20"/>
+      <c r="L138" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M138" s="20"/>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
@@ -5941,7 +6655,9 @@
       </c>
       <c r="J139" s="18"/>
       <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
+      <c r="L139" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M139" s="18"/>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
@@ -5976,7 +6692,9 @@
       </c>
       <c r="J140" s="18"/>
       <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
+      <c r="L140" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M140" s="18"/>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
@@ -6011,7 +6729,9 @@
       </c>
       <c r="J141" s="18"/>
       <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
+      <c r="L141" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M141" s="18"/>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
@@ -6046,7 +6766,9 @@
       </c>
       <c r="J142" s="18"/>
       <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
+      <c r="L142" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M142" s="18"/>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
@@ -6081,7 +6803,9 @@
       </c>
       <c r="J143" s="18"/>
       <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
+      <c r="L143" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M143" s="18"/>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
@@ -6116,7 +6840,9 @@
       </c>
       <c r="J144" s="18"/>
       <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
+      <c r="L144" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M144" s="18"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
@@ -6151,7 +6877,9 @@
       </c>
       <c r="J145" s="18"/>
       <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
+      <c r="L145" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M145" s="18"/>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
@@ -6186,7 +6914,9 @@
       </c>
       <c r="J146" s="18"/>
       <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
+      <c r="L146" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M146" s="18"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
@@ -6221,7 +6951,9 @@
       </c>
       <c r="J147" s="18"/>
       <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
+      <c r="L147" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M147" s="18"/>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
@@ -6256,7 +6988,9 @@
       </c>
       <c r="J148" s="18"/>
       <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
+      <c r="L148" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M148" s="18"/>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
@@ -6291,7 +7025,9 @@
       </c>
       <c r="J149" s="18"/>
       <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
+      <c r="L149" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M149" s="18"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
@@ -6326,7 +7062,9 @@
       </c>
       <c r="J150" s="18"/>
       <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
+      <c r="L150" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M150" s="18"/>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
@@ -6361,7 +7099,9 @@
       </c>
       <c r="J151" s="18"/>
       <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
+      <c r="L151" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M151" s="18"/>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
@@ -6396,7 +7136,9 @@
       </c>
       <c r="J152" s="18"/>
       <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
+      <c r="L152" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M152" s="18"/>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
@@ -6431,7 +7173,9 @@
       </c>
       <c r="J153" s="18"/>
       <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
+      <c r="L153" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M153" s="18"/>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
@@ -6466,7 +7210,9 @@
       </c>
       <c r="J154" s="18"/>
       <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
+      <c r="L154" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M154" s="18"/>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
@@ -6501,7 +7247,9 @@
       </c>
       <c r="J155" s="20"/>
       <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
+      <c r="L155" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M155" s="20"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
@@ -6536,7 +7284,9 @@
       </c>
       <c r="J156" s="20"/>
       <c r="K156" s="20"/>
-      <c r="L156" s="20"/>
+      <c r="L156" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M156" s="20"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
@@ -6571,7 +7321,9 @@
       </c>
       <c r="J157" s="20"/>
       <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
+      <c r="L157" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M157" s="20"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
@@ -6606,7 +7358,9 @@
       </c>
       <c r="J158" s="20"/>
       <c r="K158" s="20"/>
-      <c r="L158" s="20"/>
+      <c r="L158" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M158" s="20"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
@@ -6641,7 +7395,9 @@
       </c>
       <c r="J159" s="20"/>
       <c r="K159" s="20"/>
-      <c r="L159" s="20"/>
+      <c r="L159" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M159" s="20"/>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
@@ -6676,7 +7432,9 @@
       </c>
       <c r="J160" s="20"/>
       <c r="K160" s="20"/>
-      <c r="L160" s="20"/>
+      <c r="L160" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M160" s="20"/>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
@@ -6711,7 +7469,9 @@
       </c>
       <c r="J161" s="20"/>
       <c r="K161" s="20"/>
-      <c r="L161" s="20"/>
+      <c r="L161" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M161" s="20"/>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
@@ -6746,7 +7506,9 @@
       </c>
       <c r="J162" s="20"/>
       <c r="K162" s="20"/>
-      <c r="L162" s="20"/>
+      <c r="L162" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M162" s="20"/>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
@@ -6781,7 +7543,9 @@
       </c>
       <c r="J163" s="20"/>
       <c r="K163" s="20"/>
-      <c r="L163" s="20"/>
+      <c r="L163" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M163" s="20"/>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
@@ -6816,7 +7580,9 @@
       </c>
       <c r="J164" s="20"/>
       <c r="K164" s="20"/>
-      <c r="L164" s="20"/>
+      <c r="L164" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M164" s="20"/>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
@@ -6851,7 +7617,9 @@
       </c>
       <c r="J165" s="20"/>
       <c r="K165" s="20"/>
-      <c r="L165" s="20"/>
+      <c r="L165" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M165" s="20"/>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
@@ -6886,7 +7654,9 @@
       </c>
       <c r="J166" s="20"/>
       <c r="K166" s="20"/>
-      <c r="L166" s="20"/>
+      <c r="L166" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M166" s="20"/>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
@@ -6921,7 +7691,9 @@
       </c>
       <c r="J167" s="20"/>
       <c r="K167" s="20"/>
-      <c r="L167" s="20"/>
+      <c r="L167" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M167" s="20"/>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
@@ -6956,7 +7728,9 @@
       </c>
       <c r="J168" s="20"/>
       <c r="K168" s="20"/>
-      <c r="L168" s="20"/>
+      <c r="L168" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M168" s="20"/>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
@@ -6991,7 +7765,9 @@
       </c>
       <c r="J169" s="20"/>
       <c r="K169" s="20"/>
-      <c r="L169" s="20"/>
+      <c r="L169" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M169" s="20"/>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
@@ -7026,7 +7802,9 @@
       </c>
       <c r="J170" s="20"/>
       <c r="K170" s="20"/>
-      <c r="L170" s="20"/>
+      <c r="L170" s="20" t="s">
+        <v>18</v>
+      </c>
       <c r="M170" s="20"/>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
@@ -7056,7 +7834,9 @@
       </c>
       <c r="J171" s="18"/>
       <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
+      <c r="L171" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M171" s="18"/>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
@@ -7086,7 +7866,9 @@
       </c>
       <c r="J172" s="18"/>
       <c r="K172" s="18"/>
-      <c r="L172" s="18"/>
+      <c r="L172" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M172" s="18"/>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
@@ -7116,7 +7898,9 @@
       </c>
       <c r="J173" s="18"/>
       <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
+      <c r="L173" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M173" s="18"/>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
@@ -7146,8 +7930,2750 @@
       </c>
       <c r="J174" s="18"/>
       <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
+      <c r="L174" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="M174" s="18"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A175" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B175" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C175" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D175" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E175" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F175" s="42"/>
+      <c r="G175" s="42"/>
+      <c r="H175" s="42">
+        <v>0.9</v>
+      </c>
+      <c r="I175" s="42"/>
+      <c r="J175" s="42"/>
+      <c r="K175" s="42"/>
+      <c r="L175" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M175" s="42"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A176" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B176" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C176" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D176" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F176" s="42"/>
+      <c r="G176" s="42"/>
+      <c r="H176" s="42">
+        <v>1.3</v>
+      </c>
+      <c r="I176" s="42"/>
+      <c r="J176" s="42"/>
+      <c r="K176" s="42"/>
+      <c r="L176" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M176" s="42"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A177" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B177" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C177" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D177" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E177" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F177" s="42"/>
+      <c r="G177" s="42"/>
+      <c r="H177" s="42">
+        <v>4.3</v>
+      </c>
+      <c r="I177" s="42"/>
+      <c r="J177" s="42"/>
+      <c r="K177" s="42"/>
+      <c r="L177" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M177" s="42"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A178" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B178" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C178" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D178" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F178" s="42"/>
+      <c r="G178" s="42"/>
+      <c r="H178" s="42">
+        <v>6.6</v>
+      </c>
+      <c r="I178" s="42"/>
+      <c r="J178" s="42"/>
+      <c r="K178" s="42"/>
+      <c r="L178" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M178" s="42"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A179" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B179" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C179" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D179" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F179" s="42"/>
+      <c r="G179" s="42"/>
+      <c r="H179" s="42">
+        <v>5</v>
+      </c>
+      <c r="I179" s="42"/>
+      <c r="J179" s="42"/>
+      <c r="K179" s="42"/>
+      <c r="L179" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M179" s="42"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A180" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B180" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C180" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D180" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F180" s="42"/>
+      <c r="G180" s="42"/>
+      <c r="H180" s="42">
+        <v>8.1</v>
+      </c>
+      <c r="I180" s="42"/>
+      <c r="J180" s="42"/>
+      <c r="K180" s="42"/>
+      <c r="L180" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M180" s="42"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A181" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B181" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C181" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D181" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E181" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F181" s="42"/>
+      <c r="G181" s="42"/>
+      <c r="H181" s="42">
+        <v>8.9</v>
+      </c>
+      <c r="I181" s="42"/>
+      <c r="J181" s="42"/>
+      <c r="K181" s="42"/>
+      <c r="L181" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M181" s="42"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A182" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B182" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C182" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D182" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E182" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F182" s="42"/>
+      <c r="G182" s="42"/>
+      <c r="H182" s="42">
+        <v>7</v>
+      </c>
+      <c r="I182" s="42"/>
+      <c r="J182" s="42"/>
+      <c r="K182" s="42"/>
+      <c r="L182" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M182" s="42"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A183" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B183" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C183" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D183" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E183" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F183" s="42"/>
+      <c r="G183" s="42"/>
+      <c r="H183" s="42">
+        <v>4</v>
+      </c>
+      <c r="I183" s="42"/>
+      <c r="J183" s="42"/>
+      <c r="K183" s="42"/>
+      <c r="L183" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M183" s="42"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A184" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B184" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D184" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E184" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F184" s="42"/>
+      <c r="G184" s="42"/>
+      <c r="H184" s="42">
+        <v>5</v>
+      </c>
+      <c r="I184" s="42"/>
+      <c r="J184" s="42"/>
+      <c r="K184" s="42"/>
+      <c r="L184" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="M184" s="42"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A185" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E185" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F185" s="3"/>
+      <c r="G185" s="3"/>
+      <c r="H185" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I185" s="3"/>
+      <c r="J185" s="3"/>
+      <c r="K185" s="3"/>
+      <c r="L185" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M185" s="3"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E186" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F186" s="3"/>
+      <c r="G186" s="3"/>
+      <c r="H186" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I186" s="3"/>
+      <c r="J186" s="3"/>
+      <c r="K186" s="3"/>
+      <c r="L186" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M186" s="3"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E187" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F187" s="3"/>
+      <c r="G187" s="3"/>
+      <c r="H187" s="3">
+        <v>7.9</v>
+      </c>
+      <c r="I187" s="3"/>
+      <c r="J187" s="3"/>
+      <c r="K187" s="3"/>
+      <c r="L187" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M187" s="3"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A188" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E188" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F188" s="3"/>
+      <c r="G188" s="3"/>
+      <c r="H188" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="I188" s="3"/>
+      <c r="J188" s="3"/>
+      <c r="K188" s="3"/>
+      <c r="L188" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M188" s="3"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E189" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="I189" s="3"/>
+      <c r="J189" s="3"/>
+      <c r="K189" s="3"/>
+      <c r="L189" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M189" s="3"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A190" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E190" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F190" s="3"/>
+      <c r="G190" s="3"/>
+      <c r="H190" s="3">
+        <v>10.6</v>
+      </c>
+      <c r="I190" s="3"/>
+      <c r="J190" s="3"/>
+      <c r="K190" s="3"/>
+      <c r="L190" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M190" s="3"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A191" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F191" s="3"/>
+      <c r="G191" s="3"/>
+      <c r="H191" s="3">
+        <v>10.7</v>
+      </c>
+      <c r="I191" s="3"/>
+      <c r="J191" s="3"/>
+      <c r="K191" s="3"/>
+      <c r="L191" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M191" s="3"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A192" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E192" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F192" s="3"/>
+      <c r="G192" s="3"/>
+      <c r="H192" s="3">
+        <v>10</v>
+      </c>
+      <c r="I192" s="3"/>
+      <c r="J192" s="3"/>
+      <c r="K192" s="3"/>
+      <c r="L192" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M192" s="3"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E193" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F193" s="3"/>
+      <c r="G193" s="3"/>
+      <c r="H193" s="3">
+        <v>5</v>
+      </c>
+      <c r="I193" s="3"/>
+      <c r="J193" s="3"/>
+      <c r="K193" s="3"/>
+      <c r="L193" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M193" s="3"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A194" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E194" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F194" s="3"/>
+      <c r="G194" s="3"/>
+      <c r="H194" s="3">
+        <v>3</v>
+      </c>
+      <c r="I194" s="3"/>
+      <c r="J194" s="3"/>
+      <c r="K194" s="3"/>
+      <c r="L194" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M194" s="3"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A195" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B195" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C195" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D195" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E195" s="26">
+        <v>1990</v>
+      </c>
+      <c r="F195" s="26"/>
+      <c r="G195" s="26"/>
+      <c r="H195" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="I195" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.3061224489795919</v>
+      </c>
+      <c r="J195" s="40">
+        <v>3.2</v>
+      </c>
+      <c r="K195" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L195" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M195" s="26"/>
+    </row>
+    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A196" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B196" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C196" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D196" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E196" s="26">
+        <v>1991</v>
+      </c>
+      <c r="F196" s="26"/>
+      <c r="G196" s="26"/>
+      <c r="H196" s="26">
+        <v>4.8</v>
+      </c>
+      <c r="I196" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.40816326530612235</v>
+      </c>
+      <c r="J196" s="40">
+        <v>4</v>
+      </c>
+      <c r="K196" s="26">
+        <v>5.6</v>
+      </c>
+      <c r="L196" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M196" s="26"/>
+    </row>
+    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A197" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B197" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C197" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D197" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E197" s="26">
+        <v>1992</v>
+      </c>
+      <c r="F197" s="26"/>
+      <c r="G197" s="26"/>
+      <c r="H197" s="26">
+        <v>5.8</v>
+      </c>
+      <c r="I197" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.4846938775510205</v>
+      </c>
+      <c r="J197" s="40">
+        <v>4.8</v>
+      </c>
+      <c r="K197" s="26">
+        <v>6.7</v>
+      </c>
+      <c r="L197" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M197" s="26"/>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A198" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B198" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C198" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D198" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E198" s="26">
+        <v>1993</v>
+      </c>
+      <c r="F198" s="26"/>
+      <c r="G198" s="26"/>
+      <c r="H198" s="26">
+        <v>6.6</v>
+      </c>
+      <c r="I198" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.53571428571428559</v>
+      </c>
+      <c r="J198" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="K198" s="26">
+        <v>7.6</v>
+      </c>
+      <c r="L198" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M198" s="26"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A199" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B199" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C199" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D199" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E199" s="26">
+        <v>1994</v>
+      </c>
+      <c r="F199" s="26"/>
+      <c r="G199" s="26"/>
+      <c r="H199" s="26">
+        <v>7.2</v>
+      </c>
+      <c r="I199" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.58673469387755117</v>
+      </c>
+      <c r="J199" s="40">
+        <v>6</v>
+      </c>
+      <c r="K199" s="26">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L199" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M199" s="26"/>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B200" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C200" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D200" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E200" s="26">
+        <v>1995</v>
+      </c>
+      <c r="F200" s="26"/>
+      <c r="G200" s="26"/>
+      <c r="H200" s="26">
+        <v>7.6</v>
+      </c>
+      <c r="I200" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.63775510204081609</v>
+      </c>
+      <c r="J200" s="40">
+        <v>6.2</v>
+      </c>
+      <c r="K200" s="26">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="L200" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M200" s="26"/>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B201" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C201" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D201" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E201" s="26">
+        <v>1996</v>
+      </c>
+      <c r="F201" s="26"/>
+      <c r="G201" s="26"/>
+      <c r="H201" s="26">
+        <v>7.7</v>
+      </c>
+      <c r="I201" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.63775510204081653</v>
+      </c>
+      <c r="J201" s="40">
+        <v>6.3</v>
+      </c>
+      <c r="K201" s="26">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L201" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M201" s="26"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B202" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C202" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D202" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E202" s="26">
+        <v>1997</v>
+      </c>
+      <c r="F202" s="26"/>
+      <c r="G202" s="26"/>
+      <c r="H202" s="26">
+        <v>7.6</v>
+      </c>
+      <c r="I202" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.63775510204081653</v>
+      </c>
+      <c r="J202" s="40">
+        <v>6.3</v>
+      </c>
+      <c r="K202" s="26">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L202" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M202" s="26"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A203" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B203" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C203" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D203" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E203" s="26">
+        <v>1998</v>
+      </c>
+      <c r="F203" s="26"/>
+      <c r="G203" s="26"/>
+      <c r="H203" s="26">
+        <v>7.4</v>
+      </c>
+      <c r="I203" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.6122448979591838</v>
+      </c>
+      <c r="J203" s="40">
+        <v>6.1</v>
+      </c>
+      <c r="K203" s="26">
+        <v>8.5</v>
+      </c>
+      <c r="L203" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M203" s="26"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A204" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B204" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C204" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D204" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E204" s="26">
+        <v>1999</v>
+      </c>
+      <c r="F204" s="26"/>
+      <c r="G204" s="26"/>
+      <c r="H204" s="26">
+        <v>7.1</v>
+      </c>
+      <c r="I204" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.61224489795918358</v>
+      </c>
+      <c r="J204" s="40">
+        <v>5.8</v>
+      </c>
+      <c r="K204" s="26">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L204" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M204" s="26"/>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A205" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B205" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C205" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D205" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E205" s="26">
+        <v>2000</v>
+      </c>
+      <c r="F205" s="26"/>
+      <c r="G205" s="26"/>
+      <c r="H205" s="26">
+        <v>6.7</v>
+      </c>
+      <c r="I205" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.58673469387755095</v>
+      </c>
+      <c r="J205" s="40">
+        <v>5.5</v>
+      </c>
+      <c r="K205" s="26">
+        <v>7.8</v>
+      </c>
+      <c r="L205" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M205" s="26"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A206" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B206" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C206" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D206" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E206" s="26">
+        <v>2001</v>
+      </c>
+      <c r="F206" s="26"/>
+      <c r="G206" s="26"/>
+      <c r="H206" s="26">
+        <v>6.3</v>
+      </c>
+      <c r="I206" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.53571428571428559</v>
+      </c>
+      <c r="J206" s="40">
+        <v>5.2</v>
+      </c>
+      <c r="K206" s="26">
+        <v>7.3</v>
+      </c>
+      <c r="L206" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M206" s="26"/>
+    </row>
+    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A207" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B207" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C207" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D207" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E207" s="26">
+        <v>2002</v>
+      </c>
+      <c r="F207" s="26"/>
+      <c r="G207" s="26"/>
+      <c r="H207" s="26">
+        <v>5.9</v>
+      </c>
+      <c r="I207" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.48469387755102028</v>
+      </c>
+      <c r="J207" s="40">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K207" s="26">
+        <v>6.8</v>
+      </c>
+      <c r="L207" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M207" s="26"/>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A208" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B208" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C208" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D208" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E208" s="26">
+        <v>2003</v>
+      </c>
+      <c r="F208" s="26"/>
+      <c r="G208" s="26"/>
+      <c r="H208" s="26">
+        <v>5.5</v>
+      </c>
+      <c r="I208" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.45918367346938793</v>
+      </c>
+      <c r="J208" s="40">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K208" s="26">
+        <v>6.4</v>
+      </c>
+      <c r="L208" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M208" s="26"/>
+    </row>
+    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A209" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B209" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C209" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D209" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E209" s="26">
+        <v>2004</v>
+      </c>
+      <c r="F209" s="26"/>
+      <c r="G209" s="26"/>
+      <c r="H209" s="26">
+        <v>5.2</v>
+      </c>
+      <c r="I209" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.43367346938775514</v>
+      </c>
+      <c r="J209" s="40">
+        <v>4.3</v>
+      </c>
+      <c r="K209" s="26">
+        <v>6</v>
+      </c>
+      <c r="L209" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M209" s="26"/>
+    </row>
+    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A210" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B210" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C210" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D210" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E210" s="26">
+        <v>2005</v>
+      </c>
+      <c r="F210" s="26"/>
+      <c r="G210" s="26"/>
+      <c r="H210" s="26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I210" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.43367346938775514</v>
+      </c>
+      <c r="J210" s="40">
+        <v>4</v>
+      </c>
+      <c r="K210" s="26">
+        <v>5.7</v>
+      </c>
+      <c r="L210" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M210" s="26"/>
+    </row>
+    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A211" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B211" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C211" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D211" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E211" s="26">
+        <v>2006</v>
+      </c>
+      <c r="F211" s="26"/>
+      <c r="G211" s="26"/>
+      <c r="H211" s="26">
+        <v>4.7</v>
+      </c>
+      <c r="I211" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.38265306122448994</v>
+      </c>
+      <c r="J211" s="40">
+        <v>3.9</v>
+      </c>
+      <c r="K211" s="26">
+        <v>5.4</v>
+      </c>
+      <c r="L211" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M211" s="26"/>
+    </row>
+    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A212" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B212" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C212" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D212" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E212" s="26">
+        <v>2007</v>
+      </c>
+      <c r="F212" s="26"/>
+      <c r="G212" s="26"/>
+      <c r="H212" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="I212" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.38265306122448978</v>
+      </c>
+      <c r="J212" s="40">
+        <v>3.7</v>
+      </c>
+      <c r="K212" s="26">
+        <v>5.2</v>
+      </c>
+      <c r="L212" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M212" s="26"/>
+    </row>
+    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A213" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B213" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C213" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D213" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E213" s="26">
+        <v>2008</v>
+      </c>
+      <c r="F213" s="26"/>
+      <c r="G213" s="26"/>
+      <c r="H213" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I213" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.38265306122448967</v>
+      </c>
+      <c r="J213" s="40">
+        <v>3.6</v>
+      </c>
+      <c r="K213" s="26">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L213" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M213" s="26"/>
+    </row>
+    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A214" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B214" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C214" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D214" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E214" s="26">
+        <v>2009</v>
+      </c>
+      <c r="F214" s="26"/>
+      <c r="G214" s="26"/>
+      <c r="H214" s="26">
+        <v>4.3</v>
+      </c>
+      <c r="I214" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="J214" s="40">
+        <v>3.6</v>
+      </c>
+      <c r="K214" s="26">
+        <v>5</v>
+      </c>
+      <c r="L214" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M214" s="26"/>
+    </row>
+    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A215" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B215" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C215" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D215" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E215" s="26">
+        <v>2010</v>
+      </c>
+      <c r="F215" s="26"/>
+      <c r="G215" s="26"/>
+      <c r="H215" s="26">
+        <v>4.2</v>
+      </c>
+      <c r="I215" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.35714285714285726</v>
+      </c>
+      <c r="J215" s="40">
+        <v>3.5</v>
+      </c>
+      <c r="K215" s="26">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="L215" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M215" s="26"/>
+    </row>
+    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A216" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B216" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C216" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D216" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E216" s="26">
+        <v>2011</v>
+      </c>
+      <c r="F216" s="26"/>
+      <c r="G216" s="26"/>
+      <c r="H216" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="I216" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.35714285714285715</v>
+      </c>
+      <c r="J216" s="40">
+        <v>3.4</v>
+      </c>
+      <c r="K216" s="26">
+        <v>4.8</v>
+      </c>
+      <c r="L216" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M216" s="26"/>
+    </row>
+    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A217" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B217" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C217" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D217" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E217" s="26">
+        <v>2012</v>
+      </c>
+      <c r="F217" s="26"/>
+      <c r="G217" s="26"/>
+      <c r="H217" s="26">
+        <v>4</v>
+      </c>
+      <c r="I217" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.35714285714285726</v>
+      </c>
+      <c r="J217" s="40">
+        <v>3.3</v>
+      </c>
+      <c r="K217" s="26">
+        <v>4.7</v>
+      </c>
+      <c r="L217" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M217" s="26"/>
+    </row>
+    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A218" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B218" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C218" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D218" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E218" s="26">
+        <v>2013</v>
+      </c>
+      <c r="F218" s="26"/>
+      <c r="G218" s="26"/>
+      <c r="H218" s="26">
+        <v>3.9</v>
+      </c>
+      <c r="I218" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.33163265306122447</v>
+      </c>
+      <c r="J218" s="40">
+        <v>3.2</v>
+      </c>
+      <c r="K218" s="26">
+        <v>4.5</v>
+      </c>
+      <c r="L218" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M218" s="26"/>
+    </row>
+    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A219" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B219" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C219" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D219" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E219" s="26">
+        <v>2014</v>
+      </c>
+      <c r="F219" s="26"/>
+      <c r="G219" s="26"/>
+      <c r="H219" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="I219" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.33163265306122458</v>
+      </c>
+      <c r="J219" s="40">
+        <v>3.1</v>
+      </c>
+      <c r="K219" s="26">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="L219" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M219" s="26"/>
+    </row>
+    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A220" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B220" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D220" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E220" s="26">
+        <v>2015</v>
+      </c>
+      <c r="F220" s="26"/>
+      <c r="G220" s="26"/>
+      <c r="H220" s="26">
+        <v>3.7</v>
+      </c>
+      <c r="I220" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.33163265306122447</v>
+      </c>
+      <c r="J220" s="40">
+        <v>3</v>
+      </c>
+      <c r="K220" s="26">
+        <v>4.3</v>
+      </c>
+      <c r="L220" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M220" s="26"/>
+    </row>
+    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B221" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C221" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D221" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E221" s="26">
+        <v>2016</v>
+      </c>
+      <c r="F221" s="26"/>
+      <c r="G221" s="26"/>
+      <c r="H221" s="26">
+        <v>3.6</v>
+      </c>
+      <c r="I221" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.30612244897959179</v>
+      </c>
+      <c r="J221" s="40">
+        <v>2.9</v>
+      </c>
+      <c r="K221" s="26">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="L221" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M221" s="26"/>
+    </row>
+    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B222" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C222" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D222" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E222" s="26">
+        <v>2017</v>
+      </c>
+      <c r="F222" s="26"/>
+      <c r="G222" s="26"/>
+      <c r="H222" s="26">
+        <v>3.4</v>
+      </c>
+      <c r="I222" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.3061224489795919</v>
+      </c>
+      <c r="J222" s="40">
+        <v>2.8</v>
+      </c>
+      <c r="K222" s="26">
+        <v>4</v>
+      </c>
+      <c r="L222" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M222" s="26"/>
+    </row>
+    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B223" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C223" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D223" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E223" s="26">
+        <v>2018</v>
+      </c>
+      <c r="F223" s="26"/>
+      <c r="G223" s="26"/>
+      <c r="H223" s="26">
+        <v>3.3</v>
+      </c>
+      <c r="I223" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.28061224489795911</v>
+      </c>
+      <c r="J223" s="40">
+        <v>2.7</v>
+      </c>
+      <c r="K223" s="26">
+        <v>3.8</v>
+      </c>
+      <c r="L223" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M223" s="26"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B224" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C224" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D224" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E224" s="26">
+        <v>2019</v>
+      </c>
+      <c r="F224" s="26"/>
+      <c r="G224" s="26"/>
+      <c r="H224" s="40">
+        <v>3.2</v>
+      </c>
+      <c r="I224" s="44">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.25510204081632654</v>
+      </c>
+      <c r="J224" s="40">
+        <v>2.6</v>
+      </c>
+      <c r="K224" s="40">
+        <v>3.6</v>
+      </c>
+      <c r="L224" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="M224" s="26"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B225" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C225" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D225" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E225" s="41">
+        <v>1990</v>
+      </c>
+      <c r="F225" s="41"/>
+      <c r="G225" s="41"/>
+      <c r="H225" s="41">
+        <v>5.3</v>
+      </c>
+      <c r="I225" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.38265306122448978</v>
+      </c>
+      <c r="J225" s="43">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K225" s="41">
+        <v>6.1</v>
+      </c>
+      <c r="L225" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M225" s="41"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A226" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B226" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C226" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D226" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E226" s="41">
+        <v>1991</v>
+      </c>
+      <c r="F226" s="41"/>
+      <c r="G226" s="41"/>
+      <c r="H226" s="41">
+        <v>6.9</v>
+      </c>
+      <c r="I226" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.53571428571428559</v>
+      </c>
+      <c r="J226" s="43">
+        <v>5.9</v>
+      </c>
+      <c r="K226" s="41">
+        <v>8</v>
+      </c>
+      <c r="L226" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M226" s="41"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A227" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B227" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C227" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D227" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E227" s="41">
+        <v>1992</v>
+      </c>
+      <c r="F227" s="41"/>
+      <c r="G227" s="41"/>
+      <c r="H227" s="41">
+        <v>8.5</v>
+      </c>
+      <c r="I227" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.63775510204081653</v>
+      </c>
+      <c r="J227" s="43">
+        <v>7.3</v>
+      </c>
+      <c r="K227" s="41">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="L227" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M227" s="41"/>
+    </row>
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A228" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B228" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C228" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D228" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E228" s="41">
+        <v>1993</v>
+      </c>
+      <c r="F228" s="41"/>
+      <c r="G228" s="41"/>
+      <c r="H228" s="41">
+        <v>10</v>
+      </c>
+      <c r="I228" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.73979591836734704</v>
+      </c>
+      <c r="J228" s="43">
+        <v>8.6</v>
+      </c>
+      <c r="K228" s="41">
+        <v>11.5</v>
+      </c>
+      <c r="L228" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M228" s="41"/>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A229" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B229" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C229" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D229" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E229" s="41">
+        <v>1994</v>
+      </c>
+      <c r="F229" s="41"/>
+      <c r="G229" s="41"/>
+      <c r="H229" s="41">
+        <v>11</v>
+      </c>
+      <c r="I229" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.81632653061224469</v>
+      </c>
+      <c r="J229" s="43">
+        <v>9.5</v>
+      </c>
+      <c r="K229" s="41">
+        <v>12.7</v>
+      </c>
+      <c r="L229" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M229" s="41"/>
+    </row>
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A230" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B230" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C230" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D230" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E230" s="41">
+        <v>1995</v>
+      </c>
+      <c r="F230" s="41"/>
+      <c r="G230" s="41"/>
+      <c r="H230" s="41">
+        <v>11.7</v>
+      </c>
+      <c r="I230" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="J230" s="43">
+        <v>10.1</v>
+      </c>
+      <c r="K230" s="41">
+        <v>13.6</v>
+      </c>
+      <c r="L230" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M230" s="41"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A231" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B231" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C231" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D231" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E231" s="41">
+        <v>1996</v>
+      </c>
+      <c r="F231" s="41"/>
+      <c r="G231" s="41"/>
+      <c r="H231" s="41">
+        <v>12</v>
+      </c>
+      <c r="I231" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="J231" s="43">
+        <v>10.4</v>
+      </c>
+      <c r="K231" s="41">
+        <v>13.9</v>
+      </c>
+      <c r="L231" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M231" s="41"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A232" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B232" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C232" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D232" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E232" s="41">
+        <v>1997</v>
+      </c>
+      <c r="F232" s="41"/>
+      <c r="G232" s="41"/>
+      <c r="H232" s="41">
+        <v>12.1</v>
+      </c>
+      <c r="I232" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="J232" s="43">
+        <v>10.4</v>
+      </c>
+      <c r="K232" s="41">
+        <v>13.9</v>
+      </c>
+      <c r="L232" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M232" s="41"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A233" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B233" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C233" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D233" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E233" s="41">
+        <v>1998</v>
+      </c>
+      <c r="F233" s="41"/>
+      <c r="G233" s="41"/>
+      <c r="H233" s="41">
+        <v>11.8</v>
+      </c>
+      <c r="I233" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.8928571428571429</v>
+      </c>
+      <c r="J233" s="43">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K233" s="41">
+        <v>13.7</v>
+      </c>
+      <c r="L233" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M233" s="41"/>
+    </row>
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A234" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B234" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C234" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D234" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E234" s="41">
+        <v>1999</v>
+      </c>
+      <c r="F234" s="41"/>
+      <c r="G234" s="41"/>
+      <c r="H234" s="41">
+        <v>11.5</v>
+      </c>
+      <c r="I234" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.86734693877551028</v>
+      </c>
+      <c r="J234" s="43">
+        <v>9.9</v>
+      </c>
+      <c r="K234" s="41">
+        <v>13.3</v>
+      </c>
+      <c r="L234" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M234" s="41"/>
+    </row>
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A235" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B235" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C235" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D235" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E235" s="41">
+        <v>2000</v>
+      </c>
+      <c r="F235" s="41"/>
+      <c r="G235" s="41"/>
+      <c r="H235" s="41">
+        <v>11</v>
+      </c>
+      <c r="I235" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.81632653061224469</v>
+      </c>
+      <c r="J235" s="43">
+        <v>9.5</v>
+      </c>
+      <c r="K235" s="41">
+        <v>12.7</v>
+      </c>
+      <c r="L235" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M235" s="41"/>
+    </row>
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A236" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B236" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C236" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D236" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E236" s="41">
+        <v>2001</v>
+      </c>
+      <c r="F236" s="41"/>
+      <c r="G236" s="41"/>
+      <c r="H236" s="41">
+        <v>10.5</v>
+      </c>
+      <c r="I236" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.79081632653061218</v>
+      </c>
+      <c r="J236" s="43">
+        <v>9</v>
+      </c>
+      <c r="K236" s="41">
+        <v>12.1</v>
+      </c>
+      <c r="L236" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M236" s="41"/>
+    </row>
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A237" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B237" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C237" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D237" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E237" s="41">
+        <v>2002</v>
+      </c>
+      <c r="F237" s="41"/>
+      <c r="G237" s="41"/>
+      <c r="H237" s="41">
+        <v>9.9</v>
+      </c>
+      <c r="I237" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.73979591836734704</v>
+      </c>
+      <c r="J237" s="43">
+        <v>8.5</v>
+      </c>
+      <c r="K237" s="41">
+        <v>11.4</v>
+      </c>
+      <c r="L237" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M237" s="41"/>
+    </row>
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A238" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B238" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C238" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D238" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E238" s="41">
+        <v>2003</v>
+      </c>
+      <c r="F238" s="41"/>
+      <c r="G238" s="41"/>
+      <c r="H238" s="41">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I238" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.71428571428571452</v>
+      </c>
+      <c r="J238" s="43">
+        <v>8</v>
+      </c>
+      <c r="K238" s="41">
+        <v>10.8</v>
+      </c>
+      <c r="L238" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M238" s="41"/>
+    </row>
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A239" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B239" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C239" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D239" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E239" s="41">
+        <v>2004</v>
+      </c>
+      <c r="F239" s="41"/>
+      <c r="G239" s="41"/>
+      <c r="H239" s="41">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I239" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.63775510204081631</v>
+      </c>
+      <c r="J239" s="43">
+        <v>7.6</v>
+      </c>
+      <c r="K239" s="41">
+        <v>10.1</v>
+      </c>
+      <c r="L239" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M239" s="41"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A240" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B240" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C240" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D240" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E240" s="41">
+        <v>2005</v>
+      </c>
+      <c r="F240" s="41"/>
+      <c r="G240" s="41"/>
+      <c r="H240" s="41">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I240" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.61224489795918358</v>
+      </c>
+      <c r="J240" s="43">
+        <v>7.2</v>
+      </c>
+      <c r="K240" s="41">
+        <v>9.6</v>
+      </c>
+      <c r="L240" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M240" s="41"/>
+    </row>
+    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A241" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B241" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C241" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D241" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E241" s="41">
+        <v>2006</v>
+      </c>
+      <c r="F241" s="41"/>
+      <c r="G241" s="41"/>
+      <c r="H241" s="41">
+        <v>8</v>
+      </c>
+      <c r="I241" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.58673469387755073</v>
+      </c>
+      <c r="J241" s="43">
+        <v>6.9</v>
+      </c>
+      <c r="K241" s="41">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L241" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M241" s="41"/>
+    </row>
+    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A242" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B242" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C242" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D242" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E242" s="41">
+        <v>2007</v>
+      </c>
+      <c r="F242" s="41"/>
+      <c r="G242" s="41"/>
+      <c r="H242" s="41">
+        <v>7.7</v>
+      </c>
+      <c r="I242" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.58673469387755117</v>
+      </c>
+      <c r="J242" s="43">
+        <v>6.6</v>
+      </c>
+      <c r="K242" s="41">
+        <v>8.9</v>
+      </c>
+      <c r="L242" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M242" s="41"/>
+    </row>
+    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A243" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B243" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C243" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D243" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E243" s="41">
+        <v>2008</v>
+      </c>
+      <c r="F243" s="41"/>
+      <c r="G243" s="41"/>
+      <c r="H243" s="41">
+        <v>7.5</v>
+      </c>
+      <c r="I243" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.56122448979591821</v>
+      </c>
+      <c r="J243" s="43">
+        <v>6.4</v>
+      </c>
+      <c r="K243" s="41">
+        <v>8.6</v>
+      </c>
+      <c r="L243" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M243" s="41"/>
+    </row>
+    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A244" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B244" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C244" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D244" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E244" s="41">
+        <v>2009</v>
+      </c>
+      <c r="F244" s="41"/>
+      <c r="G244" s="41"/>
+      <c r="H244" s="41">
+        <v>7.3</v>
+      </c>
+      <c r="I244" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.53571428571428581</v>
+      </c>
+      <c r="J244" s="43">
+        <v>6.3</v>
+      </c>
+      <c r="K244" s="41">
+        <v>8.4</v>
+      </c>
+      <c r="L244" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M244" s="41"/>
+    </row>
+    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A245" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B245" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C245" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D245" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E245" s="41">
+        <v>2010</v>
+      </c>
+      <c r="F245" s="41"/>
+      <c r="G245" s="41"/>
+      <c r="H245" s="41">
+        <v>7.2</v>
+      </c>
+      <c r="I245" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.53571428571428581</v>
+      </c>
+      <c r="J245" s="43">
+        <v>6.2</v>
+      </c>
+      <c r="K245" s="41">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L245" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M245" s="41"/>
+    </row>
+    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A246" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B246" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C246" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D246" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E246" s="41">
+        <v>2011</v>
+      </c>
+      <c r="F246" s="41"/>
+      <c r="G246" s="41"/>
+      <c r="H246" s="41">
+        <v>7</v>
+      </c>
+      <c r="I246" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.53571428571428559</v>
+      </c>
+      <c r="J246" s="43">
+        <v>6</v>
+      </c>
+      <c r="K246" s="41">
+        <v>8.1</v>
+      </c>
+      <c r="L246" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M246" s="41"/>
+    </row>
+    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A247" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B247" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C247" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D247" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E247" s="41">
+        <v>2012</v>
+      </c>
+      <c r="F247" s="41"/>
+      <c r="G247" s="41"/>
+      <c r="H247" s="41">
+        <v>6.9</v>
+      </c>
+      <c r="I247" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.53571428571428559</v>
+      </c>
+      <c r="J247" s="43">
+        <v>5.9</v>
+      </c>
+      <c r="K247" s="41">
+        <v>8</v>
+      </c>
+      <c r="L247" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M247" s="41"/>
+    </row>
+    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A248" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B248" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C248" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D248" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E248" s="41">
+        <v>2013</v>
+      </c>
+      <c r="F248" s="41"/>
+      <c r="G248" s="41"/>
+      <c r="H248" s="41">
+        <v>6.8</v>
+      </c>
+      <c r="I248" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="J248" s="43">
+        <v>5.8</v>
+      </c>
+      <c r="K248" s="41">
+        <v>7.8</v>
+      </c>
+      <c r="L248" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M248" s="41"/>
+    </row>
+    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A249" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B249" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C249" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D249" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E249" s="41">
+        <v>2014</v>
+      </c>
+      <c r="F249" s="41"/>
+      <c r="G249" s="41"/>
+      <c r="H249" s="41">
+        <v>6.7</v>
+      </c>
+      <c r="I249" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.51020408163265307</v>
+      </c>
+      <c r="J249" s="43">
+        <v>5.7</v>
+      </c>
+      <c r="K249" s="41">
+        <v>7.7</v>
+      </c>
+      <c r="L249" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M249" s="41"/>
+    </row>
+    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A250" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B250" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C250" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D250" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E250" s="41">
+        <v>2015</v>
+      </c>
+      <c r="F250" s="41"/>
+      <c r="G250" s="41"/>
+      <c r="H250" s="41">
+        <v>6.5</v>
+      </c>
+      <c r="I250" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.4846938775510205</v>
+      </c>
+      <c r="J250" s="43">
+        <v>5.6</v>
+      </c>
+      <c r="K250" s="41">
+        <v>7.5</v>
+      </c>
+      <c r="L250" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M250" s="41"/>
+    </row>
+    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A251" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B251" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C251" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D251" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E251" s="41">
+        <v>2016</v>
+      </c>
+      <c r="F251" s="41"/>
+      <c r="G251" s="41"/>
+      <c r="H251" s="41">
+        <v>6.4</v>
+      </c>
+      <c r="I251" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.4846938775510205</v>
+      </c>
+      <c r="J251" s="43">
+        <v>5.5</v>
+      </c>
+      <c r="K251" s="41">
+        <v>7.4</v>
+      </c>
+      <c r="L251" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M251" s="41"/>
+    </row>
+    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A252" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B252" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C252" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D252" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E252" s="41">
+        <v>2017</v>
+      </c>
+      <c r="F252" s="41"/>
+      <c r="G252" s="41"/>
+      <c r="H252" s="41">
+        <v>6.2</v>
+      </c>
+      <c r="I252" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.4846938775510205</v>
+      </c>
+      <c r="J252" s="43">
+        <v>5.3</v>
+      </c>
+      <c r="K252" s="41">
+        <v>7.2</v>
+      </c>
+      <c r="L252" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M252" s="41"/>
+    </row>
+    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A253" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B253" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C253" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D253" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E253" s="41">
+        <v>2018</v>
+      </c>
+      <c r="F253" s="41"/>
+      <c r="G253" s="41"/>
+      <c r="H253" s="41">
+        <v>6</v>
+      </c>
+      <c r="I253" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.45918367346938771</v>
+      </c>
+      <c r="J253" s="43">
+        <v>5.2</v>
+      </c>
+      <c r="K253" s="41">
+        <v>7</v>
+      </c>
+      <c r="L253" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M253" s="41"/>
+    </row>
+    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A254" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B254" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C254" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D254" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E254" s="41">
+        <v>2019</v>
+      </c>
+      <c r="F254" s="41"/>
+      <c r="G254" s="41"/>
+      <c r="H254" s="41">
+        <v>5.8</v>
+      </c>
+      <c r="I254" s="43">
+        <f>(Table1[[#This Row],[UB]]-Table1[[#This Row],[LB]])/3.92</f>
+        <v>0.43367346938775514</v>
+      </c>
+      <c r="J254" s="41">
+        <v>5</v>
+      </c>
+      <c r="K254" s="41">
+        <v>6.7</v>
+      </c>
+      <c r="L254" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="M254" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Calibration_targets_Kenya.xlsx
+++ b/Config/Calibration_targets_Kenya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Kenya_model_Feb20\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Kenya_model_Feb20\HHCoM\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F7DA8E-CFBC-425C-8375-3E17C9E9B439}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48B1DC6-1BA1-4802-8DB9-2B0A75E9398D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7200" windowHeight="2303" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -1386,28 +1386,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A195" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J225" sqref="J225"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J129" sqref="J129"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.265625" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" customWidth="1"/>
+    <col min="5" max="5" width="7.59765625" customWidth="1"/>
+    <col min="6" max="6" width="10.265625" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.1328125" customWidth="1"/>
     <col min="9" max="9" width="13" style="29" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="54.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.86328125" customWidth="1"/>
+    <col min="12" max="12" width="9.265625" customWidth="1"/>
+    <col min="13" max="13" width="28.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>75</v>
       </c>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="M2" s="26"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>76</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="M3" s="26"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" s="26" t="s">
         <v>77</v>
       </c>
@@ -1535,7 +1535,7 @@
       </c>
       <c r="M4" s="26"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="26" t="s">
         <v>78</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="M5" s="26"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A6" s="26" t="s">
         <v>79</v>
       </c>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="M6" s="26"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A7" s="26" t="s">
         <v>80</v>
       </c>
@@ -1622,7 +1622,7 @@
       </c>
       <c r="M7" s="26"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A8" s="26" t="s">
         <v>81</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="M8" s="26"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A9" s="26" t="s">
         <v>82</v>
       </c>
@@ -1680,7 +1680,7 @@
       </c>
       <c r="M9" s="26"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A10" s="25" t="s">
         <v>70</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0.71663276482550387</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A11" s="25" t="s">
         <v>70</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>0.84806759505553897</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A12" s="25" t="s">
         <v>70</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>7.9909247379126498</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A13" s="25" t="s">
         <v>70</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>20.976373024565699</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A14" s="25" t="s">
         <v>70</v>
       </c>
@@ -1876,7 +1876,7 @@
         <v>40.716632764825398</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A15" s="25" t="s">
         <v>70</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>62.664684712877403</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A16" s="25" t="s">
         <v>70</v>
       </c>
@@ -1954,7 +1954,7 @@
         <v>83.052730402127906</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A17" s="25" t="s">
         <v>70</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>103.442340791738</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A18" s="25" t="s">
         <v>70</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>130.32389297449501</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A19" s="25" t="s">
         <v>70</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>150.45376310436501</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A20" s="25" t="s">
         <v>70</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>156.29791894852099</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A21" s="25" t="s">
         <v>70</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>150.71350336410501</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A22" s="25" t="s">
         <v>70</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>133.18103583163801</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A23" s="22" t="s">
         <v>8</v>
       </c>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="M23" s="23"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A24" s="22" t="s">
         <v>8</v>
       </c>
@@ -2264,7 +2264,7 @@
       </c>
       <c r="M24" s="22"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A25" s="22" t="s">
         <v>8</v>
       </c>
@@ -2302,7 +2302,7 @@
       </c>
       <c r="M25" s="22"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A26" s="24" t="s">
         <v>63</v>
       </c>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="M26" s="24"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A27" s="24" t="s">
         <v>64</v>
       </c>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="M27" s="24"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A28" s="24" t="s">
         <v>65</v>
       </c>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="M28" s="24"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A29" s="22" t="s">
         <v>63</v>
       </c>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="M29" s="22"/>
     </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A30" s="24" t="s">
         <v>63</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="M30" s="24"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A31" s="22" t="s">
         <v>69</v>
       </c>
@@ -2524,7 +2524,7 @@
       </c>
       <c r="M31" s="22"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A32" s="24" t="s">
         <v>69</v>
       </c>
@@ -2561,7 +2561,7 @@
       </c>
       <c r="M32" s="24"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A33" s="15" t="s">
         <v>61</v>
       </c>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="M33" s="15"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A34" s="15" t="s">
         <v>61</v>
       </c>
@@ -2635,7 +2635,7 @@
       </c>
       <c r="M34" s="15"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>61</v>
       </c>
@@ -2672,7 +2672,7 @@
       </c>
       <c r="M35" s="15"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A36" s="15" t="s">
         <v>61</v>
       </c>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="M36" s="15"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A37" s="12" t="s">
         <v>61</v>
       </c>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="M37" s="12"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A38" s="12" t="s">
         <v>61</v>
       </c>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="M38" s="12"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A39" s="12" t="s">
         <v>61</v>
       </c>
@@ -2820,7 +2820,7 @@
       </c>
       <c r="M39" s="12"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A40" s="12" t="s">
         <v>61</v>
       </c>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="M40" s="12"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A41" s="15" t="s">
         <v>62</v>
       </c>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="M41" s="15"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A42" s="15" t="s">
         <v>62</v>
       </c>
@@ -2931,7 +2931,7 @@
       </c>
       <c r="M42" s="15"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>62</v>
       </c>
@@ -2968,7 +2968,7 @@
       </c>
       <c r="M43" s="15"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
         <v>62</v>
       </c>
@@ -3005,7 +3005,7 @@
       </c>
       <c r="M44" s="15"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A45" s="15" t="s">
         <v>62</v>
       </c>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="M45" s="15"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A46" s="15" t="s">
         <v>62</v>
       </c>
@@ -3079,7 +3079,7 @@
       </c>
       <c r="M46" s="15"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A47" s="12" t="s">
         <v>60</v>
       </c>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="M47" s="13"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A48" s="12" t="s">
         <v>60</v>
       </c>
@@ -3161,7 +3161,7 @@
       </c>
       <c r="M48" s="12"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A49" s="12" t="s">
         <v>60</v>
       </c>
@@ -3202,7 +3202,7 @@
       </c>
       <c r="M49" s="12"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A50" s="12" t="s">
         <v>60</v>
       </c>
@@ -3243,7 +3243,7 @@
       </c>
       <c r="M50" s="12"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A51" s="12" t="s">
         <v>60</v>
       </c>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="M51" s="12"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>14</v>
       </c>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="M52" s="2"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>14</v>
       </c>
@@ -3366,7 +3366,7 @@
       </c>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>14</v>
       </c>
@@ -3407,7 +3407,7 @@
       </c>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>14</v>
       </c>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>14</v>
       </c>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="M56" s="2"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>14</v>
       </c>
@@ -3530,7 +3530,7 @@
       </c>
       <c r="M57" s="2"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>14</v>
       </c>
@@ -3571,7 +3571,7 @@
       </c>
       <c r="M58" s="2"/>
     </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>34</v>
       </c>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="M59" s="3"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>34</v>
       </c>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="M60" s="3"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>34</v>
       </c>
@@ -3682,7 +3682,7 @@
       </c>
       <c r="M61" s="3"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>34</v>
       </c>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="M62" s="3"/>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>34</v>
       </c>
@@ -3756,7 +3756,7 @@
       </c>
       <c r="M63" s="3"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>34</v>
       </c>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="M64" s="3"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>34</v>
       </c>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="M65" s="3"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A66" s="2" t="s">
         <v>15</v>
       </c>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="M66" s="2"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A67" s="2" t="s">
         <v>15</v>
       </c>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="M67" s="2"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>15</v>
       </c>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="M68" s="2"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>15</v>
       </c>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="M69" s="2"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A70" s="2" t="s">
         <v>15</v>
       </c>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="M70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A71" s="2" t="s">
         <v>15</v>
       </c>
@@ -4076,7 +4076,7 @@
       </c>
       <c r="M71" s="2"/>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A72" s="2" t="s">
         <v>15</v>
       </c>
@@ -4117,363 +4117,331 @@
       </c>
       <c r="M72" s="2"/>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E73" s="3">
-        <v>2003</v>
-      </c>
-      <c r="F73" s="3">
-        <v>4</v>
+        <v>2012</v>
+      </c>
+      <c r="F73" s="8">
+        <v>13.38658</v>
       </c>
       <c r="G73" s="10">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>1119.0432681886909</v>
-      </c>
-      <c r="H73" s="6">
-        <v>3.5744819826980341E-3</v>
-      </c>
-      <c r="I73" s="37">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.1828126422836702E-6</v>
-      </c>
-      <c r="J73" s="6">
-        <v>0</v>
-      </c>
-      <c r="K73" s="6">
-        <v>7.5190000000000005E-3</v>
-      </c>
+        <v>1216.962</v>
+      </c>
+      <c r="H73" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>1.0999998356563311E-2</v>
+      </c>
+      <c r="I73" s="36">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>8.9394725494460103E-6</v>
+      </c>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
       <c r="L73" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M73" s="3"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E74" s="3">
-        <v>2003</v>
-      </c>
-      <c r="F74" s="3">
-        <v>14</v>
+        <v>2012</v>
+      </c>
+      <c r="F74" s="8">
+        <v>64.395579999999995</v>
       </c>
       <c r="G74" s="10">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>581.83871888986232</v>
-      </c>
-      <c r="H74" s="6">
-        <v>2.4061650669642172E-2</v>
-      </c>
-      <c r="I74" s="37">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.0359444764175919E-5</v>
-      </c>
-      <c r="J74" s="6">
-        <v>1.2016000000000001E-2</v>
-      </c>
-      <c r="K74" s="6">
-        <v>3.6107E-2</v>
-      </c>
+        <v>1399.904</v>
+      </c>
+      <c r="H74" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>4.599999714266121E-2</v>
+      </c>
+      <c r="I74" s="36">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>3.1347862000205993E-5</v>
+      </c>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
       <c r="L74" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M74" s="3"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="3">
-        <v>2003</v>
-      </c>
-      <c r="F75" s="3">
-        <v>31</v>
+        <v>2012</v>
+      </c>
+      <c r="F75" s="8">
+        <v>104.30880000000001</v>
       </c>
       <c r="G75" s="10">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>423.4401999605733</v>
-      </c>
-      <c r="H75" s="6">
-        <v>7.3209865295941257E-2</v>
-      </c>
-      <c r="I75" s="37">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.6023556791634088E-4</v>
-      </c>
-      <c r="J75" s="6">
-        <v>4.4005999999999997E-2</v>
-      </c>
-      <c r="K75" s="6">
-        <v>0.10241400000000001</v>
-      </c>
+        <v>1320.364</v>
+      </c>
+      <c r="H75" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>7.9000033324143945E-2</v>
+      </c>
+      <c r="I75" s="36">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>5.5105280103765393E-5</v>
+      </c>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
       <c r="L75" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M75" s="3"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E76" s="3">
-        <v>2003</v>
-      </c>
-      <c r="F76" s="3">
-        <v>22</v>
+        <v>2012</v>
+      </c>
+      <c r="F76" s="8">
+        <v>65.09554</v>
       </c>
       <c r="G76" s="10">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>332.79868372251627</v>
-      </c>
-      <c r="H76" s="6">
-        <v>6.6106030690744402E-2</v>
-      </c>
-      <c r="I76" s="37">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.8550561170047641E-4</v>
-      </c>
-      <c r="J76" s="6">
-        <v>3.8716E-2</v>
-      </c>
-      <c r="K76" s="6">
-        <v>9.349600000000001E-2</v>
-      </c>
+        <v>986.29600000000005</v>
+      </c>
+      <c r="H76" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>6.6000004055577627E-2</v>
+      </c>
+      <c r="I76" s="36">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>6.2500510516357529E-5</v>
+      </c>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
       <c r="L76" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M76" s="3"/>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E77" s="3">
-        <v>2003</v>
-      </c>
-      <c r="F77" s="3">
-        <v>24</v>
+        <v>2012</v>
+      </c>
+      <c r="F77" s="8">
+        <v>101.74760000000001</v>
       </c>
       <c r="G77" s="10">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>285.40208064747873</v>
-      </c>
-      <c r="H77" s="6">
-        <v>8.4091888698051148E-2</v>
-      </c>
-      <c r="I77" s="37">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.6986643817912239E-4</v>
-      </c>
-      <c r="J77" s="6">
-        <v>4.9303999999999994E-2</v>
-      </c>
-      <c r="K77" s="6">
-        <v>0.11888</v>
-      </c>
+        <v>827.21600000000001</v>
+      </c>
+      <c r="H77" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.1230000386839713</v>
+      </c>
+      <c r="I77" s="36">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>1.3040249362646862E-4</v>
+      </c>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
       <c r="L77" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M77" s="3"/>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E78" s="3">
-        <v>2003</v>
-      </c>
-      <c r="F78" s="3">
-        <v>22</v>
+        <v>2012</v>
+      </c>
+      <c r="F78" s="8">
+        <v>70.822419999999994</v>
       </c>
       <c r="G78" s="10">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>251.09726150204338</v>
-      </c>
-      <c r="H78" s="6">
-        <v>8.7615451751236917E-2</v>
-      </c>
-      <c r="I78" s="37">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.1835864671512186E-4</v>
-      </c>
-      <c r="J78" s="6">
-        <v>4.7294999999999997E-2</v>
-      </c>
-      <c r="K78" s="6">
-        <v>0.12793599999999999</v>
-      </c>
+        <v>668.13599999999997</v>
+      </c>
+      <c r="H78" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.10600000598680508</v>
+      </c>
+      <c r="I78" s="36">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>1.4183340624903068E-4</v>
+      </c>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
       <c r="L78" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M78" s="3"/>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="3">
-        <v>2003</v>
-      </c>
-      <c r="F79" s="3">
-        <v>7</v>
+        <v>2012</v>
+      </c>
+      <c r="F79" s="8">
+        <v>53.617910000000002</v>
       </c>
       <c r="G79" s="10">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>135.62233534638352</v>
-      </c>
-      <c r="H79" s="6">
-        <v>5.1613917295567795E-2</v>
-      </c>
-      <c r="I79" s="37">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.6092816652916735E-4</v>
-      </c>
-      <c r="J79" s="6">
-        <v>1.1973000000000001E-2</v>
-      </c>
-      <c r="K79" s="6">
-        <v>9.1255000000000003E-2</v>
-      </c>
+        <v>501.10199999999998</v>
+      </c>
+      <c r="H79" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.10699999201759323</v>
+      </c>
+      <c r="I79" s="36">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>1.9068172492991091E-4</v>
+      </c>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
       <c r="L79" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M79" s="3"/>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E80" s="3">
-        <v>2003</v>
-      </c>
-      <c r="F80" s="3">
-        <v>9</v>
+        <v>2012</v>
+      </c>
+      <c r="F80" s="8">
+        <v>46.928600000000003</v>
       </c>
       <c r="G80" s="10">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
-        <v>158.88050719816081</v>
-      </c>
-      <c r="H80" s="6">
-        <v>5.6646344845657587E-2</v>
-      </c>
-      <c r="I80" s="37">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.3633790200981317E-4</v>
-      </c>
-      <c r="J80" s="6">
-        <v>2.0834999999999999E-2</v>
-      </c>
-      <c r="K80" s="6">
-        <v>9.2457999999999985E-2</v>
-      </c>
+        <v>469.286</v>
+      </c>
+      <c r="H80" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.1</v>
+      </c>
+      <c r="I80" s="36">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>1.9178070515634392E-4</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
       <c r="L80" s="3" t="s">
         <v>18</v>
       </c>
       <c r="M80" s="3"/>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="E81" s="3">
-        <v>2007</v>
-      </c>
-      <c r="F81" s="10">
-        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>11.75</v>
+        <v>2012</v>
+      </c>
+      <c r="F81" s="8">
+        <v>15.907999999999999</v>
       </c>
       <c r="G81" s="10">
-        <v>1175</v>
-      </c>
-      <c r="H81" s="8">
-        <v>0.01</v>
-      </c>
-      <c r="I81" s="37">
+        <v>318.16000000000003</v>
+      </c>
+      <c r="H81" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="I81" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>8.4255319148936176E-6</v>
+        <v>1.4929595172240379E-4</v>
       </c>
       <c r="J81" s="3"/>
       <c r="K81" s="3"/>
@@ -4482,35 +4450,35 @@
       </c>
       <c r="M81" s="3"/>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="E82" s="3">
-        <v>2007</v>
-      </c>
-      <c r="F82" s="10">
-        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
-        <v>19.646000000000001</v>
+        <v>2012</v>
+      </c>
+      <c r="F82" s="8">
+        <v>7.3972199999999999</v>
       </c>
       <c r="G82" s="10">
-        <v>1034</v>
-      </c>
-      <c r="H82" s="8">
-        <v>1.9E-2</v>
-      </c>
-      <c r="I82" s="37">
+        <v>246.57400000000001</v>
+      </c>
+      <c r="H82" s="7">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.03</v>
+      </c>
+      <c r="I82" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
-        <v>1.8026112185686654E-5</v>
+        <v>1.180173092053501E-4</v>
       </c>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
@@ -4519,2139 +4487,2161 @@
       </c>
       <c r="M82" s="3"/>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4</v>
+      </c>
+      <c r="G83" s="10">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>1119.0432681886909</v>
+      </c>
+      <c r="H83" s="6">
+        <v>3.5744819826980341E-3</v>
+      </c>
+      <c r="I83" s="37">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.1828126422836702E-6</v>
+      </c>
+      <c r="J83" s="6">
+        <v>0</v>
+      </c>
+      <c r="K83" s="6">
+        <v>7.5190000000000005E-3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E84" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F84" s="3">
+        <v>14</v>
+      </c>
+      <c r="G84" s="10">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>581.83871888986232</v>
+      </c>
+      <c r="H84" s="6">
+        <v>2.4061650669642172E-2</v>
+      </c>
+      <c r="I84" s="37">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>4.0359444764175919E-5</v>
+      </c>
+      <c r="J84" s="6">
+        <v>1.2016000000000001E-2</v>
+      </c>
+      <c r="K84" s="6">
+        <v>3.6107E-2</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A85" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E85" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F85" s="3">
+        <v>31</v>
+      </c>
+      <c r="G85" s="10">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>423.4401999605733</v>
+      </c>
+      <c r="H85" s="6">
+        <v>7.3209865295941257E-2</v>
+      </c>
+      <c r="I85" s="37">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>1.6023556791634088E-4</v>
+      </c>
+      <c r="J85" s="6">
+        <v>4.4005999999999997E-2</v>
+      </c>
+      <c r="K85" s="6">
+        <v>0.10241400000000001</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A86" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F86" s="3">
+        <v>22</v>
+      </c>
+      <c r="G86" s="10">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>332.79868372251627</v>
+      </c>
+      <c r="H86" s="6">
+        <v>6.6106030690744402E-2</v>
+      </c>
+      <c r="I86" s="37">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>1.8550561170047641E-4</v>
+      </c>
+      <c r="J86" s="6">
+        <v>3.8716E-2</v>
+      </c>
+      <c r="K86" s="6">
+        <v>9.349600000000001E-2</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F87" s="3">
+        <v>24</v>
+      </c>
+      <c r="G87" s="10">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>285.40208064747873</v>
+      </c>
+      <c r="H87" s="6">
+        <v>8.4091888698051148E-2</v>
+      </c>
+      <c r="I87" s="37">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>2.6986643817912239E-4</v>
+      </c>
+      <c r="J87" s="6">
+        <v>4.9303999999999994E-2</v>
+      </c>
+      <c r="K87" s="6">
+        <v>0.11888</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F88" s="3">
+        <v>22</v>
+      </c>
+      <c r="G88" s="10">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>251.09726150204338</v>
+      </c>
+      <c r="H88" s="6">
+        <v>8.7615451751236917E-2</v>
+      </c>
+      <c r="I88" s="37">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.1835864671512186E-4</v>
+      </c>
+      <c r="J88" s="6">
+        <v>4.7294999999999997E-2</v>
+      </c>
+      <c r="K88" s="6">
+        <v>0.12793599999999999</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F89" s="3">
+        <v>7</v>
+      </c>
+      <c r="G89" s="10">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>135.62233534638352</v>
+      </c>
+      <c r="H89" s="6">
+        <v>5.1613917295567795E-2</v>
+      </c>
+      <c r="I89" s="37">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.6092816652916735E-4</v>
+      </c>
+      <c r="J89" s="6">
+        <v>1.1973000000000001E-2</v>
+      </c>
+      <c r="K89" s="6">
+        <v>9.1255000000000003E-2</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A90" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="3">
+        <v>2003</v>
+      </c>
+      <c r="F90" s="3">
+        <v>9</v>
+      </c>
+      <c r="G90" s="10">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
+        <v>158.88050719816081</v>
+      </c>
+      <c r="H90" s="6">
+        <v>5.6646344845657587E-2</v>
+      </c>
+      <c r="I90" s="37">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.3633790200981317E-4</v>
+      </c>
+      <c r="J90" s="6">
+        <v>2.0834999999999999E-2</v>
+      </c>
+      <c r="K90" s="6">
+        <v>9.2457999999999985E-2</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A91" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="C91" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E91" s="3">
+        <v>2007</v>
+      </c>
+      <c r="F91" s="10">
+        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
+        <v>11.75</v>
+      </c>
+      <c r="G91" s="10">
+        <v>1175</v>
+      </c>
+      <c r="H91" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="I91" s="37">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>8.4255319148936176E-6</v>
+      </c>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A92" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E92" s="3">
+        <v>2007</v>
+      </c>
+      <c r="F92" s="10">
+        <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
+        <v>19.646000000000001</v>
+      </c>
+      <c r="G92" s="10">
+        <v>1034</v>
+      </c>
+      <c r="H92" s="8">
+        <v>1.9E-2</v>
+      </c>
+      <c r="I92" s="37">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>1.8026112185686654E-5</v>
+      </c>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A93" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E93" s="3">
         <v>2007</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F93" s="10">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>63.801999999999992</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G93" s="10">
         <v>874</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H93" s="8">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="I83" s="37">
+      <c r="I93" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>7.7426773455377572E-5</v>
       </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A94" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="C94" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E94" s="3">
         <v>2007</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F94" s="10">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>68.708000000000013</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G94" s="10">
         <v>772</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H94" s="8">
         <v>8.900000000000001E-2</v>
       </c>
-      <c r="I84" s="37">
+      <c r="I94" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.0502461139896374E-4</v>
       </c>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A95" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="C95" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E95" s="3">
         <v>2007</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F95" s="10">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>63.054000000000009</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G95" s="10">
         <v>678</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H95" s="8">
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="I85" s="37">
+      <c r="I95" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.2441150442477877E-4</v>
       </c>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A96" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="C96" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E96" s="3">
         <v>2007</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F96" s="10">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>58.751999999999995</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G96" s="10">
         <v>576</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H96" s="8">
         <v>0.10199999999999999</v>
       </c>
-      <c r="I86" s="37">
+      <c r="I96" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.5902083333333333E-4</v>
       </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A97" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="C97" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E97" s="3">
         <v>2007</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F97" s="10">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>30.743999999999996</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G97" s="10">
         <v>549</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H97" s="8">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="I87" s="37">
+      <c r="I97" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>9.6291438979963562E-5</v>
       </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A98" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="C98" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E98" s="3">
         <v>2007</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F98" s="10">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>35.274999999999999</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G98" s="10">
         <v>425</v>
       </c>
-      <c r="H88" s="8">
+      <c r="H98" s="8">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="I88" s="37">
+      <c r="I98" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.7908470588235296E-4</v>
       </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A99" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="C99" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E99" s="3">
         <v>2009</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F99" s="3">
         <v>7</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G99" s="10">
         <v>963.49708650572427</v>
       </c>
-      <c r="H89" s="6">
+      <c r="H99" s="6">
         <f>Table1[n]/Table1[Total N]</f>
         <v>7.2652010037587301E-3</v>
       </c>
-      <c r="I89" s="37">
+      <c r="I99" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>7.4856664946343489E-6</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J99" s="4">
         <v>7.0699999999999995E-4</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K99" s="4">
         <v>1.3823E-2</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="L99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A100" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B100" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="C100" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E100" s="3">
         <v>2009</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F100" s="3">
         <v>10</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G100" s="10">
         <v>670.05493031263165</v>
       </c>
-      <c r="H90" s="6">
+      <c r="H100" s="6">
         <f>Table1[n]/Table1[Total N]</f>
         <v>1.4924149569848309E-2</v>
       </c>
-      <c r="I90" s="37">
+      <c r="I100" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>2.1940618096199626E-5</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J100" s="4">
         <v>3.8409999999999998E-3</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K100" s="4">
         <v>2.6006999999999999E-2</v>
       </c>
-      <c r="L90" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="L100" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A101" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="C101" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E101" s="3">
         <v>2009</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F101" s="3">
         <v>24</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G101" s="10">
         <v>368.03944592214856</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H101" s="6">
         <f>Table1[n]/Table1[Total N]</f>
         <v>6.5210401401040924E-2</v>
       </c>
-      <c r="I91" s="37">
+      <c r="I101" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.6562899880859645E-4</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J101" s="4">
         <v>3.2902000000000001E-2</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K101" s="4">
         <v>9.7518999999999995E-2</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="L101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A102" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="C102" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E102" s="3">
         <v>2009</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F102" s="3">
         <v>34</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G102" s="10">
         <v>499.58022619476617</v>
       </c>
-      <c r="H92" s="6">
+      <c r="H102" s="6">
         <f>Table1[n]/Table1[Total N]</f>
         <v>6.8057137206917334E-2</v>
       </c>
-      <c r="I92" s="37">
+      <c r="I102" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.2695731327322225E-4</v>
       </c>
-      <c r="J92" s="4">
+      <c r="J102" s="4">
         <v>4.1223000000000003E-2</v>
       </c>
-      <c r="K92" s="4">
+      <c r="K102" s="4">
         <v>9.4891000000000003E-2</v>
       </c>
-      <c r="L92" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="L102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M102" s="3"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A103" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="C103" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E103" s="3">
         <v>2009</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F103" s="3">
         <v>35</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G103" s="10">
         <v>335.51817350394879</v>
       </c>
-      <c r="H93" s="6">
+      <c r="H103" s="6">
         <f>Table1[n]/Table1[Total N]</f>
         <v>0.10431625695407548</v>
       </c>
-      <c r="I93" s="37">
+      <c r="I103" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>2.7847783776775698E-4</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J103" s="4">
         <v>6.2424999999999994E-2</v>
       </c>
-      <c r="K93" s="4">
+      <c r="K103" s="4">
         <v>0.146207</v>
       </c>
-      <c r="L93" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="L103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M103" s="3"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A104" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="C104" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E104" s="3">
         <v>2009</v>
       </c>
-      <c r="F94" s="3">
-        <v>18</v>
-      </c>
-      <c r="G94" s="10">
+      <c r="F104" s="3">
+        <v>18</v>
+      </c>
+      <c r="G104" s="10">
         <v>317.52684689160503</v>
       </c>
-      <c r="H94" s="6">
+      <c r="H104" s="6">
         <f>Table1[n]/Table1[Total N]</f>
         <v>5.6688120000589134E-2</v>
       </c>
-      <c r="I94" s="37">
+      <c r="I104" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.6840962449276832E-4</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J104" s="4">
         <v>2.5624999999999998E-2</v>
       </c>
-      <c r="K94" s="4">
+      <c r="K104" s="4">
         <v>8.7750999999999996E-2</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="L104" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M104" s="3"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A105" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="C105" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E105" s="3">
         <v>2009</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F105" s="3">
         <v>11</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G105" s="10">
         <v>258.69483208444495</v>
       </c>
-      <c r="H95" s="6">
+      <c r="H105" s="6">
         <f>Table1[n]/Table1[Total N]</f>
         <v>4.2521143199371308E-2</v>
       </c>
-      <c r="I95" s="37">
+      <c r="I105" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.5737885156940444E-4</v>
       </c>
-      <c r="J95" s="4">
+      <c r="J105" s="4">
         <v>8.685E-3</v>
       </c>
-      <c r="K95" s="4">
+      <c r="K105" s="4">
         <v>7.6356999999999994E-2</v>
       </c>
-      <c r="L95" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="L105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M105" s="3"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A106" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="C106" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E106" s="3">
         <v>2009</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F106" s="3">
         <v>15</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G106" s="10">
         <v>164.65714491839395</v>
       </c>
-      <c r="H96" s="6">
+      <c r="H106" s="6">
         <f>Table1[n]/Table1[Total N]</f>
         <v>9.1098385116747768E-2</v>
       </c>
-      <c r="I96" s="37">
+      <c r="I106" s="37">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>5.0285986306215194E-4</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J106" s="4">
         <v>2.3006000000000002E-2</v>
       </c>
-      <c r="K96" s="4">
+      <c r="K106" s="4">
         <v>0.159191</v>
       </c>
-      <c r="L96" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="L106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M106" s="3"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A107" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D107" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="E107" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F107" s="42">
+        <v>9.4447080000000003</v>
+      </c>
+      <c r="G107" s="42">
+        <v>1049.412</v>
+      </c>
+      <c r="H107" s="42">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I107" s="42">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>8.4990451795862814E-6</v>
+      </c>
+      <c r="J107" s="42"/>
+      <c r="K107" s="42"/>
+      <c r="L107" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M107" s="42"/>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A108" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C108" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F108" s="42">
+        <v>11.16874</v>
+      </c>
+      <c r="G108" s="42">
+        <v>859.13400000000001</v>
+      </c>
+      <c r="H108" s="42">
+        <v>1.2999997672074437E-2</v>
+      </c>
+      <c r="I108" s="42">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>1.4934803805460494E-5</v>
+      </c>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M108" s="42"/>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A109" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C109" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D109" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E109" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F109" s="42">
+        <v>36.198950000000004</v>
+      </c>
+      <c r="G109" s="42">
+        <v>841.83600000000001</v>
+      </c>
+      <c r="H109" s="42">
+        <v>4.3000002375759655E-2</v>
+      </c>
+      <c r="I109" s="42">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>4.8882445240455768E-5</v>
+      </c>
+      <c r="J109" s="42"/>
+      <c r="K109" s="42"/>
+      <c r="L109" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M109" s="42"/>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A110" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B110" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C110" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E110" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F110" s="42">
+        <v>46.42783</v>
+      </c>
+      <c r="G110" s="42">
+        <v>703.452</v>
+      </c>
+      <c r="H110" s="42">
+        <v>6.5999997156877793E-2</v>
+      </c>
+      <c r="I110" s="42">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>8.7630709035115288E-5</v>
+      </c>
+      <c r="J110" s="42"/>
+      <c r="K110" s="42"/>
+      <c r="L110" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M110" s="42"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A111" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B111" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C111" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D111" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="E111" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F111" s="42">
+        <v>29.9832</v>
+      </c>
+      <c r="G111" s="42">
+        <v>599.66399999999999</v>
+      </c>
+      <c r="H111" s="42">
+        <v>0.05</v>
+      </c>
+      <c r="I111" s="42">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>7.9211024840577387E-5</v>
+      </c>
+      <c r="J111" s="42"/>
+      <c r="K111" s="42"/>
+      <c r="L111" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M111" s="42"/>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A112" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B112" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D112" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F112" s="42">
+        <v>40.165959999999998</v>
+      </c>
+      <c r="G112" s="42">
+        <v>495.87599999999998</v>
+      </c>
+      <c r="H112" s="42">
+        <v>8.1000008066532764E-2</v>
+      </c>
+      <c r="I112" s="42">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>1.5011617170372106E-4</v>
+      </c>
+      <c r="J112" s="42"/>
+      <c r="K112" s="42"/>
+      <c r="L112" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M112" s="42"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A113" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B113" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D113" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F113" s="42">
+        <v>31.303609999999999</v>
+      </c>
+      <c r="G113" s="42">
+        <v>351.726</v>
+      </c>
+      <c r="H113" s="42">
+        <v>8.8999988627511184E-2</v>
+      </c>
+      <c r="I113" s="42">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>2.3051747852536936E-4</v>
+      </c>
+      <c r="J113" s="42"/>
+      <c r="K113" s="42"/>
+      <c r="L113" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M113" s="42"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A114" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B114" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="E114" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F114" s="42">
+        <v>25.831679999999999</v>
+      </c>
+      <c r="G114" s="42">
+        <v>369.024</v>
+      </c>
+      <c r="H114" s="42">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="I114" s="42">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>1.7641129032258061E-4</v>
+      </c>
+      <c r="J114" s="42"/>
+      <c r="K114" s="42"/>
+      <c r="L114" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M114" s="42"/>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A115" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B115" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D115" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F115" s="42">
+        <v>10.84008</v>
+      </c>
+      <c r="G115" s="42">
+        <v>271.00200000000001</v>
+      </c>
+      <c r="H115" s="42">
+        <v>0.04</v>
+      </c>
+      <c r="I115" s="42">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>1.4169637124449263E-4</v>
+      </c>
+      <c r="J115" s="42"/>
+      <c r="K115" s="42"/>
+      <c r="L115" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M115" s="42"/>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A116" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="B116" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="42">
+        <v>2012</v>
+      </c>
+      <c r="F116" s="42">
+        <v>10.955399999999999</v>
+      </c>
+      <c r="G116" s="42">
+        <v>219.108</v>
+      </c>
+      <c r="H116" s="42">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="I116" s="42">
+        <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
+        <v>2.1678806798473808E-4</v>
+      </c>
+      <c r="J116" s="42"/>
+      <c r="K116" s="42"/>
+      <c r="L116" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="M116" s="42"/>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A117" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B117" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="C117" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E117" s="2">
         <v>2012</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F117" s="2">
         <v>17</v>
       </c>
-      <c r="G97" s="9">
+      <c r="G117" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>1545.4545454545453</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H117" s="2">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="I97" s="36">
+      <c r="I117" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>7.0393529411764727E-6</v>
       </c>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M117" s="2"/>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A118" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B118" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="C118" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E118" s="11">
         <v>2012</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F118" s="2">
         <v>58</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G118" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>1870.9677419354839</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H118" s="2">
         <v>3.1E-2</v>
       </c>
-      <c r="I98" s="36">
+      <c r="I118" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.6055327586206897E-5</v>
       </c>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M98" s="2"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M118" s="2"/>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A119" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B119" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="C119" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E119" s="2">
         <v>2012</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F119" s="2">
         <v>112</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G119" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>1777.7777777777778</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H119" s="2">
         <v>6.3E-2</v>
       </c>
-      <c r="I99" s="36">
+      <c r="I119" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>3.3204937500000004E-5</v>
       </c>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M99" s="2"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M119" s="2"/>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A120" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B120" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="C120" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E120" s="11">
         <v>2012</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F120" s="2">
         <v>97</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G120" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>1469.6969696969695</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H120" s="2">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="I100" s="36">
+      <c r="I120" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>4.1943340206185571E-5</v>
       </c>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M100" s="2"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M120" s="2"/>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A121" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B121" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="C121" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E121" s="2">
         <v>2012</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F121" s="2">
         <v>108</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G121" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>1241.3793103448277</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H121" s="2">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="I101" s="36">
+      <c r="I121" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>6.3986083333333324E-5</v>
       </c>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M101" s="2"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M121" s="2"/>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A122" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B122" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E122" s="11">
         <v>2012</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F122" s="2">
         <v>90</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G122" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>967.74193548387086</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H122" s="2">
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="I102" s="36">
+      <c r="I122" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>8.7162700000000025E-5</v>
       </c>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M102" s="2"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M122" s="2"/>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A123" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B123" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="C123" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E123" s="2">
         <v>2012</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F123" s="2">
         <v>66</v>
       </c>
-      <c r="G103" s="9">
+      <c r="G123" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>673.46938775510205</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H123" s="2">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I103" s="36">
+      <c r="I123" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.3125466666666667E-4</v>
       </c>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M103" s="2"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M123" s="2"/>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A124" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B124" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="C124" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E124" s="11">
         <v>2012</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F124" s="2">
         <v>60</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G124" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>714.28571428571422</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H124" s="2">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I104" s="36">
+      <c r="I124" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.0772160000000002E-4</v>
       </c>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M104" s="2"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M124" s="2"/>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A125" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B125" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="C125" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E125" s="11">
         <v>2012</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F125" s="2">
         <v>24</v>
       </c>
-      <c r="G105" s="9">
+      <c r="G125" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>545.45454545454538</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H125" s="2">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="I105" s="36">
+      <c r="I125" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>7.7117333333333348E-5</v>
       </c>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M105" s="2"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M125" s="2"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A126" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B126" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="C126" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E126" s="2">
         <v>2012</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F126" s="2">
         <v>16</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G126" s="2">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>400</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H126" s="2">
         <v>0.04</v>
       </c>
-      <c r="I106" s="36">
+      <c r="I126" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>9.5999999999999989E-5</v>
       </c>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M106" s="2"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M126" s="2"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A127" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B127" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C107" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" s="18" t="s">
+      <c r="C127" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E127" s="18">
         <v>1979</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F127" s="18">
         <v>2843406</v>
       </c>
-      <c r="G107" s="18">
+      <c r="G127" s="18">
         <v>15297576</v>
       </c>
-      <c r="H107" s="18">
+      <c r="H127" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.1858729775227134</v>
       </c>
-      <c r="I107" s="38">
+      <c r="I127" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>9.8920386961669154E-9</v>
       </c>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M107" s="17"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
+      <c r="J127" s="18"/>
+      <c r="K127" s="18"/>
+      <c r="L127" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M127" s="17"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A128" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B128" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C108" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D108" s="21" t="s">
+      <c r="C128" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E128" s="18">
         <v>1979</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F128" s="18">
         <v>2491840</v>
       </c>
-      <c r="G108" s="18">
+      <c r="G128" s="18">
         <v>15297576</v>
       </c>
-      <c r="H108" s="18">
+      <c r="H128" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.16289116654821653</v>
       </c>
-      <c r="I108" s="38">
+      <c r="I128" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>8.9136758927543632E-9</v>
       </c>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M108" s="18"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
+      <c r="J128" s="18"/>
+      <c r="K128" s="18"/>
+      <c r="L128" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M128" s="18"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A129" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B129" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C109" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D109" s="21" t="s">
+      <c r="C129" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E129" s="18">
         <v>1979</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F129" s="18">
         <v>2074771</v>
       </c>
-      <c r="G109" s="18">
+      <c r="G129" s="18">
         <v>15297576</v>
       </c>
-      <c r="H109" s="18">
+      <c r="H129" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.13562743535315661</v>
       </c>
-      <c r="I109" s="38">
+      <c r="I129" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>7.6634778041097449E-9</v>
       </c>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M109" s="18"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
+      <c r="J129" s="18"/>
+      <c r="K129" s="18"/>
+      <c r="L129" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M129" s="18"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A130" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B130" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C110" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D110" s="18" t="s">
+      <c r="C130" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D130" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E110" s="18">
+      <c r="E130" s="18">
         <v>1979</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F130" s="18">
         <v>1741845</v>
       </c>
-      <c r="G110" s="18">
+      <c r="G130" s="18">
         <v>15297576</v>
       </c>
-      <c r="H110" s="18">
+      <c r="H130" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.11386411807988403</v>
       </c>
-      <c r="I110" s="38">
+      <c r="I130" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>6.5957561311526906E-9</v>
       </c>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M110" s="18"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
+      <c r="J130" s="18"/>
+      <c r="K130" s="18"/>
+      <c r="L130" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M130" s="18"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A131" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B131" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C111" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D111" s="18" t="s">
+      <c r="C131" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E111" s="18">
+      <c r="E131" s="18">
         <v>1979</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F131" s="18">
         <v>1327404</v>
       </c>
-      <c r="G111" s="18">
+      <c r="G131" s="18">
         <v>15297576</v>
       </c>
-      <c r="H111" s="18">
+      <c r="H131" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>8.6772178807936626E-2</v>
       </c>
-      <c r="I111" s="38">
+      <c r="I131" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>5.1800865570375403E-9</v>
       </c>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M111" s="18"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
+      <c r="J131" s="18"/>
+      <c r="K131" s="18"/>
+      <c r="L131" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M131" s="18"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A132" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B132" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C112" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D112" s="18" t="s">
+      <c r="C132" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D132" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E132" s="18">
         <v>1979</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F132" s="18">
         <v>1055712</v>
       </c>
-      <c r="G112" s="18">
+      <c r="G132" s="18">
         <v>15297576</v>
       </c>
-      <c r="H112" s="18">
+      <c r="H132" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>6.9011717934919892E-2</v>
       </c>
-      <c r="I112" s="38">
+      <c r="I132" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>4.1999530332512125E-9</v>
       </c>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M112" s="18"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
+      <c r="L132" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M132" s="18"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A133" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B133" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C113" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D113" s="18" t="s">
+      <c r="C133" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E133" s="18">
         <v>1979</v>
       </c>
-      <c r="F113" s="18">
+      <c r="F133" s="18">
         <v>818076</v>
       </c>
-      <c r="G113" s="18">
+      <c r="G133" s="18">
         <v>15297576</v>
       </c>
-      <c r="H113" s="18">
+      <c r="H133" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>5.3477492120320241E-2</v>
       </c>
-      <c r="I113" s="38">
+      <c r="I133" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.3088673628319498E-9</v>
       </c>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M113" s="18"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
+      <c r="J133" s="18"/>
+      <c r="K133" s="18"/>
+      <c r="L133" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M133" s="18"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A134" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B134" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C114" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D114" s="18" t="s">
+      <c r="C134" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="18">
+      <c r="E134" s="18">
         <v>1979</v>
       </c>
-      <c r="F114" s="18">
+      <c r="F134" s="18">
         <v>615594</v>
       </c>
-      <c r="G114" s="18">
+      <c r="G134" s="18">
         <v>15297576</v>
       </c>
-      <c r="H114" s="18">
+      <c r="H134" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>4.024127744160251E-2</v>
       </c>
-      <c r="I114" s="38">
+      <c r="I134" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.5247082957110647E-9</v>
       </c>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M114" s="18"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+      <c r="J134" s="18"/>
+      <c r="K134" s="18"/>
+      <c r="L134" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M134" s="18"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A135" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B135" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C115" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D115" s="18" t="s">
+      <c r="C135" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="18">
+      <c r="E135" s="18">
         <v>1979</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F135" s="18">
         <v>535182</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G135" s="18">
         <v>15297576</v>
       </c>
-      <c r="H115" s="18">
+      <c r="H135" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>3.4984758369561296E-2</v>
       </c>
-      <c r="I115" s="38">
+      <c r="I135" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.2069395210969835E-9</v>
       </c>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M115" s="18"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
+      <c r="J135" s="18"/>
+      <c r="K135" s="18"/>
+      <c r="L135" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M135" s="18"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A136" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B136" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C116" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D116" s="18" t="s">
+      <c r="C136" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D136" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E116" s="18">
+      <c r="E136" s="18">
         <v>1979</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F136" s="18">
         <v>440879</v>
       </c>
-      <c r="G116" s="18">
+      <c r="G136" s="18">
         <v>15297576</v>
       </c>
-      <c r="H116" s="18">
+      <c r="H136" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>2.8820186936806196E-2</v>
       </c>
-      <c r="I116" s="38">
+      <c r="I136" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.8296744374228794E-9</v>
       </c>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M116" s="18"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
+      <c r="J136" s="18"/>
+      <c r="K136" s="18"/>
+      <c r="L136" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M136" s="18"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A137" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B137" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C117" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D117" s="18" t="s">
+      <c r="C137" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D137" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E117" s="18">
+      <c r="E137" s="18">
         <v>1979</v>
       </c>
-      <c r="F117" s="18">
+      <c r="F137" s="18">
         <v>373930</v>
       </c>
-      <c r="G117" s="18">
+      <c r="G137" s="18">
         <v>15297576</v>
       </c>
-      <c r="H117" s="18">
+      <c r="H137" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>2.4443741936631007E-2</v>
       </c>
-      <c r="I117" s="38">
+      <c r="I137" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.5588250986147345E-9</v>
       </c>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M117" s="18"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="17" t="s">
+      <c r="J137" s="18"/>
+      <c r="K137" s="18"/>
+      <c r="L137" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M137" s="18"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A138" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B138" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C118" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D118" s="18" t="s">
+      <c r="C138" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D138" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E118" s="18">
+      <c r="E138" s="18">
         <v>1979</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F138" s="18">
         <v>275311</v>
       </c>
-      <c r="G118" s="18">
+      <c r="G138" s="18">
         <v>15297576</v>
       </c>
-      <c r="H118" s="18">
+      <c r="H138" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.7997034301382126E-2</v>
       </c>
-      <c r="I118" s="38">
+      <c r="I138" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.1552902929024183E-9</v>
       </c>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M118" s="18"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
+      <c r="J138" s="18"/>
+      <c r="K138" s="18"/>
+      <c r="L138" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M138" s="18"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A139" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B139" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C119" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D119" s="18" t="s">
+      <c r="C139" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E139" s="18">
         <v>1979</v>
       </c>
-      <c r="F119" s="18">
+      <c r="F139" s="18">
         <v>217228</v>
       </c>
-      <c r="G119" s="18">
+      <c r="G139" s="18">
         <v>15297576</v>
       </c>
-      <c r="H119" s="18">
+      <c r="H139" s="18">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.4200158247293558E-2</v>
       </c>
-      <c r="I119" s="38">
+      <c r="I139" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>9.1508051687701232E-10</v>
-      </c>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M119" s="18"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B120" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D120" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E120" s="18">
-        <v>1979</v>
-      </c>
-      <c r="F120" s="18">
-        <v>183127</v>
-      </c>
-      <c r="G120" s="18">
-        <v>15297576</v>
-      </c>
-      <c r="H120" s="18">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>1.1970981546357409E-2</v>
-      </c>
-      <c r="I120" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>7.7317328883832182E-10</v>
-      </c>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M120" s="18"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B121" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D121" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E121" s="18">
-        <v>1979</v>
-      </c>
-      <c r="F121" s="18">
-        <v>128908</v>
-      </c>
-      <c r="G121" s="18">
-        <v>15297576</v>
-      </c>
-      <c r="H121" s="18">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>8.4266945299046065E-3</v>
-      </c>
-      <c r="I121" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>5.4620976220051341E-10</v>
-      </c>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M121" s="18"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B122" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D122" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E122" s="18">
-        <v>1979</v>
-      </c>
-      <c r="F122" s="18">
-        <v>174363</v>
-      </c>
-      <c r="G122" s="18">
-        <v>15297576</v>
-      </c>
-      <c r="H122" s="18">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>1.1398080323313969E-2</v>
-      </c>
-      <c r="I122" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>7.3659801319223717E-10</v>
-      </c>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M122" s="18"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B123" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D123" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="E123" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F123" s="20">
-        <v>3800043</v>
-      </c>
-      <c r="G123" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H123" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>0.17889200816529208</v>
-      </c>
-      <c r="I123" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>6.915023283467334E-9</v>
-      </c>
-      <c r="J123" s="20"/>
-      <c r="K123" s="20"/>
-      <c r="L123" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M123" s="20"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B124" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D124" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E124" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F124" s="20">
-        <v>3468938</v>
-      </c>
-      <c r="G124" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H124" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>0.16330480603006123</v>
-      </c>
-      <c r="I124" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>6.432335209962011E-9</v>
-      </c>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M124" s="20"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B125" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C125" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D125" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E125" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F125" s="20">
-        <v>2989692</v>
-      </c>
-      <c r="G125" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H125" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>0.14074367202573981</v>
-      </c>
-      <c r="I125" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>5.693168596863739E-9</v>
-      </c>
-      <c r="J125" s="20"/>
-      <c r="K125" s="20"/>
-      <c r="L125" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M125" s="20"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B126" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D126" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E126" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F126" s="20">
-        <v>2378696</v>
-      </c>
-      <c r="G126" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H126" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>0.11198023397491755</v>
-      </c>
-      <c r="I126" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.6812995459979474E-9</v>
-      </c>
-      <c r="J126" s="20"/>
-      <c r="K126" s="20"/>
-      <c r="L126" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M126" s="20"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B127" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C127" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D127" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E127" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F127" s="20">
-        <v>1902934</v>
-      </c>
-      <c r="G127" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H127" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>8.9583113840030745E-2</v>
-      </c>
-      <c r="I127" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.8394488547771505E-9</v>
-      </c>
-      <c r="J127" s="20"/>
-      <c r="K127" s="20"/>
-      <c r="L127" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M127" s="20"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B128" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C128" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D128" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E128" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F128" s="20">
-        <v>1629761</v>
-      </c>
-      <c r="G128" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H128" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>7.6723136585421431E-2</v>
-      </c>
-      <c r="I128" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.3347304122254265E-9</v>
-      </c>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
-      <c r="L128" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M128" s="20"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B129" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C129" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D129" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E129" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F129" s="20">
-        <v>1159424</v>
-      </c>
-      <c r="G129" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H129" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>5.4581405440684648E-2</v>
-      </c>
-      <c r="I129" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.429244803731054E-9</v>
-      </c>
-      <c r="J129" s="20"/>
-      <c r="K129" s="20"/>
-      <c r="L129" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M129" s="20"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B130" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C130" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D130" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E130" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F130" s="20">
-        <v>918892</v>
-      </c>
-      <c r="G130" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H130" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>4.3258046071326446E-2</v>
-      </c>
-      <c r="I130" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.9483373033454144E-9</v>
-      </c>
-      <c r="J130" s="20"/>
-      <c r="K130" s="20"/>
-      <c r="L130" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M130" s="20"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C131" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D131" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E131" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F131" s="20">
-        <v>732178</v>
-      </c>
-      <c r="G131" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H131" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>3.4468239636879693E-2</v>
-      </c>
-      <c r="I131" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.5667081264548027E-9</v>
-      </c>
-      <c r="J131" s="20"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M131" s="20"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B132" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C132" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D132" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F132" s="20">
-        <v>574532</v>
-      </c>
-      <c r="G132" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H132" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>2.7046847426521647E-2</v>
-      </c>
-      <c r="I132" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.2388279895980232E-9</v>
-      </c>
-      <c r="J132" s="20"/>
-      <c r="K132" s="20"/>
-      <c r="L132" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M132" s="20"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B133" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C133" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D133" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E133" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F133" s="20">
-        <v>476523</v>
-      </c>
-      <c r="G133" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H133" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>2.243294520797514E-2</v>
-      </c>
-      <c r="I133" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.0323697743185692E-9</v>
-      </c>
-      <c r="J133" s="20"/>
-      <c r="K133" s="20"/>
-      <c r="L133" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M133" s="20"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B134" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C134" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D134" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E134" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F134" s="20">
-        <v>360172</v>
-      </c>
-      <c r="G134" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H134" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>1.6955569283008003E-2</v>
-      </c>
-      <c r="I134" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>7.8467163064232515E-10</v>
-      </c>
-      <c r="J134" s="20"/>
-      <c r="K134" s="20"/>
-      <c r="L134" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M134" s="20"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B135" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C135" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D135" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E135" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F135" s="20">
-        <v>318397</v>
-      </c>
-      <c r="G135" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H135" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>1.4988956368073863E-2</v>
-      </c>
-      <c r="I135" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>6.9504820073253754E-10</v>
-      </c>
-      <c r="J135" s="20"/>
-      <c r="K135" s="20"/>
-      <c r="L135" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M135" s="20"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B136" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C136" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D136" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E136" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F136" s="20">
-        <v>230670</v>
-      </c>
-      <c r="G136" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H136" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>1.085909278486794E-2</v>
-      </c>
-      <c r="I136" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>5.0565480130630977E-10</v>
-      </c>
-      <c r="J136" s="20"/>
-      <c r="K136" s="20"/>
-      <c r="L136" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M136" s="20"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B137" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C137" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D137" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E137" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F137" s="20">
-        <v>174178</v>
-      </c>
-      <c r="G137" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H137" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>8.199657792876092E-3</v>
-      </c>
-      <c r="I137" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.8284449785514764E-10</v>
-      </c>
-      <c r="J137" s="20"/>
-      <c r="K137" s="20"/>
-      <c r="L137" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M137" s="20"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B138" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C138" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D138" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E138" s="20">
-        <v>1989</v>
-      </c>
-      <c r="F138" s="20">
-        <v>127076</v>
-      </c>
-      <c r="G138" s="20">
-        <v>21242106</v>
-      </c>
-      <c r="H138" s="20">
-        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
-        <v>5.982269366323659E-3</v>
-      </c>
-      <c r="I138" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.7993843075410722E-10</v>
-      </c>
-      <c r="J138" s="20"/>
-      <c r="K138" s="20"/>
-      <c r="L138" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M138" s="20"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B139" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C139" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="E139" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F139" s="18">
-        <v>4534902</v>
-      </c>
-      <c r="G139" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H139" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>0.16036164223630081</v>
-      </c>
-      <c r="I139" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.7612978963661429E-9</v>
       </c>
       <c r="J139" s="18"/>
       <c r="K139" s="18"/>
@@ -6660,7 +6650,7 @@
       </c>
       <c r="M139" s="18"/>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A140" s="17" t="s">
         <v>26</v>
       </c>
@@ -6671,24 +6661,24 @@
         <v>59</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E140" s="18">
-        <v>1999</v>
+        <v>1979</v>
       </c>
       <c r="F140" s="18">
-        <v>3963136</v>
+        <v>183127</v>
       </c>
       <c r="G140" s="18">
-        <v>28279219</v>
+        <v>15297576</v>
       </c>
       <c r="H140" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>0.14014304991944793</v>
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>1.1970981546357409E-2</v>
       </c>
       <c r="I140" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.2611847052325967E-9</v>
+        <v>7.7317328883832182E-10</v>
       </c>
       <c r="J140" s="18"/>
       <c r="K140" s="18"/>
@@ -6697,7 +6687,7 @@
       </c>
       <c r="M140" s="18"/>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A141" s="17" t="s">
         <v>26</v>
       </c>
@@ -6708,24 +6698,24 @@
         <v>59</v>
       </c>
       <c r="D141" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E141" s="18">
-        <v>1999</v>
+        <v>1979</v>
       </c>
       <c r="F141" s="18">
-        <v>4038635</v>
+        <v>128908</v>
       </c>
       <c r="G141" s="18">
-        <v>28279219</v>
+        <v>15297576</v>
       </c>
       <c r="H141" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>0.14281281954781</v>
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>8.4266945299046065E-3</v>
       </c>
       <c r="I141" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.3288790302382347E-9</v>
+        <v>5.4620976220051341E-10</v>
       </c>
       <c r="J141" s="18"/>
       <c r="K141" s="18"/>
@@ -6734,7 +6724,7 @@
       </c>
       <c r="M141" s="18"/>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A142" s="17" t="s">
         <v>26</v>
       </c>
@@ -6745,24 +6735,24 @@
         <v>59</v>
       </c>
       <c r="D142" s="18" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E142" s="18">
-        <v>1999</v>
+        <v>1979</v>
       </c>
       <c r="F142" s="18">
-        <v>3403178</v>
+        <v>174363</v>
       </c>
       <c r="G142" s="18">
-        <v>28279219</v>
+        <v>15297576</v>
       </c>
       <c r="H142" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>0.12034200803070269</v>
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>1.1398080323313969E-2</v>
       </c>
       <c r="I142" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.7433781015607605E-9</v>
+        <v>7.3659801319223717E-10</v>
       </c>
       <c r="J142" s="18"/>
       <c r="K142" s="18"/>
@@ -6771,451 +6761,451 @@
       </c>
       <c r="M142" s="18"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="17" t="s">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A143" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C143" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D143" s="18" t="s">
+      <c r="C143" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E143" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F143" s="20">
+        <v>3800043</v>
+      </c>
+      <c r="G143" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H143" s="20">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>0.17889200816529208</v>
+      </c>
+      <c r="I143" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>6.915023283467334E-9</v>
+      </c>
+      <c r="J143" s="20"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M143" s="20"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A144" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C144" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D144" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E144" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F144" s="20">
+        <v>3468938</v>
+      </c>
+      <c r="G144" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H144" s="20">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>0.16330480603006123</v>
+      </c>
+      <c r="I144" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>6.432335209962011E-9</v>
+      </c>
+      <c r="J144" s="20"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M144" s="20"/>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A145" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B145" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C145" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D145" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E145" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F145" s="20">
+        <v>2989692</v>
+      </c>
+      <c r="G145" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H145" s="20">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>0.14074367202573981</v>
+      </c>
+      <c r="I145" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>5.693168596863739E-9</v>
+      </c>
+      <c r="J145" s="20"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M145" s="20"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A146" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D146" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E146" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F146" s="20">
+        <v>2378696</v>
+      </c>
+      <c r="G146" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H146" s="20">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>0.11198023397491755</v>
+      </c>
+      <c r="I146" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>4.6812995459979474E-9</v>
+      </c>
+      <c r="J146" s="20"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M146" s="20"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A147" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C147" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E143" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F143" s="18">
-        <v>2832918</v>
-      </c>
-      <c r="G143" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H143" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>0.10017667036702817</v>
-      </c>
-      <c r="I143" s="38">
+      <c r="E147" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F147" s="20">
+        <v>1902934</v>
+      </c>
+      <c r="G147" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H147" s="20">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>8.9583113840030745E-2</v>
+      </c>
+      <c r="I147" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.1875457763244433E-9</v>
-      </c>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M143" s="18"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="17" t="s">
+        <v>3.8394488547771505E-9</v>
+      </c>
+      <c r="J147" s="20"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M147" s="20"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A148" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B148" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C144" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D144" s="18" t="s">
+      <c r="C148" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E144" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F144" s="18">
-        <v>2259503</v>
-      </c>
-      <c r="G144" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H144" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>7.9899766680260872E-2</v>
-      </c>
-      <c r="I144" s="38">
+      <c r="E148" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F148" s="20">
+        <v>1629761</v>
+      </c>
+      <c r="G148" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H148" s="20">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>7.6723136585421431E-2</v>
+      </c>
+      <c r="I148" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.5996401797624167E-9</v>
-      </c>
-      <c r="J144" s="18"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M144" s="18"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="17" t="s">
+        <v>3.3347304122254265E-9</v>
+      </c>
+      <c r="J148" s="20"/>
+      <c r="K148" s="20"/>
+      <c r="L148" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M148" s="20"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A149" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B149" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C145" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D145" s="18" t="s">
+      <c r="C149" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D149" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E145" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F145" s="18">
-        <v>1685922</v>
-      </c>
-      <c r="G145" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H145" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>5.9616992958681073E-2</v>
-      </c>
-      <c r="I145" s="38">
+      <c r="E149" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F149" s="20">
+        <v>1159424</v>
+      </c>
+      <c r="G149" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H149" s="20">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>5.4581405440684648E-2</v>
+      </c>
+      <c r="I149" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.9824736711875122E-9</v>
-      </c>
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M145" s="18"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
+        <v>2.429244803731054E-9</v>
+      </c>
+      <c r="J149" s="20"/>
+      <c r="K149" s="20"/>
+      <c r="L149" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M149" s="20"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A150" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B150" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C146" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D146" s="18" t="s">
+      <c r="C150" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D150" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E146" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F146" s="18">
-        <v>1419012</v>
-      </c>
-      <c r="G146" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H146" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>5.0178613489997727E-2</v>
-      </c>
-      <c r="I146" s="38">
+      <c r="E150" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F150" s="20">
+        <v>918892</v>
+      </c>
+      <c r="G150" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H150" s="20">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>4.3258046071326446E-2</v>
+      </c>
+      <c r="I150" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.685361969799065E-9</v>
-      </c>
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M146" s="18"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="17" t="s">
+        <v>1.9483373033454144E-9</v>
+      </c>
+      <c r="J150" s="20"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M150" s="20"/>
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A151" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B151" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C147" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D147" s="18" t="s">
+      <c r="C151" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D151" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E147" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F147" s="18">
-        <v>1033491</v>
-      </c>
-      <c r="G147" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H147" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>3.6545952701169011E-2</v>
-      </c>
-      <c r="I147" s="38">
+      <c r="E151" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F151" s="20">
+        <v>732178</v>
+      </c>
+      <c r="G151" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H151" s="20">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>3.4468239636879693E-2</v>
+      </c>
+      <c r="I151" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.2450961266763743E-9</v>
-      </c>
-      <c r="J147" s="18"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M147" s="18"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="17" t="s">
+        <v>1.5667081264548027E-9</v>
+      </c>
+      <c r="J151" s="20"/>
+      <c r="K151" s="20"/>
+      <c r="L151" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M151" s="20"/>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A152" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B152" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C148" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D148" s="18" t="s">
+      <c r="C152" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D152" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E148" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F148" s="18">
-        <v>838328</v>
-      </c>
-      <c r="G148" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H148" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>2.9644665929423299E-2</v>
-      </c>
-      <c r="I148" s="38">
+      <c r="E152" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F152" s="20">
+        <v>574532</v>
+      </c>
+      <c r="G152" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H152" s="20">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>2.7046847426521647E-2</v>
+      </c>
+      <c r="I152" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.0172084211857546E-9</v>
-      </c>
-      <c r="J148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M148" s="18"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="17" t="s">
+        <v>1.2388279895980232E-9</v>
+      </c>
+      <c r="J152" s="20"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M152" s="20"/>
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A153" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B153" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C149" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D149" s="18" t="s">
+      <c r="C153" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E149" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F149" s="18">
-        <v>684806</v>
-      </c>
-      <c r="G149" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H149" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>2.4215873854224898E-2</v>
-      </c>
-      <c r="I149" s="38">
+      <c r="E153" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F153" s="20">
+        <v>476523</v>
+      </c>
+      <c r="G153" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H153" s="20">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>2.243294520797514E-2</v>
+      </c>
+      <c r="I153" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>8.3557701178738938E-10</v>
-      </c>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M149" s="18"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="17" t="s">
+        <v>1.0323697743185692E-9</v>
+      </c>
+      <c r="J153" s="20"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M153" s="20"/>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A154" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B154" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C150" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D150" s="18" t="s">
+      <c r="C154" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D154" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E150" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F150" s="18">
-        <v>459916</v>
-      </c>
-      <c r="G150" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H150" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>1.6263391149522199E-2</v>
-      </c>
-      <c r="I150" s="38">
+      <c r="E154" s="20">
+        <v>1989</v>
+      </c>
+      <c r="F154" s="20">
+        <v>360172</v>
+      </c>
+      <c r="G154" s="20">
+        <v>21242106</v>
+      </c>
+      <c r="H154" s="20">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>1.6955569283008003E-2</v>
+      </c>
+      <c r="I154" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>5.6574735171575428E-10</v>
-      </c>
-      <c r="J150" s="18"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M150" s="18"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B151" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C151" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D151" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E151" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F151" s="18">
-        <v>409228</v>
-      </c>
-      <c r="G151" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H151" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>1.4470979555694236E-2</v>
-      </c>
-      <c r="I151" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>5.04312736019793E-10</v>
-      </c>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M151" s="18"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B152" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C152" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D152" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E152" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F152" s="18">
-        <v>301333</v>
-      </c>
-      <c r="G152" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H152" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>1.0655633735853879E-2</v>
-      </c>
-      <c r="I152" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.7278579742747534E-10</v>
-      </c>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M152" s="18"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B153" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C153" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D153" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E153" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F153" s="18">
-        <v>254125</v>
-      </c>
-      <c r="G153" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H153" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>8.9862807031552035E-3</v>
-      </c>
-      <c r="I153" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.1491419413949525E-10</v>
-      </c>
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M153" s="18"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C154" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D154" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E154" s="18">
-        <v>1999</v>
-      </c>
-      <c r="F154" s="18">
-        <v>160786</v>
-      </c>
-      <c r="G154" s="18">
-        <v>28279219</v>
-      </c>
-      <c r="H154" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>5.6856591407280378E-3</v>
-      </c>
-      <c r="I154" s="38">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.9991119347615269E-10</v>
-      </c>
-      <c r="J154" s="18"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M154" s="18"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.8467163064232515E-10</v>
+      </c>
+      <c r="J154" s="20"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M154" s="20"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A155" s="19" t="s">
         <v>26</v>
       </c>
@@ -7226,24 +7216,24 @@
         <v>59</v>
       </c>
       <c r="D155" s="20" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E155" s="20">
-        <v>2009</v>
+        <v>1989</v>
       </c>
       <c r="F155" s="20">
-        <v>5939306</v>
+        <v>318397</v>
       </c>
       <c r="G155" s="20">
-        <v>38205310</v>
+        <v>21242106</v>
       </c>
       <c r="H155" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>0.15545760523864352</v>
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>1.4988956368073863E-2</v>
       </c>
       <c r="I155" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.4364473999061804E-9</v>
+        <v>6.9504820073253754E-10</v>
       </c>
       <c r="J155" s="20"/>
       <c r="K155" s="20"/>
@@ -7252,7 +7242,7 @@
       </c>
       <c r="M155" s="20"/>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A156" s="19" t="s">
         <v>26</v>
       </c>
@@ -7263,24 +7253,24 @@
         <v>59</v>
       </c>
       <c r="D156" s="20" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E156" s="20">
-        <v>2009</v>
+        <v>1989</v>
       </c>
       <c r="F156" s="20">
-        <v>5597716</v>
+        <v>230670</v>
       </c>
       <c r="G156" s="20">
-        <v>38205310</v>
+        <v>21242106</v>
       </c>
       <c r="H156" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>0.14651670147421916</v>
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>1.085909278486794E-2</v>
       </c>
       <c r="I156" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>3.2730936527758496E-9</v>
+        <v>5.0565480130630977E-10</v>
       </c>
       <c r="J156" s="20"/>
       <c r="K156" s="20"/>
@@ -7289,7 +7279,7 @@
       </c>
       <c r="M156" s="20"/>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A157" s="19" t="s">
         <v>26</v>
       </c>
@@ -7300,24 +7290,24 @@
         <v>59</v>
       </c>
       <c r="D157" s="20" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E157" s="20">
-        <v>2009</v>
+        <v>1989</v>
       </c>
       <c r="F157" s="20">
-        <v>5034855</v>
+        <v>174178</v>
       </c>
       <c r="G157" s="20">
-        <v>38205310</v>
+        <v>21242106</v>
       </c>
       <c r="H157" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>0.13178416822164249</v>
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>8.199657792876092E-3</v>
       </c>
       <c r="I157" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.9947957817322335E-9</v>
+        <v>3.8284449785514764E-10</v>
       </c>
       <c r="J157" s="20"/>
       <c r="K157" s="20"/>
@@ -7326,7 +7316,7 @@
       </c>
       <c r="M157" s="20"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A158" s="19" t="s">
         <v>26</v>
       </c>
@@ -7337,24 +7327,24 @@
         <v>59</v>
       </c>
       <c r="D158" s="20" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="E158" s="20">
-        <v>2009</v>
+        <v>1989</v>
       </c>
       <c r="F158" s="20">
-        <v>4169543</v>
+        <v>127076</v>
       </c>
       <c r="G158" s="20">
-        <v>38205310</v>
+        <v>21242106</v>
       </c>
       <c r="H158" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>0.10913516995412417</v>
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
+        <v>5.982269366323659E-3</v>
       </c>
       <c r="I158" s="39">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.5447950725490409E-9</v>
+        <v>2.7993843075410722E-10</v>
       </c>
       <c r="J158" s="20"/>
       <c r="K158" s="20"/>
@@ -7363,453 +7353,453 @@
       </c>
       <c r="M158" s="20"/>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="19" t="s">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A159" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C159" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D159" s="20" t="s">
+      <c r="C159" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D159" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E159" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F159" s="18">
+        <v>4534902</v>
+      </c>
+      <c r="G159" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H159" s="18">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.16036164223630081</v>
+      </c>
+      <c r="I159" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>4.7612978963661429E-9</v>
+      </c>
+      <c r="J159" s="18"/>
+      <c r="K159" s="18"/>
+      <c r="L159" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M159" s="18"/>
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A160" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B160" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C160" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D160" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="E160" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F160" s="18">
+        <v>3963136</v>
+      </c>
+      <c r="G160" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H160" s="18">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.14014304991944793</v>
+      </c>
+      <c r="I160" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>4.2611847052325967E-9</v>
+      </c>
+      <c r="J160" s="18"/>
+      <c r="K160" s="18"/>
+      <c r="L160" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M160" s="18"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A161" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D161" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E161" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F161" s="18">
+        <v>4038635</v>
+      </c>
+      <c r="G161" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H161" s="18">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.14281281954781</v>
+      </c>
+      <c r="I161" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>4.3288790302382347E-9</v>
+      </c>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M161" s="18"/>
+    </row>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A162" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B162" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C162" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E162" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F162" s="18">
+        <v>3403178</v>
+      </c>
+      <c r="G162" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H162" s="18">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.12034200803070269</v>
+      </c>
+      <c r="I162" s="38">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.7433781015607605E-9</v>
+      </c>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M162" s="18"/>
+    </row>
+    <row r="163" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A163" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B163" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C163" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D163" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E159" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F159" s="20">
-        <v>3775103</v>
-      </c>
-      <c r="G159" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H159" s="20">
+      <c r="E163" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F163" s="18">
+        <v>2832918</v>
+      </c>
+      <c r="G163" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H163" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>9.8810950624402732E-2</v>
-      </c>
-      <c r="I159" s="39">
+        <v>0.10017667036702817</v>
+      </c>
+      <c r="I163" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.3307583857088082E-9</v>
-      </c>
-      <c r="J159" s="20"/>
-      <c r="K159" s="20"/>
-      <c r="L159" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M159" s="20"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="19" t="s">
+        <v>3.1875457763244433E-9</v>
+      </c>
+      <c r="J163" s="18"/>
+      <c r="K163" s="18"/>
+      <c r="L163" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M163" s="18"/>
+    </row>
+    <row r="164" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A164" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B160" s="20" t="s">
+      <c r="B164" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C160" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D160" s="20" t="s">
+      <c r="C164" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D164" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E160" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F160" s="20">
-        <v>3201226</v>
-      </c>
-      <c r="G160" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H160" s="20">
+      <c r="E164" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F164" s="18">
+        <v>2259503</v>
+      </c>
+      <c r="G164" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H164" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>8.3790080488811633E-2</v>
-      </c>
-      <c r="I160" s="39">
+        <v>7.9899766680260872E-2</v>
+      </c>
+      <c r="I164" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.0093882997020596E-9</v>
-      </c>
-      <c r="J160" s="20"/>
-      <c r="K160" s="20"/>
-      <c r="L160" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M160" s="20"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="19" t="s">
+        <v>2.5996401797624167E-9</v>
+      </c>
+      <c r="J164" s="18"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M164" s="18"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A165" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B161" s="20" t="s">
+      <c r="B165" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C161" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D161" s="20" t="s">
+      <c r="C165" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D165" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E161" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F161" s="20">
-        <v>2519506</v>
-      </c>
-      <c r="G161" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H161" s="20">
+      <c r="E165" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F165" s="18">
+        <v>1685922</v>
+      </c>
+      <c r="G165" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H165" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>6.59464875432237E-2</v>
-      </c>
-      <c r="I161" s="39">
+        <v>5.9616992958681073E-2</v>
+      </c>
+      <c r="I165" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.6122771500593803E-9</v>
-      </c>
-      <c r="J161" s="20"/>
-      <c r="K161" s="20"/>
-      <c r="L161" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M161" s="20"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="19" t="s">
+        <v>1.9824736711875122E-9</v>
+      </c>
+      <c r="J165" s="18"/>
+      <c r="K165" s="18"/>
+      <c r="L165" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M165" s="18"/>
+    </row>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A166" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B162" s="20" t="s">
+      <c r="B166" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C162" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D162" s="20" t="s">
+      <c r="C166" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D166" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E162" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F162" s="20">
-        <v>2008632</v>
-      </c>
-      <c r="G162" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H162" s="20">
+      <c r="E166" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F166" s="18">
+        <v>1419012</v>
+      </c>
+      <c r="G166" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H166" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>5.257468137282488E-2</v>
-      </c>
-      <c r="I162" s="39">
+        <v>5.0178613489997727E-2</v>
+      </c>
+      <c r="I166" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.3037607665366628E-9</v>
-      </c>
-      <c r="J162" s="20"/>
-      <c r="K162" s="20"/>
-      <c r="L162" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M162" s="20"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="19" t="s">
+        <v>1.685361969799065E-9</v>
+      </c>
+      <c r="J166" s="18"/>
+      <c r="K166" s="18"/>
+      <c r="L166" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M166" s="18"/>
+    </row>
+    <row r="167" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A167" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B163" s="20" t="s">
+      <c r="B167" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C163" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D163" s="20" t="s">
+      <c r="C167" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D167" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E163" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F163" s="20">
-        <v>1476169</v>
-      </c>
-      <c r="G163" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H163" s="20">
+      <c r="E167" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F167" s="18">
+        <v>1033491</v>
+      </c>
+      <c r="G167" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H167" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>3.8637796683235914E-2</v>
-      </c>
-      <c r="I163" s="39">
+        <v>3.6545952701169011E-2</v>
+      </c>
+      <c r="I167" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>9.7224488822890954E-10</v>
-      </c>
-      <c r="J163" s="20"/>
-      <c r="K163" s="20"/>
-      <c r="L163" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M163" s="20"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="19" t="s">
+        <v>1.2450961266763743E-9</v>
+      </c>
+      <c r="J167" s="18"/>
+      <c r="K167" s="18"/>
+      <c r="L167" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M167" s="18"/>
+    </row>
+    <row r="168" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A168" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B164" s="20" t="s">
+      <c r="B168" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C164" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D164" s="20" t="s">
+      <c r="C168" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D168" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="E164" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F164" s="20">
-        <v>1272745</v>
-      </c>
-      <c r="G164" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H164" s="20">
+      <c r="E168" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F168" s="18">
+        <v>838328</v>
+      </c>
+      <c r="G168" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H168" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>3.3313301213888855E-2</v>
-      </c>
-      <c r="I164" s="39">
+        <v>2.9644665929423299E-2</v>
+      </c>
+      <c r="I168" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>8.429070507770141E-10</v>
-      </c>
-      <c r="J164" s="20"/>
-      <c r="K164" s="20"/>
-      <c r="L164" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M164" s="20"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="19" t="s">
+        <v>1.0172084211857546E-9</v>
+      </c>
+      <c r="J168" s="18"/>
+      <c r="K168" s="18"/>
+      <c r="L168" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M168" s="18"/>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A169" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B165" s="20" t="s">
+      <c r="B169" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C165" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D165" s="20" t="s">
+      <c r="C169" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D169" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="E165" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F165" s="20">
-        <v>956206</v>
-      </c>
-      <c r="G165" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H165" s="20">
+      <c r="E169" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F169" s="18">
+        <v>684806</v>
+      </c>
+      <c r="G169" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H169" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>2.5028091644852507E-2</v>
-      </c>
-      <c r="I165" s="39">
+        <v>2.4215873854224898E-2</v>
+      </c>
+      <c r="I169" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>6.3869881630248177E-10</v>
-      </c>
-      <c r="J165" s="20"/>
-      <c r="K165" s="20"/>
-      <c r="L165" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M165" s="20"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="19" t="s">
+        <v>8.3557701178738938E-10</v>
+      </c>
+      <c r="J169" s="18"/>
+      <c r="K169" s="18"/>
+      <c r="L169" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M169" s="18"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A170" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B166" s="20" t="s">
+      <c r="B170" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C166" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D166" s="20" t="s">
+      <c r="C170" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D170" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E166" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F166" s="20">
-        <v>711953</v>
-      </c>
-      <c r="G166" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H166" s="20">
+      <c r="E170" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F170" s="18">
+        <v>459916</v>
+      </c>
+      <c r="G170" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="H170" s="18">
         <f>Table1[n]/Table1[Total N]</f>
-        <v>1.8634922737179729E-2</v>
-      </c>
-      <c r="I166" s="39">
+        <v>1.6263391149522199E-2</v>
+      </c>
+      <c r="I170" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.7866808021605036E-10</v>
-      </c>
-      <c r="J166" s="20"/>
-      <c r="K166" s="20"/>
-      <c r="L166" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M166" s="20"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="19" t="s">
+        <v>5.6574735171575428E-10</v>
+      </c>
+      <c r="J170" s="18"/>
+      <c r="K170" s="18"/>
+      <c r="L170" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M170" s="18"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A171" s="17" t="s">
         <v>26</v>
-      </c>
-      <c r="B167" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C167" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D167" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E167" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F167" s="20">
-        <v>593778</v>
-      </c>
-      <c r="G167" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H167" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>1.5541766314682435E-2</v>
-      </c>
-      <c r="I167" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>4.0047364658216983E-10</v>
-      </c>
-      <c r="J167" s="20"/>
-      <c r="K167" s="20"/>
-      <c r="L167" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M167" s="20"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B168" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D168" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E168" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F168" s="20">
-        <v>390763</v>
-      </c>
-      <c r="G168" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H168" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>1.022797616352282E-2</v>
-      </c>
-      <c r="I168" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.6497271366522689E-10</v>
-      </c>
-      <c r="J168" s="20"/>
-      <c r="K168" s="20"/>
-      <c r="L168" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M168" s="20"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B169" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D169" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E169" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F169" s="20">
-        <v>339301</v>
-      </c>
-      <c r="G169" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H169" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>8.8809906266956087E-3</v>
-      </c>
-      <c r="I169" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>2.3038992831583237E-10</v>
-      </c>
-      <c r="J169" s="20"/>
-      <c r="K169" s="20"/>
-      <c r="L169" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M169" s="20"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B170" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C170" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D170" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="E170" s="20">
-        <v>2009</v>
-      </c>
-      <c r="F170" s="20">
-        <v>218508</v>
-      </c>
-      <c r="G170" s="20">
-        <v>38205310</v>
-      </c>
-      <c r="H170" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
-        <v>5.719309698049826E-3</v>
-      </c>
-      <c r="I170" s="39">
-        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
-        <v>1.4884316328352313E-10</v>
-      </c>
-      <c r="J170" s="20"/>
-      <c r="K170" s="20"/>
-      <c r="L170" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M170" s="20"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="18" t="s">
-        <v>84</v>
       </c>
       <c r="B171" s="18" t="s">
         <v>52</v>
@@ -7818,19 +7808,24 @@
         <v>59</v>
       </c>
       <c r="D171" s="18" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="E171" s="18">
-        <v>1979</v>
-      </c>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
+        <v>1999</v>
+      </c>
+      <c r="F171" s="18">
+        <v>409228</v>
+      </c>
+      <c r="G171" s="18">
+        <v>28279219</v>
+      </c>
       <c r="H171" s="18">
-        <v>15297576</v>
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>1.4470979555694236E-2</v>
       </c>
       <c r="I171" s="38">
-        <f>SUM(I107:I122)</f>
-        <v>5.8000354704160582E-8</v>
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>5.04312736019793E-10</v>
       </c>
       <c r="J171" s="18"/>
       <c r="K171" s="18"/>
@@ -7839,9 +7834,9 @@
       </c>
       <c r="M171" s="18"/>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="18" t="s">
-        <v>84</v>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A172" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="B172" s="18" t="s">
         <v>52</v>
@@ -7850,19 +7845,24 @@
         <v>59</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E172" s="18">
-        <v>1989</v>
-      </c>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
+        <v>1999</v>
+      </c>
+      <c r="F172" s="18">
+        <v>301333</v>
+      </c>
+      <c r="G172" s="18">
+        <v>28279219</v>
+      </c>
       <c r="H172" s="18">
-        <v>21242106</v>
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>1.0655633735853879E-2</v>
       </c>
       <c r="I172" s="38">
-        <f>SUM(I123:I138)</f>
-        <v>4.1759651462031905E-8</v>
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.7278579742747534E-10</v>
       </c>
       <c r="J172" s="18"/>
       <c r="K172" s="18"/>
@@ -7871,9 +7871,9 @@
       </c>
       <c r="M172" s="18"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="18" t="s">
-        <v>84</v>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A173" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="B173" s="18" t="s">
         <v>52</v>
@@ -7882,19 +7882,24 @@
         <v>59</v>
       </c>
       <c r="D173" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E173" s="18">
         <v>1999</v>
       </c>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
+      <c r="F173" s="18">
+        <v>254125</v>
+      </c>
+      <c r="G173" s="18">
+        <v>28279219</v>
+      </c>
       <c r="H173" s="18">
-        <v>28279219</v>
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>8.9862807031552035E-3</v>
       </c>
       <c r="I173" s="38">
-        <f>SUM(I139:I154)</f>
-        <v>3.1605314162899356E-8</v>
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.1491419413949525E-10</v>
       </c>
       <c r="J173" s="18"/>
       <c r="K173" s="18"/>
@@ -7903,9 +7908,9 @@
       </c>
       <c r="M173" s="18"/>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="18" t="s">
-        <v>84</v>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A174" s="17" t="s">
+        <v>26</v>
       </c>
       <c r="B174" s="18" t="s">
         <v>52</v>
@@ -7914,19 +7919,24 @@
         <v>59</v>
       </c>
       <c r="D174" s="18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E174" s="18">
-        <v>2009</v>
-      </c>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
+        <v>1999</v>
+      </c>
+      <c r="F174" s="18">
+        <v>160786</v>
+      </c>
+      <c r="G174" s="18">
+        <v>28279219</v>
+      </c>
       <c r="H174" s="18">
-        <v>38205310</v>
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>5.6856591407280378E-3</v>
       </c>
       <c r="I174" s="38">
-        <f>SUM(I155:I170)</f>
-        <v>2.3482514796341427E-8</v>
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>1.9991119347615269E-10</v>
       </c>
       <c r="J174" s="18"/>
       <c r="K174" s="18"/>
@@ -7935,587 +7945,727 @@
       </c>
       <c r="M174" s="18"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B175" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C175" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D175" s="42" t="s">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A175" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B175" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C175" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D175" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E175" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F175" s="20">
+        <v>5939306</v>
+      </c>
+      <c r="G175" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H175" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.15545760523864352</v>
+      </c>
+      <c r="I175" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.4364473999061804E-9</v>
+      </c>
+      <c r="J175" s="20"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M175" s="20"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A176" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B176" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C176" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D176" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E176" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F176" s="20">
+        <v>5597716</v>
+      </c>
+      <c r="G176" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H176" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.14651670147421916</v>
+      </c>
+      <c r="I176" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>3.2730936527758496E-9</v>
+      </c>
+      <c r="J176" s="20"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M176" s="20"/>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A177" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B177" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C177" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D177" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E177" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F177" s="20">
+        <v>5034855</v>
+      </c>
+      <c r="G177" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H177" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.13178416822164249</v>
+      </c>
+      <c r="I177" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>2.9947957817322335E-9</v>
+      </c>
+      <c r="J177" s="20"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M177" s="20"/>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A178" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B178" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D178" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E175" s="42">
-        <v>2012</v>
-      </c>
-      <c r="F175" s="42"/>
-      <c r="G175" s="42"/>
-      <c r="H175" s="42">
-        <v>0.9</v>
-      </c>
-      <c r="I175" s="42"/>
-      <c r="J175" s="42"/>
-      <c r="K175" s="42"/>
-      <c r="L175" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M175" s="42"/>
-    </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B176" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C176" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D176" s="42" t="s">
+      <c r="E178" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F178" s="20">
+        <v>4169543</v>
+      </c>
+      <c r="G178" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H178" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>0.10913516995412417</v>
+      </c>
+      <c r="I178" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>2.5447950725490409E-9</v>
+      </c>
+      <c r="J178" s="20"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M178" s="20"/>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A179" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B179" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C179" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D179" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E176" s="42">
-        <v>2012</v>
-      </c>
-      <c r="F176" s="42"/>
-      <c r="G176" s="42"/>
-      <c r="H176" s="42">
-        <v>1.3</v>
-      </c>
-      <c r="I176" s="42"/>
-      <c r="J176" s="42"/>
-      <c r="K176" s="42"/>
-      <c r="L176" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M176" s="42"/>
-    </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B177" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C177" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D177" s="42" t="s">
+      <c r="E179" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F179" s="20">
+        <v>3775103</v>
+      </c>
+      <c r="G179" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H179" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>9.8810950624402732E-2</v>
+      </c>
+      <c r="I179" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>2.3307583857088082E-9</v>
+      </c>
+      <c r="J179" s="20"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M179" s="20"/>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A180" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B180" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C180" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D180" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E177" s="42">
-        <v>2012</v>
-      </c>
-      <c r="F177" s="42"/>
-      <c r="G177" s="42"/>
-      <c r="H177" s="42">
-        <v>4.3</v>
-      </c>
-      <c r="I177" s="42"/>
-      <c r="J177" s="42"/>
-      <c r="K177" s="42"/>
-      <c r="L177" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M177" s="42"/>
-    </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B178" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C178" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D178" s="42" t="s">
+      <c r="E180" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F180" s="20">
+        <v>3201226</v>
+      </c>
+      <c r="G180" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H180" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>8.3790080488811633E-2</v>
+      </c>
+      <c r="I180" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>2.0093882997020596E-9</v>
+      </c>
+      <c r="J180" s="20"/>
+      <c r="K180" s="20"/>
+      <c r="L180" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M180" s="20"/>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A181" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B181" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C181" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D181" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E178" s="42">
-        <v>2012</v>
-      </c>
-      <c r="F178" s="42"/>
-      <c r="G178" s="42"/>
-      <c r="H178" s="42">
-        <v>6.6</v>
-      </c>
-      <c r="I178" s="42"/>
-      <c r="J178" s="42"/>
-      <c r="K178" s="42"/>
-      <c r="L178" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M178" s="42"/>
-    </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B179" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C179" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D179" s="42" t="s">
+      <c r="E181" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F181" s="20">
+        <v>2519506</v>
+      </c>
+      <c r="G181" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H181" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>6.59464875432237E-2</v>
+      </c>
+      <c r="I181" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>1.6122771500593803E-9</v>
+      </c>
+      <c r="J181" s="20"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M181" s="20"/>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A182" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B182" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C182" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D182" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E179" s="42">
-        <v>2012</v>
-      </c>
-      <c r="F179" s="42"/>
-      <c r="G179" s="42"/>
-      <c r="H179" s="42">
-        <v>5</v>
-      </c>
-      <c r="I179" s="42"/>
-      <c r="J179" s="42"/>
-      <c r="K179" s="42"/>
-      <c r="L179" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M179" s="42"/>
-    </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B180" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C180" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D180" s="42" t="s">
+      <c r="E182" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F182" s="20">
+        <v>2008632</v>
+      </c>
+      <c r="G182" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H182" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>5.257468137282488E-2</v>
+      </c>
+      <c r="I182" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>1.3037607665366628E-9</v>
+      </c>
+      <c r="J182" s="20"/>
+      <c r="K182" s="20"/>
+      <c r="L182" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M182" s="20"/>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A183" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B183" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C183" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D183" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E180" s="42">
-        <v>2012</v>
-      </c>
-      <c r="F180" s="42"/>
-      <c r="G180" s="42"/>
-      <c r="H180" s="42">
-        <v>8.1</v>
-      </c>
-      <c r="I180" s="42"/>
-      <c r="J180" s="42"/>
-      <c r="K180" s="42"/>
-      <c r="L180" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M180" s="42"/>
-    </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B181" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C181" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D181" s="42" t="s">
+      <c r="E183" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F183" s="20">
+        <v>1476169</v>
+      </c>
+      <c r="G183" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H183" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>3.8637796683235914E-2</v>
+      </c>
+      <c r="I183" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>9.7224488822890954E-10</v>
+      </c>
+      <c r="J183" s="20"/>
+      <c r="K183" s="20"/>
+      <c r="L183" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M183" s="20"/>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A184" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B184" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C184" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D184" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="E181" s="42">
-        <v>2012</v>
-      </c>
-      <c r="F181" s="42"/>
-      <c r="G181" s="42"/>
-      <c r="H181" s="42">
-        <v>8.9</v>
-      </c>
-      <c r="I181" s="42"/>
-      <c r="J181" s="42"/>
-      <c r="K181" s="42"/>
-      <c r="L181" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M181" s="42"/>
-    </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B182" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C182" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D182" s="42" t="s">
+      <c r="E184" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F184" s="20">
+        <v>1272745</v>
+      </c>
+      <c r="G184" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H184" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>3.3313301213888855E-2</v>
+      </c>
+      <c r="I184" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>8.429070507770141E-10</v>
+      </c>
+      <c r="J184" s="20"/>
+      <c r="K184" s="20"/>
+      <c r="L184" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M184" s="20"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A185" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B185" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D185" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E182" s="42">
-        <v>2012</v>
-      </c>
-      <c r="F182" s="42"/>
-      <c r="G182" s="42"/>
-      <c r="H182" s="42">
-        <v>7</v>
-      </c>
-      <c r="I182" s="42"/>
-      <c r="J182" s="42"/>
-      <c r="K182" s="42"/>
-      <c r="L182" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M182" s="42"/>
-    </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B183" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C183" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D183" s="42" t="s">
+      <c r="E185" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F185" s="20">
+        <v>956206</v>
+      </c>
+      <c r="G185" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H185" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>2.5028091644852507E-2</v>
+      </c>
+      <c r="I185" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>6.3869881630248177E-10</v>
+      </c>
+      <c r="J185" s="20"/>
+      <c r="K185" s="20"/>
+      <c r="L185" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M185" s="20"/>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A186" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C186" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D186" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E183" s="42">
-        <v>2012</v>
-      </c>
-      <c r="F183" s="42"/>
-      <c r="G183" s="42"/>
-      <c r="H183" s="42">
-        <v>4</v>
-      </c>
-      <c r="I183" s="42"/>
-      <c r="J183" s="42"/>
-      <c r="K183" s="42"/>
-      <c r="L183" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M183" s="42"/>
-    </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B184" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C184" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="D184" s="42" t="s">
+      <c r="E186" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F186" s="20">
+        <v>711953</v>
+      </c>
+      <c r="G186" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H186" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>1.8634922737179729E-2</v>
+      </c>
+      <c r="I186" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>4.7866808021605036E-10</v>
+      </c>
+      <c r="J186" s="20"/>
+      <c r="K186" s="20"/>
+      <c r="L186" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M186" s="20"/>
+    </row>
+    <row r="187" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A187" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B187" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C187" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D187" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E184" s="42">
-        <v>2012</v>
-      </c>
-      <c r="F184" s="42"/>
-      <c r="G184" s="42"/>
-      <c r="H184" s="42">
-        <v>5</v>
-      </c>
-      <c r="I184" s="42"/>
-      <c r="J184" s="42"/>
-      <c r="K184" s="42"/>
-      <c r="L184" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="M184" s="42"/>
-    </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E185" s="3">
-        <v>2012</v>
-      </c>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I185" s="3"/>
-      <c r="J185" s="3"/>
-      <c r="K185" s="3"/>
-      <c r="L185" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M185" s="3"/>
-    </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E186" s="3">
-        <v>2012</v>
-      </c>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="I186" s="3"/>
-      <c r="J186" s="3"/>
-      <c r="K186" s="3"/>
-      <c r="L186" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M186" s="3"/>
-    </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B187" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E187" s="3">
-        <v>2012</v>
-      </c>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3">
-        <v>7.9</v>
-      </c>
-      <c r="I187" s="3"/>
-      <c r="J187" s="3"/>
-      <c r="K187" s="3"/>
-      <c r="L187" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M187" s="3"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B188" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E188" s="3">
-        <v>2012</v>
-      </c>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3">
-        <v>6.6</v>
-      </c>
-      <c r="I188" s="3"/>
-      <c r="J188" s="3"/>
-      <c r="K188" s="3"/>
-      <c r="L188" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M188" s="3"/>
-    </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B189" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E189" s="3">
-        <v>2012</v>
-      </c>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3">
-        <v>12.3</v>
-      </c>
-      <c r="I189" s="3"/>
-      <c r="J189" s="3"/>
-      <c r="K189" s="3"/>
-      <c r="L189" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M189" s="3"/>
-    </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E190" s="3">
-        <v>2012</v>
-      </c>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3">
-        <v>10.6</v>
-      </c>
-      <c r="I190" s="3"/>
-      <c r="J190" s="3"/>
-      <c r="K190" s="3"/>
-      <c r="L190" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M190" s="3"/>
-    </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B191" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E191" s="3">
-        <v>2012</v>
-      </c>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3">
-        <v>10.7</v>
-      </c>
-      <c r="I191" s="3"/>
-      <c r="J191" s="3"/>
-      <c r="K191" s="3"/>
-      <c r="L191" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M191" s="3"/>
-    </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B192" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E192" s="3">
-        <v>2012</v>
-      </c>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3">
-        <v>10</v>
-      </c>
-      <c r="I192" s="3"/>
-      <c r="J192" s="3"/>
-      <c r="K192" s="3"/>
-      <c r="L192" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M192" s="3"/>
-    </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E193" s="3">
-        <v>2012</v>
-      </c>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3">
-        <v>5</v>
-      </c>
-      <c r="I193" s="3"/>
-      <c r="J193" s="3"/>
-      <c r="K193" s="3"/>
-      <c r="L193" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M193" s="3"/>
-    </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E194" s="3">
-        <v>2012</v>
-      </c>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3">
-        <v>3</v>
-      </c>
-      <c r="I194" s="3"/>
-      <c r="J194" s="3"/>
-      <c r="K194" s="3"/>
-      <c r="L194" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M194" s="3"/>
-    </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E187" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F187" s="20">
+        <v>593778</v>
+      </c>
+      <c r="G187" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H187" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>1.5541766314682435E-2</v>
+      </c>
+      <c r="I187" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>4.0047364658216983E-10</v>
+      </c>
+      <c r="J187" s="20"/>
+      <c r="K187" s="20"/>
+      <c r="L187" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M187" s="20"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A188" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B188" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C188" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D188" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E188" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F188" s="20">
+        <v>390763</v>
+      </c>
+      <c r="G188" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H188" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>1.022797616352282E-2</v>
+      </c>
+      <c r="I188" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>2.6497271366522689E-10</v>
+      </c>
+      <c r="J188" s="20"/>
+      <c r="K188" s="20"/>
+      <c r="L188" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M188" s="20"/>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A189" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B189" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C189" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D189" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E189" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F189" s="20">
+        <v>339301</v>
+      </c>
+      <c r="G189" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H189" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>8.8809906266956087E-3</v>
+      </c>
+      <c r="I189" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>2.3038992831583237E-10</v>
+      </c>
+      <c r="J189" s="20"/>
+      <c r="K189" s="20"/>
+      <c r="L189" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M189" s="20"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A190" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B190" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C190" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D190" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E190" s="20">
+        <v>2009</v>
+      </c>
+      <c r="F190" s="20">
+        <v>218508</v>
+      </c>
+      <c r="G190" s="20">
+        <v>38205310</v>
+      </c>
+      <c r="H190" s="20">
+        <f>Table1[n]/Table1[Total N]</f>
+        <v>5.719309698049826E-3</v>
+      </c>
+      <c r="I190" s="39">
+        <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
+        <v>1.4884316328352313E-10</v>
+      </c>
+      <c r="J190" s="20"/>
+      <c r="K190" s="20"/>
+      <c r="L190" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M190" s="20"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A191" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D191" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E191" s="18">
+        <v>1979</v>
+      </c>
+      <c r="F191" s="18"/>
+      <c r="G191" s="18"/>
+      <c r="H191" s="18">
+        <v>15297576</v>
+      </c>
+      <c r="I191" s="38">
+        <f>SUM(I127:I142)</f>
+        <v>5.8000354704160582E-8</v>
+      </c>
+      <c r="J191" s="18"/>
+      <c r="K191" s="18"/>
+      <c r="L191" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M191" s="18"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A192" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B192" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C192" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D192" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E192" s="18">
+        <v>1989</v>
+      </c>
+      <c r="F192" s="18"/>
+      <c r="G192" s="18"/>
+      <c r="H192" s="18">
+        <v>21242106</v>
+      </c>
+      <c r="I192" s="38">
+        <f>SUM(I143:I158)</f>
+        <v>4.1759651462031905E-8</v>
+      </c>
+      <c r="J192" s="18"/>
+      <c r="K192" s="18"/>
+      <c r="L192" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M192" s="18"/>
+    </row>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A193" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B193" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C193" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D193" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E193" s="18">
+        <v>1999</v>
+      </c>
+      <c r="F193" s="18"/>
+      <c r="G193" s="18"/>
+      <c r="H193" s="18">
+        <v>28279219</v>
+      </c>
+      <c r="I193" s="38">
+        <f>SUM(I159:I174)</f>
+        <v>3.1605314162899356E-8</v>
+      </c>
+      <c r="J193" s="18"/>
+      <c r="K193" s="18"/>
+      <c r="L193" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M193" s="18"/>
+    </row>
+    <row r="194" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A194" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B194" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C194" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D194" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E194" s="18">
+        <v>2009</v>
+      </c>
+      <c r="F194" s="18"/>
+      <c r="G194" s="18"/>
+      <c r="H194" s="18">
+        <v>38205310</v>
+      </c>
+      <c r="I194" s="38">
+        <f>SUM(I175:I190)</f>
+        <v>2.3482514796341427E-8</v>
+      </c>
+      <c r="J194" s="18"/>
+      <c r="K194" s="18"/>
+      <c r="L194" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M194" s="18"/>
+    </row>
+    <row r="195" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A195" s="26" t="s">
         <v>85</v>
       </c>
@@ -8551,7 +8701,7 @@
       </c>
       <c r="M195" s="26"/>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A196" s="26" t="s">
         <v>85</v>
       </c>
@@ -8587,7 +8737,7 @@
       </c>
       <c r="M196" s="26"/>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A197" s="26" t="s">
         <v>85</v>
       </c>
@@ -8623,7 +8773,7 @@
       </c>
       <c r="M197" s="26"/>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A198" s="26" t="s">
         <v>85</v>
       </c>
@@ -8659,7 +8809,7 @@
       </c>
       <c r="M198" s="26"/>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A199" s="26" t="s">
         <v>85</v>
       </c>
@@ -8695,7 +8845,7 @@
       </c>
       <c r="M199" s="26"/>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A200" s="26" t="s">
         <v>85</v>
       </c>
@@ -8731,7 +8881,7 @@
       </c>
       <c r="M200" s="26"/>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A201" s="26" t="s">
         <v>85</v>
       </c>
@@ -8767,7 +8917,7 @@
       </c>
       <c r="M201" s="26"/>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A202" s="26" t="s">
         <v>85</v>
       </c>
@@ -8803,7 +8953,7 @@
       </c>
       <c r="M202" s="26"/>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A203" s="26" t="s">
         <v>85</v>
       </c>
@@ -8839,7 +8989,7 @@
       </c>
       <c r="M203" s="26"/>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A204" s="26" t="s">
         <v>85</v>
       </c>
@@ -8875,7 +9025,7 @@
       </c>
       <c r="M204" s="26"/>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A205" s="26" t="s">
         <v>85</v>
       </c>
@@ -8911,7 +9061,7 @@
       </c>
       <c r="M205" s="26"/>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A206" s="26" t="s">
         <v>85</v>
       </c>
@@ -8947,7 +9097,7 @@
       </c>
       <c r="M206" s="26"/>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A207" s="26" t="s">
         <v>85</v>
       </c>
@@ -8983,7 +9133,7 @@
       </c>
       <c r="M207" s="26"/>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A208" s="26" t="s">
         <v>85</v>
       </c>
@@ -9019,7 +9169,7 @@
       </c>
       <c r="M208" s="26"/>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A209" s="26" t="s">
         <v>85</v>
       </c>
@@ -9055,7 +9205,7 @@
       </c>
       <c r="M209" s="26"/>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A210" s="26" t="s">
         <v>85</v>
       </c>
@@ -9091,7 +9241,7 @@
       </c>
       <c r="M210" s="26"/>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A211" s="26" t="s">
         <v>85</v>
       </c>
@@ -9127,7 +9277,7 @@
       </c>
       <c r="M211" s="26"/>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A212" s="26" t="s">
         <v>85</v>
       </c>
@@ -9163,7 +9313,7 @@
       </c>
       <c r="M212" s="26"/>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A213" s="26" t="s">
         <v>85</v>
       </c>
@@ -9199,7 +9349,7 @@
       </c>
       <c r="M213" s="26"/>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A214" s="26" t="s">
         <v>85</v>
       </c>
@@ -9235,7 +9385,7 @@
       </c>
       <c r="M214" s="26"/>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A215" s="26" t="s">
         <v>85</v>
       </c>
@@ -9271,7 +9421,7 @@
       </c>
       <c r="M215" s="26"/>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A216" s="26" t="s">
         <v>85</v>
       </c>
@@ -9307,7 +9457,7 @@
       </c>
       <c r="M216" s="26"/>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A217" s="26" t="s">
         <v>85</v>
       </c>
@@ -9343,7 +9493,7 @@
       </c>
       <c r="M217" s="26"/>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A218" s="26" t="s">
         <v>85</v>
       </c>
@@ -9379,7 +9529,7 @@
       </c>
       <c r="M218" s="26"/>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A219" s="26" t="s">
         <v>85</v>
       </c>
@@ -9415,7 +9565,7 @@
       </c>
       <c r="M219" s="26"/>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A220" s="26" t="s">
         <v>85</v>
       </c>
@@ -9451,7 +9601,7 @@
       </c>
       <c r="M220" s="26"/>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A221" s="26" t="s">
         <v>85</v>
       </c>
@@ -9487,7 +9637,7 @@
       </c>
       <c r="M221" s="26"/>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A222" s="26" t="s">
         <v>85</v>
       </c>
@@ -9523,7 +9673,7 @@
       </c>
       <c r="M222" s="26"/>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A223" s="26" t="s">
         <v>85</v>
       </c>
@@ -9559,7 +9709,7 @@
       </c>
       <c r="M223" s="26"/>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A224" s="26" t="s">
         <v>85</v>
       </c>
@@ -9595,7 +9745,7 @@
       </c>
       <c r="M224" s="26"/>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A225" s="41" t="s">
         <v>90</v>
       </c>
@@ -9631,7 +9781,7 @@
       </c>
       <c r="M225" s="41"/>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A226" s="41" t="s">
         <v>90</v>
       </c>
@@ -9667,7 +9817,7 @@
       </c>
       <c r="M226" s="41"/>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A227" s="41" t="s">
         <v>90</v>
       </c>
@@ -9703,7 +9853,7 @@
       </c>
       <c r="M227" s="41"/>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A228" s="41" t="s">
         <v>90</v>
       </c>
@@ -9739,7 +9889,7 @@
       </c>
       <c r="M228" s="41"/>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A229" s="41" t="s">
         <v>90</v>
       </c>
@@ -9775,7 +9925,7 @@
       </c>
       <c r="M229" s="41"/>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A230" s="41" t="s">
         <v>90</v>
       </c>
@@ -9811,7 +9961,7 @@
       </c>
       <c r="M230" s="41"/>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A231" s="41" t="s">
         <v>90</v>
       </c>
@@ -9847,7 +9997,7 @@
       </c>
       <c r="M231" s="41"/>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A232" s="41" t="s">
         <v>90</v>
       </c>
@@ -9883,7 +10033,7 @@
       </c>
       <c r="M232" s="41"/>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A233" s="41" t="s">
         <v>90</v>
       </c>
@@ -9919,7 +10069,7 @@
       </c>
       <c r="M233" s="41"/>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A234" s="41" t="s">
         <v>90</v>
       </c>
@@ -9955,7 +10105,7 @@
       </c>
       <c r="M234" s="41"/>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A235" s="41" t="s">
         <v>90</v>
       </c>
@@ -9991,7 +10141,7 @@
       </c>
       <c r="M235" s="41"/>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A236" s="41" t="s">
         <v>90</v>
       </c>
@@ -10027,7 +10177,7 @@
       </c>
       <c r="M236" s="41"/>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A237" s="41" t="s">
         <v>90</v>
       </c>
@@ -10063,7 +10213,7 @@
       </c>
       <c r="M237" s="41"/>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A238" s="41" t="s">
         <v>90</v>
       </c>
@@ -10099,7 +10249,7 @@
       </c>
       <c r="M238" s="41"/>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A239" s="41" t="s">
         <v>90</v>
       </c>
@@ -10135,7 +10285,7 @@
       </c>
       <c r="M239" s="41"/>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A240" s="41" t="s">
         <v>90</v>
       </c>
@@ -10171,7 +10321,7 @@
       </c>
       <c r="M240" s="41"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A241" s="41" t="s">
         <v>90</v>
       </c>
@@ -10207,7 +10357,7 @@
       </c>
       <c r="M241" s="41"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A242" s="41" t="s">
         <v>90</v>
       </c>
@@ -10243,7 +10393,7 @@
       </c>
       <c r="M242" s="41"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A243" s="41" t="s">
         <v>90</v>
       </c>
@@ -10279,7 +10429,7 @@
       </c>
       <c r="M243" s="41"/>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A244" s="41" t="s">
         <v>90</v>
       </c>
@@ -10315,7 +10465,7 @@
       </c>
       <c r="M244" s="41"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A245" s="41" t="s">
         <v>90</v>
       </c>
@@ -10351,7 +10501,7 @@
       </c>
       <c r="M245" s="41"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A246" s="41" t="s">
         <v>90</v>
       </c>
@@ -10387,7 +10537,7 @@
       </c>
       <c r="M246" s="41"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A247" s="41" t="s">
         <v>90</v>
       </c>
@@ -10423,7 +10573,7 @@
       </c>
       <c r="M247" s="41"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A248" s="41" t="s">
         <v>90</v>
       </c>
@@ -10459,7 +10609,7 @@
       </c>
       <c r="M248" s="41"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A249" s="41" t="s">
         <v>90</v>
       </c>
@@ -10495,7 +10645,7 @@
       </c>
       <c r="M249" s="41"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A250" s="41" t="s">
         <v>90</v>
       </c>
@@ -10531,7 +10681,7 @@
       </c>
       <c r="M250" s="41"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A251" s="41" t="s">
         <v>90</v>
       </c>
@@ -10567,7 +10717,7 @@
       </c>
       <c r="M251" s="41"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A252" s="41" t="s">
         <v>90</v>
       </c>
@@ -10603,7 +10753,7 @@
       </c>
       <c r="M252" s="41"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A253" s="41" t="s">
         <v>90</v>
       </c>
@@ -10639,7 +10789,7 @@
       </c>
       <c r="M253" s="41"/>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A254" s="41" t="s">
         <v>90</v>
       </c>

--- a/Config/Calibration_targets_Kenya.xlsx
+++ b/Config/Calibration_targets_Kenya.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\udrive.uw.edu\udrive\Kenya_model_HPV-HIVacq\HHCoM\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clh89/MATLAB/Projects/Kenya_treatment/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FBC3E7-4A35-4B22-96AC-7AB4A3DFDF46}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8100F71B-A7CA-B041-869D-E52E28DF66BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-33160" yWindow="-1960" windowWidth="30720" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calibration" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="90">
   <si>
     <t>Criteria</t>
   </si>
@@ -280,6 +291,21 @@
   </si>
   <si>
     <t xml:space="preserve">Total population size </t>
+  </si>
+  <si>
+    <t>Local stage proportion</t>
+  </si>
+  <si>
+    <t>Regional stage proportion</t>
+  </si>
+  <si>
+    <t>Distant stage proportion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All </t>
+  </si>
+  <si>
+    <t>Mungo 2021</t>
   </si>
 </sst>
 </file>
@@ -414,7 +440,6 @@
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -463,6 +488,7 @@
     <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Attrib" xfId="10" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -518,8 +544,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M174" totalsRowShown="0">
-  <autoFilter ref="A1:M174" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:M177" totalsRowShown="0">
+  <autoFilter ref="A1:M177" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Criteria"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Source"/>
@@ -529,7 +555,7 @@
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="n"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Total N"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Prevalence" dataDxfId="3">
-      <calculatedColumnFormula>Table1[n]/Table1[Total N]</calculatedColumnFormula>
+      <calculatedColumnFormula>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Variance" dataDxfId="2"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="LB" dataDxfId="1"/>
@@ -804,37 +830,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M174"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J182" sqref="J182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="13" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="13" style="28" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" customWidth="1"/>
-    <col min="13" max="13" width="54.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" customWidth="1"/>
+    <col min="13" max="13" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>48</v>
       </c>
       <c r="D1" t="s">
@@ -852,7 +879,7 @@
       <c r="H1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="28" t="s">
         <v>31</v>
       </c>
       <c r="J1" t="s">
@@ -868,6286 +895,6366 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="26">
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="25">
         <v>2011</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26">
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25">
         <v>0.85780595009985727</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="29">
         <v>9.5934786594766949E-5</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26" t="s">
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="26"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="26">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="25">
         <v>2011</v>
       </c>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26">
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25">
         <v>0.14219404990014273</v>
       </c>
-      <c r="I3" s="30">
+      <c r="I3" s="29">
         <v>9.5934786594766935E-5</v>
       </c>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26" t="s">
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="M3" s="25"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="26">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="25">
         <v>2011</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26">
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25">
         <v>0.46822135734532</v>
       </c>
-      <c r="I4" s="30">
+      <c r="I4" s="29">
         <v>1.0483495851331361E-4</v>
       </c>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26" t="s">
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="M4" s="25"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="26">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="25">
         <v>2011</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26">
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25">
         <v>0.53177864265468</v>
       </c>
-      <c r="I5" s="30">
+      <c r="I5" s="29">
         <v>1.0483495851331361E-4</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26" t="s">
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="M5" s="25"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="26">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="25">
         <v>2011</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26">
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25">
         <v>0.51915783320342934</v>
       </c>
-      <c r="I6" s="30">
+      <c r="I6" s="29">
         <v>1.0176762375286258E-3</v>
       </c>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26" t="s">
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="M6" s="25"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="25">
         <v>2011</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26">
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25">
         <v>0.48084216679657066</v>
       </c>
-      <c r="I7" s="30">
+      <c r="I7" s="29">
         <v>1.0176762375286258E-3</v>
       </c>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26" t="s">
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="26"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="M7" s="25"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="25">
         <v>2011</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26">
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25">
         <v>0.73709892344552175</v>
       </c>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>2.4583988317562153E-4</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27" t="s">
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="M8" s="26"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="M8" s="25"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="25">
         <v>2011</v>
       </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26">
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25">
         <v>0.26290107655447825</v>
       </c>
-      <c r="I9" s="30">
+      <c r="I9" s="29">
         <v>2.4583988317562153E-4</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="28" t="s">
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="26"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="M9" s="25"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="25">
+      <c r="E10" s="24">
         <v>2012</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>21</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>2930371.1790394322</v>
       </c>
-      <c r="H10" s="25">
+      <c r="H10" s="24">
         <v>0.71663276482550398</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>6.1138395193029292E-6</v>
       </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25">
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]*100000</f>
         <v>0.71663276482550387</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="25">
+      <c r="E11" s="24">
         <v>2012</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>22</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>2594132.8413284374</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="24">
         <v>0.84806759505553897</v>
       </c>
-      <c r="I11" s="31">
+      <c r="I11" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>8.1729391566282463E-6</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25">
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24">
         <v>0.84806759505553897</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C12" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="25" t="s">
+      <c r="C12" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="25">
+      <c r="E12" s="24">
         <v>2012</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>159</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>1989757.1960054925</v>
       </c>
-      <c r="H12" s="25">
+      <c r="H12" s="24">
         <v>7.9909247379126498</v>
       </c>
-      <c r="I12" s="31">
+      <c r="I12" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>1.0040075183488106E-4</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25">
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24">
         <v>7.9909247379126498</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="C13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="25">
+      <c r="E13" s="24">
         <v>2012</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>329</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>1568431.2994181782</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="24">
         <v>20.976373024565699</v>
       </c>
-      <c r="I13" s="31">
+      <c r="I13" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>3.3435275476119115E-4</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25">
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24">
         <v>20.976373024565699</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="25" t="s">
+      <c r="C14" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E14" s="24">
         <v>2012</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>469</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>1151863.4232572478</v>
       </c>
-      <c r="H14" s="25">
+      <c r="H14" s="24">
         <v>40.716632764825398</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>8.8371225144224586E-4</v>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25">
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24">
         <v>40.716632764825398</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="C15" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="24">
         <v>2012</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>521</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>831409.27363979223</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="24">
         <v>62.664684712877403</v>
       </c>
-      <c r="I15" s="31">
+      <c r="I15" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>1.8842911277180093E-3</v>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25">
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24">
         <v>62.664684712877403</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="25" t="s">
+      <c r="C16" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="24">
         <v>2012</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>555</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>668250.15542870131</v>
       </c>
-      <c r="H16" s="25">
+      <c r="H16" s="24">
         <v>83.052730402127906</v>
       </c>
-      <c r="I16" s="31">
+      <c r="I16" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>3.107097309571415E-3</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25">
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="24">
         <v>83.052730402127906</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C17" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="25" t="s">
+      <c r="C17" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="24">
         <v>2012</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>598</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>578099.83361065097</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="24">
         <v>103.442340791738</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>4.4733770353152453E-3</v>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25">
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="24">
         <v>103.442340791738</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="25" t="s">
+      <c r="C18" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="24">
         <v>2012</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>640</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>491084.16376515932</v>
       </c>
-      <c r="H18" s="25">
+      <c r="H18" s="24">
         <v>130.32389297449501</v>
       </c>
-      <c r="I18" s="31">
+      <c r="I18" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>6.6344988593857925E-3</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25">
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24">
         <v>130.32389297449501</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="C19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="24">
         <v>2012</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <v>560</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>372207.37351151911</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="24">
         <v>150.45376310436501</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>1.0105506621546601E-2</v>
       </c>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25">
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="24">
         <v>150.45376310436501</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="25" t="s">
+      <c r="C20" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E20" s="24">
         <v>2012</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <v>378</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>241845.83041345538</v>
       </c>
-      <c r="H20" s="25">
+      <c r="H20" s="24">
         <v>156.29791894852099</v>
       </c>
-      <c r="I20" s="31">
+      <c r="I20" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>1.6156772134681505E-2</v>
       </c>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25">
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24">
         <v>156.29791894852099</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="25" t="s">
+      <c r="C21" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="24">
         <v>2012</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <v>253</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>167868.16997331925</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="24">
         <v>150.71350336410501</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>2.2445217486444752E-2</v>
       </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="25">
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24">
         <v>150.71350336410501</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="C22" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="25" t="s">
+      <c r="C22" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="24">
         <v>2012</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <v>293</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="24">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]*100000</f>
         <v>220001.29235396438</v>
       </c>
-      <c r="H22" s="25">
+      <c r="H22" s="24">
         <v>133.18103583163801</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="30">
         <f>(Table1[[#This Row],[Prevalence]]*25)/Table1[[#This Row],[Total N]]</f>
         <v>1.5134119714324273E-2</v>
       </c>
-      <c r="J22" s="25"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25">
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24">
         <v>133.18103583163801</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="23" t="s">
+      <c r="B23" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E23" s="21">
         <v>2007</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="21">
         <v>137</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="21">
         <f>137+1168</f>
         <v>1305</v>
       </c>
-      <c r="H23" s="22">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H23" s="21">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.1049808429118774</v>
       </c>
-      <c r="I23" s="32">
+      <c r="I23" s="31">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>7.1999896960451442E-5</v>
       </c>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22" t="s">
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="23"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="M23" s="22"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="21">
         <v>2007</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F24" s="21">
         <v>119</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G24" s="21">
         <f>119+1148</f>
         <v>1267</v>
       </c>
-      <c r="H24" s="22">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H24" s="21">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>9.3922651933701654E-2</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="31">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>6.7167472286852709E-5</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22" t="s">
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M24" s="22"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="M24" s="21"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E25" s="22">
+      <c r="E25" s="21">
         <v>2007</v>
       </c>
-      <c r="F25" s="22">
+      <c r="F25" s="21">
         <v>31</v>
       </c>
-      <c r="G25" s="22">
+      <c r="G25" s="21">
         <f>31+482</f>
         <v>513</v>
       </c>
-      <c r="H25" s="22">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H25" s="21">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>6.042884990253411E-2</v>
       </c>
-      <c r="I25" s="32">
+      <c r="I25" s="31">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.1067681092006066E-4</v>
       </c>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22" t="s">
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M25" s="22"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="M25" s="21"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="24" t="s">
+      <c r="B26" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="23">
         <v>2009</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>155</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <v>468</v>
       </c>
-      <c r="H26" s="24">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H26" s="23">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.33119658119658119</v>
       </c>
-      <c r="I26" s="33">
+      <c r="I26" s="32">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>4.7330214914589235E-4</v>
       </c>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24" t="s">
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="M26" s="24"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="M26" s="23"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="B27" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="24">
+      <c r="E27" s="23">
         <v>2009</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="23">
         <v>49</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="23">
         <v>468</v>
       </c>
-      <c r="H27" s="24">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H27" s="23">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.1047008547008547</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="32">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.002961233456522E-4</v>
       </c>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24" t="s">
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="M27" s="24"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="M27" s="23"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>2009</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>60</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="23">
         <v>468</v>
       </c>
-      <c r="H28" s="24">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H28" s="23">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.12820512820512819</v>
       </c>
-      <c r="I28" s="33">
+      <c r="I28" s="32">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.3882173783554452E-4</v>
       </c>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24" t="s">
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="M28" s="24"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="M28" s="23"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E29" s="21">
         <v>2010</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F29" s="21">
         <v>5</v>
       </c>
-      <c r="G29" s="22">
+      <c r="G29" s="21">
         <v>264</v>
       </c>
-      <c r="H29" s="22">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H29" s="21">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.893939393939394E-2</v>
       </c>
-      <c r="I29" s="32">
+      <c r="I29" s="31">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>7.0381414002281773E-5</v>
       </c>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-    </row>
-    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="24">
+      <c r="E30" s="23">
         <v>2010</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <v>14</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <v>84</v>
       </c>
-      <c r="H30" s="24">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H30" s="23">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="32">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.6534391534391536E-3</v>
       </c>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="21">
         <v>2010</v>
       </c>
-      <c r="F31" s="22">
+      <c r="F31" s="21">
         <v>21</v>
       </c>
-      <c r="G31" s="22">
+      <c r="G31" s="21">
         <v>264</v>
       </c>
-      <c r="H31" s="22">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H31" s="21">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>7.9545454545454544E-2</v>
       </c>
-      <c r="I31" s="32">
+      <c r="I31" s="31">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.7734081517655896E-4</v>
       </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="24" t="s">
+      <c r="B32" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E32" s="23">
         <v>2010</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="23">
         <v>16</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="23">
         <v>84</v>
       </c>
-      <c r="H32" s="24">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H32" s="23">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.19047619047619047</v>
       </c>
-      <c r="I32" s="33">
+      <c r="I32" s="32">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.8356548968793867E-3</v>
       </c>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="14">
         <v>2006</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <v>38</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <v>51</v>
       </c>
-      <c r="H33" s="15">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H33" s="14">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.74509803921568629</v>
       </c>
-      <c r="I33" s="34">
+      <c r="I33" s="33">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.7240578661299193E-3</v>
       </c>
-      <c r="J33" s="15"/>
-      <c r="K33" s="15"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="15"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="15" t="s">
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="14">
         <v>2006</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="14">
         <v>54</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <v>68</v>
       </c>
-      <c r="H34" s="15">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H34" s="14">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.79411764705882348</v>
       </c>
-      <c r="I34" s="34">
+      <c r="I34" s="33">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.4043354365967844E-3</v>
       </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="14">
         <v>2006</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35" s="14">
         <v>68</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="14">
         <v>96</v>
       </c>
-      <c r="H35" s="15">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H35" s="14">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.70833333333333337</v>
       </c>
-      <c r="I35" s="34">
+      <c r="I35" s="33">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.1520543981481482E-3</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="15" t="s">
+      <c r="D36" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="14">
         <v>2006</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36" s="14">
         <v>39</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="14">
         <v>57</v>
       </c>
-      <c r="H36" s="15">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H36" s="14">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.68421052631578949</v>
       </c>
-      <c r="I36" s="34">
+      <c r="I36" s="33">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.7906400349905231E-3</v>
       </c>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="11">
         <v>2006</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="11">
         <v>88</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G37" s="11">
         <v>169</v>
       </c>
-      <c r="H37" s="12">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H37" s="11">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.52071005917159763</v>
       </c>
-      <c r="I37" s="35">
+      <c r="I37" s="34">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.4767520322432482E-3</v>
       </c>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="11">
         <v>2006</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="11">
         <v>64</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="11">
         <v>136</v>
       </c>
-      <c r="H38" s="12">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H38" s="11">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.47058823529411764</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="34">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.8318746183594544E-3</v>
       </c>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="11">
         <v>2006</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="11">
         <v>55</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="11">
         <v>139</v>
       </c>
-      <c r="H39" s="12">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H39" s="11">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.39568345323741005</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I39" s="34">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.7202737990757438E-3</v>
       </c>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="11">
         <v>2006</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40" s="11">
         <v>22</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G40" s="11">
         <v>57</v>
       </c>
-      <c r="H40" s="12">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H40" s="11">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.38596491228070173</v>
       </c>
-      <c r="I40" s="35">
+      <c r="I40" s="34">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>4.15782453980442E-3</v>
       </c>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="15" t="s">
+      <c r="C41" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="14">
         <v>2000</v>
       </c>
-      <c r="F41" s="15">
+      <c r="F41" s="14">
         <v>31</v>
       </c>
-      <c r="G41" s="15">
+      <c r="G41" s="14">
         <v>76</v>
       </c>
-      <c r="H41" s="15">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H41" s="14">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.40789473684210525</v>
       </c>
-      <c r="I41" s="34">
+      <c r="I41" s="33">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.1778502697186175E-3</v>
       </c>
-      <c r="J41" s="15"/>
-      <c r="K41" s="15"/>
-      <c r="L41" s="15" t="s">
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M41" s="15"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="M41" s="14"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="15" t="s">
+      <c r="C42" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="14">
         <v>2000</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F42" s="14">
         <v>40</v>
       </c>
-      <c r="G42" s="15">
+      <c r="G42" s="14">
         <v>143</v>
       </c>
-      <c r="H42" s="15">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H42" s="14">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.27972027972027974</v>
       </c>
-      <c r="I42" s="34">
+      <c r="I42" s="33">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.4089289848495676E-3</v>
       </c>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15" t="s">
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M42" s="15"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="M42" s="14"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="14">
         <v>2000</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F43" s="14">
         <v>42</v>
       </c>
-      <c r="G43" s="15">
+      <c r="G43" s="14">
         <v>103</v>
       </c>
-      <c r="H43" s="15">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H43" s="14">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.40776699029126212</v>
       </c>
-      <c r="I43" s="34">
+      <c r="I43" s="33">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.3445929312627947E-3</v>
       </c>
-      <c r="J43" s="15"/>
-      <c r="K43" s="15"/>
-      <c r="L43" s="15" t="s">
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M43" s="15"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="M43" s="14"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="14">
         <v>2000</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F44" s="14">
         <v>12</v>
       </c>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <v>65</v>
       </c>
-      <c r="H44" s="15">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H44" s="14">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.18461538461538463</v>
       </c>
-      <c r="I44" s="34">
+      <c r="I44" s="33">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.315885298133819E-3</v>
       </c>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15" t="s">
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M44" s="15"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="M44" s="14"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="15" t="s">
+      <c r="C45" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="14">
         <v>2000</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F45" s="14">
         <v>6</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="14">
         <v>25</v>
       </c>
-      <c r="H45" s="15">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H45" s="14">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.24</v>
       </c>
-      <c r="I45" s="34">
+      <c r="I45" s="33">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>7.2960000000000004E-3</v>
       </c>
-      <c r="J45" s="15"/>
-      <c r="K45" s="15"/>
-      <c r="L45" s="15" t="s">
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M45" s="15"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="15" t="s">
+      <c r="M45" s="14"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" s="15" t="s">
+      <c r="C46" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="14">
         <v>2000</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F46" s="14">
         <v>1</v>
       </c>
-      <c r="G46" s="15">
+      <c r="G46" s="14">
         <v>12</v>
       </c>
-      <c r="H46" s="15">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H46" s="14">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="33">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>6.3657407407407404E-3</v>
       </c>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="15" t="s">
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="M46" s="15"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
+      <c r="M46" s="14"/>
+    </row>
+    <row r="47" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="11">
         <v>2009</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="13">
         <v>38</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="13">
         <v>62</v>
       </c>
-      <c r="H47" s="12">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H47" s="11">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.61290322580645162</v>
       </c>
-      <c r="I47" s="35">
+      <c r="I47" s="34">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.8266590581047966E-3</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="11">
         <v>0.44993750650906073</v>
       </c>
-      <c r="K47" s="12">
+      <c r="K47" s="11">
         <v>1</v>
       </c>
-      <c r="L47" s="12" t="s">
+      <c r="L47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M47" s="13"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+      <c r="M47" s="12"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="11">
         <v>2009</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="13">
         <v>54</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="13">
         <v>101</v>
       </c>
-      <c r="H48" s="12">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H48" s="11">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.53465346534653468</v>
       </c>
-      <c r="I48" s="35">
+      <c r="I48" s="34">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.4633577954403614E-3</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="11">
         <v>0.49912995181888981</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="15">
         <v>0.73896528627634828</v>
       </c>
-      <c r="L48" s="12" t="s">
+      <c r="L48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M48" s="12"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="12" t="s">
+      <c r="M48" s="11"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="11">
         <v>2009</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="13">
         <v>65</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="13">
         <v>123</v>
       </c>
-      <c r="H49" s="12">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H49" s="11">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.52845528455284552</v>
       </c>
-      <c r="I49" s="35">
+      <c r="I49" s="34">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.0259373722033868E-3</v>
       </c>
-      <c r="J49" s="12">
+      <c r="J49" s="11">
         <v>0.37937033884025395</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="15">
         <v>0.62062966115974605</v>
       </c>
-      <c r="L49" s="12" t="s">
+      <c r="L49" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M49" s="12"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
+      <c r="M49" s="11"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="11">
         <v>2009</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="13">
         <v>54</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="13">
         <v>109</v>
       </c>
-      <c r="H50" s="12">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H50" s="11">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.49541284403669728</v>
       </c>
-      <c r="I50" s="35">
+      <c r="I50" s="34">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.2933849357813607E-3</v>
       </c>
-      <c r="J50" s="12">
+      <c r="J50" s="11">
         <v>9.2495929098426521E-2</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K50" s="15">
         <v>0.47893264233014488</v>
       </c>
-      <c r="L50" s="12" t="s">
+      <c r="L50" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M50" s="12"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
+      <c r="M50" s="11"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="11">
         <v>2009</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="13">
         <v>51</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="13">
         <v>103</v>
       </c>
-      <c r="H51" s="12">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H51" s="11">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.49514563106796117</v>
       </c>
-      <c r="I51" s="35">
+      <c r="I51" s="34">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.4269556806045794E-3</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="11">
         <v>0.26462021631607502</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K51" s="15">
         <v>0.59252264082678208</v>
       </c>
-      <c r="L51" s="12" t="s">
+      <c r="L51" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M51" s="12"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="M51" s="11"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D52" s="2" t="s">
+      <c r="C52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="1">
         <v>2003</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>25</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>841.23436609256169</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="4">
         <v>2.9718234308617426E-2</v>
       </c>
-      <c r="I52" s="36">
+      <c r="I52" s="35">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.4277083795483929E-5</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="4">
         <v>1.6608999999999999E-2</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="4">
         <v>4.2827000000000004E-2</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M52" s="2"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D53" s="2" t="s">
+      <c r="C53" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="1">
         <v>2003</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="1">
         <v>58</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>642.20952753039182</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="4">
         <v>9.0313203890073426E-2</v>
       </c>
-      <c r="I53" s="36">
+      <c r="I53" s="35">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.2792823147472765E-4</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="4">
         <v>6.4351000000000005E-2</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="4">
         <v>0.11627599999999999</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M53" s="2"/>
-    </row>
-    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="1">
         <v>2003</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="1">
         <v>63</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>488.32015207368067</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="4">
         <v>0.12901372129015512</v>
       </c>
-      <c r="I54" s="36">
+      <c r="I54" s="35">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.3011374921112483E-4</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" s="4">
         <v>9.6155000000000004E-2</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="4">
         <v>0.16187200000000002</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M54" s="2"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="1">
         <v>2003</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="1">
         <v>54</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>461.56298686036348</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="4">
         <v>0.11699378316124946</v>
       </c>
-      <c r="I55" s="36">
+      <c r="I55" s="35">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.2381828873579331E-4</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="4">
         <v>8.1585999999999992E-2</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="4">
         <v>0.15240100000000001</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M55" s="2"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="C56" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="1">
         <v>2003</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="1">
         <v>40</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>340.41033027931019</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="4">
         <v>0.11750524717384336</v>
       </c>
-      <c r="I56" s="36">
+      <c r="I56" s="35">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.0462578493247329E-4</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="4">
         <v>8.0722000000000002E-2</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="4">
         <v>0.15428900000000001</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M56" s="2"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57" s="2" t="s">
+      <c r="C57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="1">
         <v>2003</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="1">
         <v>26</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>274.5017427122151</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="4">
         <v>9.4717067159963864E-2</v>
       </c>
-      <c r="I57" s="36">
+      <c r="I57" s="35">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.1236867023636255E-4</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" s="4">
         <v>5.1768000000000002E-2</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="4">
         <v>0.13766600000000001</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M57" s="2"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D58" s="2" t="s">
+      <c r="C58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="1">
         <v>2003</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="1">
         <v>9</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>232.94399383295348</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="4">
         <v>3.8635896345342098E-2</v>
       </c>
-      <c r="I58" s="36">
+      <c r="I58" s="35">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.5945104764353711E-4</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="4">
         <v>9.1719999999999996E-3</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="4">
         <v>6.8098999999999993E-2</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M58" s="2"/>
-    </row>
-    <row r="59" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D59" s="3" t="s">
+      <c r="C59" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E59" s="2">
         <v>2007</v>
       </c>
-      <c r="F59" s="3">
+      <c r="F59" s="2">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>46.480000000000004</v>
       </c>
-      <c r="G59" s="3">
+      <c r="G59" s="2">
         <v>1328</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="2">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="I59" s="37">
+      <c r="I59" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>2.5432981927710843E-5</v>
       </c>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3" t="s">
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D60" s="3" t="s">
+      <c r="C60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E60" s="2">
         <v>2007</v>
       </c>
-      <c r="F60" s="3">
+      <c r="F60" s="2">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>118.25200000000001</v>
       </c>
-      <c r="G60" s="3">
+      <c r="G60" s="2">
         <v>1598</v>
       </c>
-      <c r="H60" s="3">
+      <c r="H60" s="2">
         <v>7.400000000000001E-2</v>
       </c>
-      <c r="I60" s="37">
+      <c r="I60" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>4.28811013767209E-5</v>
       </c>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3" t="s">
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D61" s="3" t="s">
+      <c r="C61" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E61" s="2">
         <v>2007</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F61" s="2">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>137.19</v>
       </c>
-      <c r="G61" s="3">
+      <c r="G61" s="2">
         <v>1345</v>
       </c>
-      <c r="H61" s="3">
+      <c r="H61" s="2">
         <v>0.10199999999999999</v>
       </c>
-      <c r="I61" s="37">
+      <c r="I61" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>6.8101115241635683E-5</v>
       </c>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3" t="s">
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D62" s="3" t="s">
+      <c r="C62" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>2007</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F62" s="2">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>153.482</v>
       </c>
-      <c r="G62" s="3">
+      <c r="G62" s="2">
         <v>1154</v>
       </c>
-      <c r="H62" s="3">
+      <c r="H62" s="2">
         <v>0.13300000000000001</v>
       </c>
-      <c r="I62" s="37">
+      <c r="I62" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>9.9922876949740049E-5</v>
       </c>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3" t="s">
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D63" s="3" t="s">
+      <c r="C63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E63" s="2">
         <v>2007</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F63" s="2">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>106.39999999999999</v>
       </c>
-      <c r="G63" s="3">
+      <c r="G63" s="2">
         <v>950</v>
       </c>
-      <c r="H63" s="3">
+      <c r="H63" s="2">
         <v>0.11199999999999999</v>
       </c>
-      <c r="I63" s="37">
+      <c r="I63" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.0469052631578946E-4</v>
       </c>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3" t="s">
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="C64" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>2007</v>
       </c>
-      <c r="F64" s="3">
+      <c r="F64" s="2">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>69.748000000000005</v>
       </c>
-      <c r="G64" s="3">
+      <c r="G64" s="2">
         <v>742</v>
       </c>
-      <c r="H64" s="3">
+      <c r="H64" s="2">
         <v>9.4E-2</v>
       </c>
-      <c r="I64" s="37">
+      <c r="I64" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.1477628032345014E-4</v>
       </c>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3" t="s">
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65" s="3" t="s">
+      <c r="C65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E65" s="2">
         <v>2007</v>
       </c>
-      <c r="F65" s="3">
+      <c r="F65" s="2">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>64.416000000000011</v>
       </c>
-      <c r="G65" s="3">
+      <c r="G65" s="2">
         <v>732</v>
       </c>
-      <c r="H65" s="3">
+      <c r="H65" s="2">
         <v>8.8000000000000009E-2</v>
       </c>
-      <c r="I65" s="37">
+      <c r="I65" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.0963934426229509E-4</v>
       </c>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3" t="s">
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="C66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E66" s="2">
+      <c r="E66" s="1">
         <v>2009</v>
       </c>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>27</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="8">
         <v>985.73961226471283</v>
       </c>
-      <c r="H66" s="7">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H66" s="6">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>2.7390600584639341E-2</v>
       </c>
-      <c r="I66" s="36">
+      <c r="I66" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>2.7025753305222793E-5</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" s="4">
         <v>1.4563999999999999E-2</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="4">
         <v>4.0217000000000003E-2</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L66" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M66" s="2"/>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="C67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E67" s="2">
+      <c r="E67" s="1">
         <v>2009</v>
       </c>
-      <c r="F67" s="2">
+      <c r="F67" s="1">
         <v>55</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="8">
         <v>858.66782721474306</v>
       </c>
-      <c r="H67" s="7">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H67" s="6">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>6.4052708459338983E-2</v>
       </c>
-      <c r="I67" s="36">
+      <c r="I67" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>6.981740447038912E-5</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" s="4">
         <v>4.3031E-2</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="4">
         <v>8.5074000000000011E-2</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L67" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M67" s="2"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="C68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E68" s="2">
+      <c r="E68" s="1">
         <v>2009</v>
       </c>
-      <c r="F68" s="2">
+      <c r="F68" s="1">
         <v>66</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="8">
         <v>634.03978209252944</v>
       </c>
-      <c r="H68" s="7">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H68" s="6">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.1040944146788067</v>
       </c>
-      <c r="I68" s="36">
+      <c r="I68" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.4708661845113291E-4</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68" s="4">
         <v>7.1454000000000004E-2</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="4">
         <v>0.136735</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="2" t="s">
+      <c r="C69" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E69" s="2">
+      <c r="E69" s="1">
         <v>2009</v>
       </c>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>63</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="8">
         <v>570.52483920244788</v>
       </c>
-      <c r="H69" s="7">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H69" s="6">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.11042464003507614</v>
       </c>
-      <c r="I69" s="36">
+      <c r="I69" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.7217662082078642E-4</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" s="4">
         <v>7.4653999999999998E-2</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="4">
         <v>0.14619499999999999</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L69" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D70" s="2" t="s">
+      <c r="C70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E70" s="2">
+      <c r="E70" s="1">
         <v>2009</v>
       </c>
-      <c r="F70" s="2">
+      <c r="F70" s="1">
         <v>45</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="8">
         <v>511.71589006081274</v>
       </c>
-      <c r="H70" s="7">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H70" s="6">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>8.7939422781364407E-2</v>
       </c>
-      <c r="I70" s="36">
+      <c r="I70" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.5673947645579876E-4</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="4">
         <v>5.7251000000000003E-2</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="4">
         <v>0.118628</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D71" s="2" t="s">
+      <c r="C71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E71" s="2">
+      <c r="E71" s="1">
         <v>2009</v>
       </c>
-      <c r="F71" s="2">
+      <c r="F71" s="1">
         <v>36</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="8">
         <v>252.28591608340213</v>
       </c>
-      <c r="H71" s="7">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H71" s="6">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.14269524259966582</v>
       </c>
-      <c r="I71" s="36">
+      <c r="I71" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>4.8489948324601163E-4</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="4">
         <v>6.7178000000000002E-2</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="4">
         <v>0.21821300000000002</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M71" s="2"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D72" s="2" t="s">
+      <c r="C72" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E72" s="2">
+      <c r="E72" s="1">
         <v>2009</v>
       </c>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>26</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="8">
         <v>405.78012714494355</v>
       </c>
-      <c r="H72" s="7">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H72" s="6">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>6.4074108761646847E-2</v>
       </c>
-      <c r="I72" s="36">
+      <c r="I72" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.4778598885555297E-4</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" s="4">
         <v>3.5684999999999995E-2</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="4">
         <v>9.2463000000000004E-2</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L72" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M72" s="2"/>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="3" t="s">
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D73" s="3" t="s">
+      <c r="C73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E73" s="2">
         <v>2003</v>
       </c>
-      <c r="F73" s="3">
+      <c r="F73" s="2">
         <v>4</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>1119.0432681886909</v>
       </c>
-      <c r="H73" s="6">
+      <c r="H73" s="5">
         <v>3.5744819826980341E-3</v>
       </c>
-      <c r="I73" s="37">
+      <c r="I73" s="36">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.1828126422836702E-6</v>
       </c>
-      <c r="J73" s="6">
+      <c r="J73" s="5">
         <v>0</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="5">
         <v>7.5190000000000005E-3</v>
       </c>
-      <c r="L73" s="3" t="s">
+      <c r="L73" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D74" s="3" t="s">
+      <c r="C74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>2003</v>
       </c>
-      <c r="F74" s="3">
+      <c r="F74" s="2">
         <v>14</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>581.83871888986232</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H74" s="5">
         <v>2.4061650669642172E-2</v>
       </c>
-      <c r="I74" s="37">
+      <c r="I74" s="36">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>4.0359444764175919E-5</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="5">
         <v>1.2016000000000001E-2</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K74" s="5">
         <v>3.6107E-2</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="L74" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D75" s="3" t="s">
+      <c r="C75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E75" s="2">
         <v>2003</v>
       </c>
-      <c r="F75" s="3">
+      <c r="F75" s="2">
         <v>31</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>423.4401999605733</v>
       </c>
-      <c r="H75" s="6">
+      <c r="H75" s="5">
         <v>7.3209865295941257E-2</v>
       </c>
-      <c r="I75" s="37">
+      <c r="I75" s="36">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.6023556791634088E-4</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="5">
         <v>4.4005999999999997E-2</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="5">
         <v>0.10241400000000001</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="L75" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D76" s="3" t="s">
+      <c r="C76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>2003</v>
       </c>
-      <c r="F76" s="3">
+      <c r="F76" s="2">
         <v>22</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>332.79868372251627</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76" s="5">
         <v>6.6106030690744402E-2</v>
       </c>
-      <c r="I76" s="37">
+      <c r="I76" s="36">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.8550561170047641E-4</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76" s="5">
         <v>3.8716E-2</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76" s="5">
         <v>9.349600000000001E-2</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="L76" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B77" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D77" s="3" t="s">
+      <c r="C77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E77" s="2">
         <v>2003</v>
       </c>
-      <c r="F77" s="3">
+      <c r="F77" s="2">
         <v>24</v>
       </c>
-      <c r="G77" s="10">
+      <c r="G77" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>285.40208064747873</v>
       </c>
-      <c r="H77" s="6">
+      <c r="H77" s="5">
         <v>8.4091888698051148E-2</v>
       </c>
-      <c r="I77" s="37">
+      <c r="I77" s="36">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.6986643817912239E-4</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="5">
         <v>4.9303999999999994E-2</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="5">
         <v>0.11888</v>
       </c>
-      <c r="L77" s="3" t="s">
+      <c r="L77" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C78" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D78" s="3" t="s">
+      <c r="C78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>2003</v>
       </c>
-      <c r="F78" s="3">
+      <c r="F78" s="2">
         <v>22</v>
       </c>
-      <c r="G78" s="10">
+      <c r="G78" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>251.09726150204338</v>
       </c>
-      <c r="H78" s="6">
+      <c r="H78" s="5">
         <v>8.7615451751236917E-2</v>
       </c>
-      <c r="I78" s="37">
+      <c r="I78" s="36">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.1835864671512186E-4</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="5">
         <v>4.7294999999999997E-2</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K78" s="5">
         <v>0.12793599999999999</v>
       </c>
-      <c r="L78" s="3" t="s">
+      <c r="L78" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="C79" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E79" s="2">
         <v>2003</v>
       </c>
-      <c r="F79" s="3">
+      <c r="F79" s="2">
         <v>7</v>
       </c>
-      <c r="G79" s="10">
+      <c r="G79" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>135.62233534638352</v>
       </c>
-      <c r="H79" s="6">
+      <c r="H79" s="5">
         <v>5.1613917295567795E-2</v>
       </c>
-      <c r="I79" s="37">
+      <c r="I79" s="36">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.6092816652916735E-4</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="5">
         <v>1.1973000000000001E-2</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="5">
         <v>9.1255000000000003E-2</v>
       </c>
-      <c r="L79" s="3" t="s">
+      <c r="L79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C80" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D80" s="3" t="s">
+      <c r="C80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>2003</v>
       </c>
-      <c r="F80" s="3">
+      <c r="F80" s="2">
         <v>9</v>
       </c>
-      <c r="G80" s="10">
+      <c r="G80" s="9">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>158.88050719816081</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H80" s="5">
         <v>5.6646344845657587E-2</v>
       </c>
-      <c r="I80" s="37">
+      <c r="I80" s="36">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.3633790200981317E-4</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="5">
         <v>2.0834999999999999E-2</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K80" s="5">
         <v>9.2457999999999985E-2</v>
       </c>
-      <c r="L80" s="3" t="s">
+      <c r="L80" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D81" s="3" t="s">
+      <c r="C81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E81" s="2">
         <v>2007</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="9">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>11.75</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="9">
         <v>1175</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81" s="7">
         <v>0.01</v>
       </c>
-      <c r="I81" s="37">
+      <c r="I81" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>8.4255319148936176E-6</v>
       </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3" t="s">
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C82" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D82" s="3" t="s">
+      <c r="C82" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <v>2007</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F82" s="9">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>19.646000000000001</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="9">
         <v>1034</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82" s="7">
         <v>1.9E-2</v>
       </c>
-      <c r="I82" s="37">
+      <c r="I82" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.8026112185686654E-5</v>
       </c>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3" t="s">
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D83" s="3" t="s">
+      <c r="C83" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E83" s="2">
         <v>2007</v>
       </c>
-      <c r="F83" s="10">
+      <c r="F83" s="9">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>63.801999999999992</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="9">
         <v>874</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83" s="7">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="I83" s="37">
+      <c r="I83" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>7.7426773455377572E-5</v>
       </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3" t="s">
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="3" t="s">
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C84" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D84" s="3" t="s">
+      <c r="C84" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <v>2007</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F84" s="9">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>68.708000000000013</v>
       </c>
-      <c r="G84" s="10">
+      <c r="G84" s="9">
         <v>772</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="7">
         <v>8.900000000000001E-2</v>
       </c>
-      <c r="I84" s="37">
+      <c r="I84" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.0502461139896374E-4</v>
       </c>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3" t="s">
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="3" t="s">
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D85" s="3" t="s">
+      <c r="C85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E85" s="2">
         <v>2007</v>
       </c>
-      <c r="F85" s="10">
+      <c r="F85" s="9">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>63.054000000000009</v>
       </c>
-      <c r="G85" s="10">
+      <c r="G85" s="9">
         <v>678</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H85" s="7">
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="I85" s="37">
+      <c r="I85" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.2441150442477877E-4</v>
       </c>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3" t="s">
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="3" t="s">
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D86" s="3" t="s">
+      <c r="C86" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <v>2007</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F86" s="9">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>58.751999999999995</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="9">
         <v>576</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86" s="7">
         <v>0.10199999999999999</v>
       </c>
-      <c r="I86" s="37">
+      <c r="I86" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.5902083333333333E-4</v>
       </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3" t="s">
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C87" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D87" s="3" t="s">
+      <c r="C87" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E87" s="2">
         <v>2007</v>
       </c>
-      <c r="F87" s="10">
+      <c r="F87" s="9">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>30.743999999999996</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="9">
         <v>549</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H87" s="7">
         <v>5.5999999999999994E-2</v>
       </c>
-      <c r="I87" s="37">
+      <c r="I87" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>9.6291438979963562E-5</v>
       </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3" t="s">
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C88" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="C88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E88" s="2">
         <v>2007</v>
       </c>
-      <c r="F88" s="10">
+      <c r="F88" s="9">
         <f>Table1[[#This Row],[Prevalence]]*Table1[[#This Row],[Total N]]</f>
         <v>35.274999999999999</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="9">
         <v>425</v>
       </c>
-      <c r="H88" s="8">
+      <c r="H88" s="7">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="I88" s="37">
+      <c r="I88" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.7908470588235296E-4</v>
       </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3" t="s">
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="3" t="s">
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C89" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="3" t="s">
+      <c r="C89" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E89" s="2">
         <v>2009</v>
       </c>
-      <c r="F89" s="3">
+      <c r="F89" s="2">
         <v>7</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="9">
         <v>963.49708650572427</v>
       </c>
-      <c r="H89" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H89" s="5">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>7.2652010037587301E-3</v>
       </c>
-      <c r="I89" s="37">
+      <c r="I89" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>7.4856664946343489E-6</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="3">
         <v>7.0699999999999995E-4</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K89" s="3">
         <v>1.3823E-2</v>
       </c>
-      <c r="L89" s="3" t="s">
+      <c r="L89" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="3" t="s">
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C90" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D90" s="3" t="s">
+      <c r="C90" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E90" s="2">
         <v>2009</v>
       </c>
-      <c r="F90" s="3">
+      <c r="F90" s="2">
         <v>10</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="9">
         <v>670.05493031263165</v>
       </c>
-      <c r="H90" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H90" s="5">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.4924149569848309E-2</v>
       </c>
-      <c r="I90" s="37">
+      <c r="I90" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>2.1940618096199626E-5</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90" s="3">
         <v>3.8409999999999998E-3</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K90" s="3">
         <v>2.6006999999999999E-2</v>
       </c>
-      <c r="L90" s="3" t="s">
+      <c r="L90" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="3" t="s">
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C91" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D91" s="3" t="s">
+      <c r="C91" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E91" s="2">
         <v>2009</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="2">
         <v>24</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="9">
         <v>368.03944592214856</v>
       </c>
-      <c r="H91" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H91" s="5">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>6.5210401401040924E-2</v>
       </c>
-      <c r="I91" s="37">
+      <c r="I91" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.6562899880859645E-4</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91" s="3">
         <v>3.2902000000000001E-2</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K91" s="3">
         <v>9.7518999999999995E-2</v>
       </c>
-      <c r="L91" s="3" t="s">
+      <c r="L91" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C92" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D92" s="3" t="s">
+      <c r="C92" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E92" s="2">
         <v>2009</v>
       </c>
-      <c r="F92" s="3">
+      <c r="F92" s="2">
         <v>34</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="9">
         <v>499.58022619476617</v>
       </c>
-      <c r="H92" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H92" s="5">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>6.8057137206917334E-2</v>
       </c>
-      <c r="I92" s="37">
+      <c r="I92" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.2695731327322225E-4</v>
       </c>
-      <c r="J92" s="4">
+      <c r="J92" s="3">
         <v>4.1223000000000003E-2</v>
       </c>
-      <c r="K92" s="4">
+      <c r="K92" s="3">
         <v>9.4891000000000003E-2</v>
       </c>
-      <c r="L92" s="3" t="s">
+      <c r="L92" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="3" t="s">
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C93" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D93" s="3" t="s">
+      <c r="C93" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E93" s="2">
         <v>2009</v>
       </c>
-      <c r="F93" s="3">
+      <c r="F93" s="2">
         <v>35</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="9">
         <v>335.51817350394879</v>
       </c>
-      <c r="H93" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H93" s="5">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.10431625695407548</v>
       </c>
-      <c r="I93" s="37">
+      <c r="I93" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>2.7847783776775698E-4</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93" s="3">
         <v>6.2424999999999994E-2</v>
       </c>
-      <c r="K93" s="4">
+      <c r="K93" s="3">
         <v>0.146207</v>
       </c>
-      <c r="L93" s="3" t="s">
+      <c r="L93" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="3" t="s">
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C94" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D94" s="3" t="s">
+      <c r="C94" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E94" s="2">
         <v>2009</v>
       </c>
-      <c r="F94" s="3">
+      <c r="F94" s="2">
         <v>18</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="9">
         <v>317.52684689160503</v>
       </c>
-      <c r="H94" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H94" s="5">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>5.6688120000589134E-2</v>
       </c>
-      <c r="I94" s="37">
+      <c r="I94" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.6840962449276832E-4</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J94" s="3">
         <v>2.5624999999999998E-2</v>
       </c>
-      <c r="K94" s="4">
+      <c r="K94" s="3">
         <v>8.7750999999999996E-2</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="3" t="s">
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C95" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D95" s="3" t="s">
+      <c r="C95" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E95" s="2">
         <v>2009</v>
       </c>
-      <c r="F95" s="3">
+      <c r="F95" s="2">
         <v>11</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="9">
         <v>258.69483208444495</v>
       </c>
-      <c r="H95" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H95" s="5">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>4.2521143199371308E-2</v>
       </c>
-      <c r="I95" s="37">
+      <c r="I95" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.5737885156940444E-4</v>
       </c>
-      <c r="J95" s="4">
+      <c r="J95" s="3">
         <v>8.685E-3</v>
       </c>
-      <c r="K95" s="4">
+      <c r="K95" s="3">
         <v>7.6356999999999994E-2</v>
       </c>
-      <c r="L95" s="3" t="s">
+      <c r="L95" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="3" t="s">
+      <c r="M95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C96" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D96" s="3" t="s">
+      <c r="C96" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E96" s="2">
         <v>2009</v>
       </c>
-      <c r="F96" s="3">
+      <c r="F96" s="2">
         <v>15</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="9">
         <v>164.65714491839395</v>
       </c>
-      <c r="H96" s="6">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H96" s="5">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>9.1098385116747768E-2</v>
       </c>
-      <c r="I96" s="37">
+      <c r="I96" s="36">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>5.0285986306215194E-4</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J96" s="3">
         <v>2.3006000000000002E-2</v>
       </c>
-      <c r="K96" s="4">
+      <c r="K96" s="3">
         <v>0.159191</v>
       </c>
-      <c r="L96" s="3" t="s">
+      <c r="L96" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="M96" s="2"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="C97" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D97" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E97" s="2">
+      <c r="E97" s="1">
         <v>2012</v>
       </c>
-      <c r="F97" s="2">
+      <c r="F97" s="1">
         <v>17</v>
       </c>
-      <c r="G97" s="9">
+      <c r="G97" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>1545.4545454545453</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="1">
         <v>1.1000000000000001E-2</v>
       </c>
-      <c r="I97" s="36">
+      <c r="I97" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>7.0393529411764727E-6</v>
       </c>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="C98" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="11">
+      <c r="E98" s="10">
         <v>2012</v>
       </c>
-      <c r="F98" s="2">
+      <c r="F98" s="1">
         <v>58</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G98" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>1870.9677419354839</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="1">
         <v>3.1E-2</v>
       </c>
-      <c r="I98" s="36">
+      <c r="I98" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.6055327586206897E-5</v>
       </c>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="C99" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="2">
+      <c r="E99" s="1">
         <v>2012</v>
       </c>
-      <c r="F99" s="2">
+      <c r="F99" s="1">
         <v>112</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G99" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>1777.7777777777778</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="1">
         <v>6.3E-2</v>
       </c>
-      <c r="I99" s="36">
+      <c r="I99" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>3.3204937500000004E-5</v>
       </c>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="C100" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E100" s="11">
+      <c r="E100" s="10">
         <v>2012</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="1">
         <v>97</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>1469.6969696969695</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="1">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="I100" s="36">
+      <c r="I100" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>4.1943340206185571E-5</v>
       </c>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C101" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D101" s="2" t="s">
+      <c r="C101" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="1">
         <v>2012</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="1">
         <v>108</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>1241.3793103448277</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="1">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="I101" s="36">
+      <c r="I101" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>6.3986083333333324E-5</v>
       </c>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="C102" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E102" s="11">
+      <c r="E102" s="10">
         <v>2012</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="1">
         <v>90</v>
       </c>
-      <c r="G102" s="9">
+      <c r="G102" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>967.74193548387086</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102" s="1">
         <v>9.3000000000000013E-2</v>
       </c>
-      <c r="I102" s="36">
+      <c r="I102" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>8.7162700000000025E-5</v>
       </c>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C103" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D103" s="2" t="s">
+      <c r="C103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="1">
         <v>2012</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="1">
         <v>66</v>
       </c>
-      <c r="G103" s="9">
+      <c r="G103" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>673.46938775510205</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="1">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="I103" s="36">
+      <c r="I103" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.3125466666666667E-4</v>
       </c>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="C104" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D104" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E104" s="11">
+      <c r="E104" s="10">
         <v>2012</v>
       </c>
-      <c r="F104" s="2">
+      <c r="F104" s="1">
         <v>60</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G104" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>714.28571428571422</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104" s="1">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="I104" s="36">
+      <c r="I104" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>1.0772160000000002E-4</v>
       </c>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="J104" s="1"/>
+      <c r="K104" s="1"/>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="C105" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E105" s="11">
+      <c r="E105" s="10">
         <v>2012</v>
       </c>
-      <c r="F105" s="2">
+      <c r="F105" s="1">
         <v>24</v>
       </c>
-      <c r="G105" s="9">
+      <c r="G105" s="8">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>545.45454545454538</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105" s="1">
         <v>4.4000000000000004E-2</v>
       </c>
-      <c r="I105" s="36">
+      <c r="I105" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>7.7117333333333348E-5</v>
       </c>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="C106" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="1">
         <v>2012</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="1">
         <v>16</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="1">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Prevalence]]</f>
         <v>400</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="1">
         <v>0.04</v>
       </c>
-      <c r="I106" s="36">
+      <c r="I106" s="35">
         <f>((Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]])</f>
         <v>9.5999999999999989E-5</v>
       </c>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="17" t="s">
+      <c r="J106" s="1"/>
+      <c r="K106" s="1"/>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A107" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B107" s="18" t="s">
+      <c r="B107" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C107" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D107" s="18" t="s">
+      <c r="C107" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D107" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E107" s="18">
+      <c r="E107" s="17">
         <v>1979</v>
       </c>
-      <c r="F107" s="18">
+      <c r="F107" s="17">
         <v>2843406</v>
       </c>
-      <c r="G107" s="18">
+      <c r="G107" s="17">
         <v>15297576</v>
       </c>
-      <c r="H107" s="18">
+      <c r="H107" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.1858729775227134</v>
       </c>
-      <c r="I107" s="38">
+      <c r="I107" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>9.8920386961669154E-9</v>
       </c>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="17"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="17" t="s">
+      <c r="J107" s="17"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="17"/>
+      <c r="M107" s="16"/>
+    </row>
+    <row r="108" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B108" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C108" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D108" s="21" t="s">
+      <c r="C108" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D108" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E108" s="18">
+      <c r="E108" s="17">
         <v>1979</v>
       </c>
-      <c r="F108" s="18">
+      <c r="F108" s="17">
         <v>2491840</v>
       </c>
-      <c r="G108" s="18">
+      <c r="G108" s="17">
         <v>15297576</v>
       </c>
-      <c r="H108" s="18">
+      <c r="H108" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.16289116654821653</v>
       </c>
-      <c r="I108" s="38">
+      <c r="I108" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>8.9136758927543632E-9</v>
       </c>
-      <c r="J108" s="18"/>
-      <c r="K108" s="18"/>
-      <c r="L108" s="18"/>
-      <c r="M108" s="18"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="17" t="s">
+      <c r="J108" s="17"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+    </row>
+    <row r="109" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B109" s="18" t="s">
+      <c r="B109" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C109" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D109" s="21" t="s">
+      <c r="C109" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D109" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E109" s="18">
+      <c r="E109" s="17">
         <v>1979</v>
       </c>
-      <c r="F109" s="18">
+      <c r="F109" s="17">
         <v>2074771</v>
       </c>
-      <c r="G109" s="18">
+      <c r="G109" s="17">
         <v>15297576</v>
       </c>
-      <c r="H109" s="18">
+      <c r="H109" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.13562743535315661</v>
       </c>
-      <c r="I109" s="38">
+      <c r="I109" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>7.6634778041097449E-9</v>
       </c>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="17" t="s">
+      <c r="J109" s="17"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="17"/>
+      <c r="M109" s="17"/>
+    </row>
+    <row r="110" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B110" s="18" t="s">
+      <c r="B110" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C110" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D110" s="18" t="s">
+      <c r="C110" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D110" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E110" s="18">
+      <c r="E110" s="17">
         <v>1979</v>
       </c>
-      <c r="F110" s="18">
+      <c r="F110" s="17">
         <v>1741845</v>
       </c>
-      <c r="G110" s="18">
+      <c r="G110" s="17">
         <v>15297576</v>
       </c>
-      <c r="H110" s="18">
+      <c r="H110" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.11386411807988403</v>
       </c>
-      <c r="I110" s="38">
+      <c r="I110" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>6.5957561311526906E-9</v>
       </c>
-      <c r="J110" s="18"/>
-      <c r="K110" s="18"/>
-      <c r="L110" s="18"/>
-      <c r="M110" s="18"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="17" t="s">
+      <c r="J110" s="17"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="17"/>
+      <c r="M110" s="17"/>
+    </row>
+    <row r="111" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B111" s="18" t="s">
+      <c r="B111" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C111" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D111" s="18" t="s">
+      <c r="C111" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D111" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E111" s="18">
+      <c r="E111" s="17">
         <v>1979</v>
       </c>
-      <c r="F111" s="18">
+      <c r="F111" s="17">
         <v>1327404</v>
       </c>
-      <c r="G111" s="18">
+      <c r="G111" s="17">
         <v>15297576</v>
       </c>
-      <c r="H111" s="18">
+      <c r="H111" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>8.6772178807936626E-2</v>
       </c>
-      <c r="I111" s="38">
+      <c r="I111" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>5.1800865570375403E-9</v>
       </c>
-      <c r="J111" s="18"/>
-      <c r="K111" s="18"/>
-      <c r="L111" s="18"/>
-      <c r="M111" s="18"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="17" t="s">
+      <c r="J111" s="17"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="17"/>
+      <c r="M111" s="17"/>
+    </row>
+    <row r="112" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B112" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C112" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D112" s="18" t="s">
+      <c r="C112" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D112" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="18">
+      <c r="E112" s="17">
         <v>1979</v>
       </c>
-      <c r="F112" s="18">
+      <c r="F112" s="17">
         <v>1055712</v>
       </c>
-      <c r="G112" s="18">
+      <c r="G112" s="17">
         <v>15297576</v>
       </c>
-      <c r="H112" s="18">
+      <c r="H112" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>6.9011717934919892E-2</v>
       </c>
-      <c r="I112" s="38">
+      <c r="I112" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>4.1999530332512125E-9</v>
       </c>
-      <c r="J112" s="18"/>
-      <c r="K112" s="18"/>
-      <c r="L112" s="18"/>
-      <c r="M112" s="18"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="17" t="s">
+      <c r="J112" s="17"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="17"/>
+      <c r="M112" s="17"/>
+    </row>
+    <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B113" s="18" t="s">
+      <c r="B113" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C113" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D113" s="18" t="s">
+      <c r="C113" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D113" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="18">
+      <c r="E113" s="17">
         <v>1979</v>
       </c>
-      <c r="F113" s="18">
+      <c r="F113" s="17">
         <v>818076</v>
       </c>
-      <c r="G113" s="18">
+      <c r="G113" s="17">
         <v>15297576</v>
       </c>
-      <c r="H113" s="18">
+      <c r="H113" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>5.3477492120320241E-2</v>
       </c>
-      <c r="I113" s="38">
+      <c r="I113" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.3088673628319498E-9</v>
       </c>
-      <c r="J113" s="18"/>
-      <c r="K113" s="18"/>
-      <c r="L113" s="18"/>
-      <c r="M113" s="18"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="17" t="s">
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+    </row>
+    <row r="114" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A114" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B114" s="18" t="s">
+      <c r="B114" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C114" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D114" s="18" t="s">
+      <c r="C114" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="18">
+      <c r="E114" s="17">
         <v>1979</v>
       </c>
-      <c r="F114" s="18">
+      <c r="F114" s="17">
         <v>615594</v>
       </c>
-      <c r="G114" s="18">
+      <c r="G114" s="17">
         <v>15297576</v>
       </c>
-      <c r="H114" s="18">
+      <c r="H114" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>4.024127744160251E-2</v>
       </c>
-      <c r="I114" s="38">
+      <c r="I114" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.5247082957110647E-9</v>
       </c>
-      <c r="J114" s="18"/>
-      <c r="K114" s="18"/>
-      <c r="L114" s="18"/>
-      <c r="M114" s="18"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+      <c r="J114" s="17"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+    </row>
+    <row r="115" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B115" s="18" t="s">
+      <c r="B115" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C115" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D115" s="18" t="s">
+      <c r="C115" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D115" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E115" s="18">
+      <c r="E115" s="17">
         <v>1979</v>
       </c>
-      <c r="F115" s="18">
+      <c r="F115" s="17">
         <v>535182</v>
       </c>
-      <c r="G115" s="18">
+      <c r="G115" s="17">
         <v>15297576</v>
       </c>
-      <c r="H115" s="18">
+      <c r="H115" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>3.4984758369561296E-2</v>
       </c>
-      <c r="I115" s="38">
+      <c r="I115" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.2069395210969835E-9</v>
       </c>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="17" t="s">
+      <c r="J115" s="17"/>
+      <c r="K115" s="17"/>
+      <c r="L115" s="17"/>
+      <c r="M115" s="17"/>
+    </row>
+    <row r="116" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B116" s="18" t="s">
+      <c r="B116" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C116" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D116" s="18" t="s">
+      <c r="C116" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D116" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E116" s="18">
+      <c r="E116" s="17">
         <v>1979</v>
       </c>
-      <c r="F116" s="18">
+      <c r="F116" s="17">
         <v>440879</v>
       </c>
-      <c r="G116" s="18">
+      <c r="G116" s="17">
         <v>15297576</v>
       </c>
-      <c r="H116" s="18">
+      <c r="H116" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>2.8820186936806196E-2</v>
       </c>
-      <c r="I116" s="38">
+      <c r="I116" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.8296744374228794E-9</v>
       </c>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="17" t="s">
+      <c r="J116" s="17"/>
+      <c r="K116" s="17"/>
+      <c r="L116" s="17"/>
+      <c r="M116" s="17"/>
+    </row>
+    <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B117" s="18" t="s">
+      <c r="B117" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C117" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D117" s="18" t="s">
+      <c r="C117" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D117" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E117" s="18">
+      <c r="E117" s="17">
         <v>1979</v>
       </c>
-      <c r="F117" s="18">
+      <c r="F117" s="17">
         <v>373930</v>
       </c>
-      <c r="G117" s="18">
+      <c r="G117" s="17">
         <v>15297576</v>
       </c>
-      <c r="H117" s="18">
+      <c r="H117" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>2.4443741936631007E-2</v>
       </c>
-      <c r="I117" s="38">
+      <c r="I117" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.5588250986147345E-9</v>
       </c>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="17" t="s">
+      <c r="J117" s="17"/>
+      <c r="K117" s="17"/>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+    </row>
+    <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C118" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D118" s="18" t="s">
+      <c r="C118" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D118" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E118" s="18">
+      <c r="E118" s="17">
         <v>1979</v>
       </c>
-      <c r="F118" s="18">
+      <c r="F118" s="17">
         <v>275311</v>
       </c>
-      <c r="G118" s="18">
+      <c r="G118" s="17">
         <v>15297576</v>
       </c>
-      <c r="H118" s="18">
+      <c r="H118" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.7997034301382126E-2</v>
       </c>
-      <c r="I118" s="38">
+      <c r="I118" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.1552902929024183E-9</v>
       </c>
-      <c r="J118" s="18"/>
-      <c r="K118" s="18"/>
-      <c r="L118" s="18"/>
-      <c r="M118" s="18"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="17" t="s">
+      <c r="J118" s="17"/>
+      <c r="K118" s="17"/>
+      <c r="L118" s="17"/>
+      <c r="M118" s="17"/>
+    </row>
+    <row r="119" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B119" s="18" t="s">
+      <c r="B119" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C119" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D119" s="18" t="s">
+      <c r="C119" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D119" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E119" s="18">
+      <c r="E119" s="17">
         <v>1979</v>
       </c>
-      <c r="F119" s="18">
+      <c r="F119" s="17">
         <v>217228</v>
       </c>
-      <c r="G119" s="18">
+      <c r="G119" s="17">
         <v>15297576</v>
       </c>
-      <c r="H119" s="18">
+      <c r="H119" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.4200158247293558E-2</v>
       </c>
-      <c r="I119" s="38">
+      <c r="I119" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>9.1508051687701232E-10</v>
       </c>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="18"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="17" t="s">
+      <c r="J119" s="17"/>
+      <c r="K119" s="17"/>
+      <c r="L119" s="17"/>
+      <c r="M119" s="17"/>
+    </row>
+    <row r="120" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B120" s="18" t="s">
+      <c r="B120" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C120" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D120" s="18" t="s">
+      <c r="C120" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D120" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E120" s="18">
+      <c r="E120" s="17">
         <v>1979</v>
       </c>
-      <c r="F120" s="18">
+      <c r="F120" s="17">
         <v>183127</v>
       </c>
-      <c r="G120" s="18">
+      <c r="G120" s="17">
         <v>15297576</v>
       </c>
-      <c r="H120" s="18">
+      <c r="H120" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.1970981546357409E-2</v>
       </c>
-      <c r="I120" s="38">
+      <c r="I120" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>7.7317328883832182E-10</v>
       </c>
-      <c r="J120" s="18"/>
-      <c r="K120" s="18"/>
-      <c r="L120" s="18"/>
-      <c r="M120" s="18"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="17" t="s">
+      <c r="J120" s="17"/>
+      <c r="K120" s="17"/>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+    </row>
+    <row r="121" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A121" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B121" s="18" t="s">
+      <c r="B121" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C121" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D121" s="18" t="s">
+      <c r="C121" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D121" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E121" s="18">
+      <c r="E121" s="17">
         <v>1979</v>
       </c>
-      <c r="F121" s="18">
+      <c r="F121" s="17">
         <v>128908</v>
       </c>
-      <c r="G121" s="18">
+      <c r="G121" s="17">
         <v>15297576</v>
       </c>
-      <c r="H121" s="18">
+      <c r="H121" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>8.4266945299046065E-3</v>
       </c>
-      <c r="I121" s="38">
+      <c r="I121" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>5.4620976220051341E-10</v>
       </c>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="17" t="s">
+      <c r="J121" s="17"/>
+      <c r="K121" s="17"/>
+      <c r="L121" s="17"/>
+      <c r="M121" s="17"/>
+    </row>
+    <row r="122" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A122" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C122" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D122" s="18" t="s">
+      <c r="C122" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D122" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E122" s="18">
+      <c r="E122" s="17">
         <v>1979</v>
       </c>
-      <c r="F122" s="18">
+      <c r="F122" s="17">
         <v>174363</v>
       </c>
-      <c r="G122" s="18">
+      <c r="G122" s="17">
         <v>15297576</v>
       </c>
-      <c r="H122" s="18">
+      <c r="H122" s="17">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.1398080323313969E-2</v>
       </c>
-      <c r="I122" s="38">
+      <c r="I122" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>7.3659801319223717E-10</v>
       </c>
-      <c r="J122" s="18"/>
-      <c r="K122" s="18"/>
-      <c r="L122" s="18"/>
-      <c r="M122" s="18"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="19" t="s">
+      <c r="J122" s="17"/>
+      <c r="K122" s="17"/>
+      <c r="L122" s="17"/>
+      <c r="M122" s="17"/>
+    </row>
+    <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B123" s="20" t="s">
+      <c r="B123" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C123" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D123" s="20" t="s">
+      <c r="C123" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D123" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E123" s="20">
+      <c r="E123" s="19">
         <v>1989</v>
       </c>
-      <c r="F123" s="20">
+      <c r="F123" s="19">
         <v>3800043</v>
       </c>
-      <c r="G123" s="20">
+      <c r="G123" s="19">
         <v>21242106</v>
       </c>
-      <c r="H123" s="20">
+      <c r="H123" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.17889200816529208</v>
       </c>
-      <c r="I123" s="39">
+      <c r="I123" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>6.915023283467334E-9</v>
       </c>
-      <c r="J123" s="20"/>
-      <c r="K123" s="20"/>
-      <c r="L123" s="20"/>
-      <c r="M123" s="20"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="19" t="s">
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+    </row>
+    <row r="124" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C124" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D124" s="20" t="s">
+      <c r="C124" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D124" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E124" s="20">
+      <c r="E124" s="19">
         <v>1989</v>
       </c>
-      <c r="F124" s="20">
+      <c r="F124" s="19">
         <v>3468938</v>
       </c>
-      <c r="G124" s="20">
+      <c r="G124" s="19">
         <v>21242106</v>
       </c>
-      <c r="H124" s="20">
+      <c r="H124" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.16330480603006123</v>
       </c>
-      <c r="I124" s="39">
+      <c r="I124" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>6.432335209962011E-9</v>
       </c>
-      <c r="J124" s="20"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="20"/>
-      <c r="M124" s="20"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="19" t="s">
+      <c r="J124" s="19"/>
+      <c r="K124" s="19"/>
+      <c r="L124" s="19"/>
+      <c r="M124" s="19"/>
+    </row>
+    <row r="125" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B125" s="20" t="s">
+      <c r="B125" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C125" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D125" s="20" t="s">
+      <c r="C125" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D125" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="20">
+      <c r="E125" s="19">
         <v>1989</v>
       </c>
-      <c r="F125" s="20">
+      <c r="F125" s="19">
         <v>2989692</v>
       </c>
-      <c r="G125" s="20">
+      <c r="G125" s="19">
         <v>21242106</v>
       </c>
-      <c r="H125" s="20">
+      <c r="H125" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.14074367202573981</v>
       </c>
-      <c r="I125" s="39">
+      <c r="I125" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>5.693168596863739E-9</v>
       </c>
-      <c r="J125" s="20"/>
-      <c r="K125" s="20"/>
-      <c r="L125" s="20"/>
-      <c r="M125" s="20"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="19" t="s">
+      <c r="J125" s="19"/>
+      <c r="K125" s="19"/>
+      <c r="L125" s="19"/>
+      <c r="M125" s="19"/>
+    </row>
+    <row r="126" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C126" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D126" s="20" t="s">
+      <c r="C126" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D126" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E126" s="20">
+      <c r="E126" s="19">
         <v>1989</v>
       </c>
-      <c r="F126" s="20">
+      <c r="F126" s="19">
         <v>2378696</v>
       </c>
-      <c r="G126" s="20">
+      <c r="G126" s="19">
         <v>21242106</v>
       </c>
-      <c r="H126" s="20">
+      <c r="H126" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.11198023397491755</v>
       </c>
-      <c r="I126" s="39">
+      <c r="I126" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>4.6812995459979474E-9</v>
       </c>
-      <c r="J126" s="20"/>
-      <c r="K126" s="20"/>
-      <c r="L126" s="20"/>
-      <c r="M126" s="20"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="19" t="s">
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+    </row>
+    <row r="127" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B127" s="20" t="s">
+      <c r="B127" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C127" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D127" s="20" t="s">
+      <c r="C127" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D127" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E127" s="20">
+      <c r="E127" s="19">
         <v>1989</v>
       </c>
-      <c r="F127" s="20">
+      <c r="F127" s="19">
         <v>1902934</v>
       </c>
-      <c r="G127" s="20">
+      <c r="G127" s="19">
         <v>21242106</v>
       </c>
-      <c r="H127" s="20">
+      <c r="H127" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>8.9583113840030745E-2</v>
       </c>
-      <c r="I127" s="39">
+      <c r="I127" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.8394488547771505E-9</v>
       </c>
-      <c r="J127" s="20"/>
-      <c r="K127" s="20"/>
-      <c r="L127" s="20"/>
-      <c r="M127" s="20"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+    </row>
+    <row r="128" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C128" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D128" s="20" t="s">
+      <c r="C128" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D128" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E128" s="20">
+      <c r="E128" s="19">
         <v>1989</v>
       </c>
-      <c r="F128" s="20">
+      <c r="F128" s="19">
         <v>1629761</v>
       </c>
-      <c r="G128" s="20">
+      <c r="G128" s="19">
         <v>21242106</v>
       </c>
-      <c r="H128" s="20">
+      <c r="H128" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>7.6723136585421431E-2</v>
       </c>
-      <c r="I128" s="39">
+      <c r="I128" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.3347304122254265E-9</v>
       </c>
-      <c r="J128" s="20"/>
-      <c r="K128" s="20"/>
-      <c r="L128" s="20"/>
-      <c r="M128" s="20"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
+      <c r="J128" s="19"/>
+      <c r="K128" s="19"/>
+      <c r="L128" s="19"/>
+      <c r="M128" s="19"/>
+    </row>
+    <row r="129" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B129" s="20" t="s">
+      <c r="B129" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C129" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D129" s="20" t="s">
+      <c r="C129" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D129" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E129" s="20">
+      <c r="E129" s="19">
         <v>1989</v>
       </c>
-      <c r="F129" s="20">
+      <c r="F129" s="19">
         <v>1159424</v>
       </c>
-      <c r="G129" s="20">
+      <c r="G129" s="19">
         <v>21242106</v>
       </c>
-      <c r="H129" s="20">
+      <c r="H129" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>5.4581405440684648E-2</v>
       </c>
-      <c r="I129" s="39">
+      <c r="I129" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.429244803731054E-9</v>
       </c>
-      <c r="J129" s="20"/>
-      <c r="K129" s="20"/>
-      <c r="L129" s="20"/>
-      <c r="M129" s="20"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="19" t="s">
+      <c r="J129" s="19"/>
+      <c r="K129" s="19"/>
+      <c r="L129" s="19"/>
+      <c r="M129" s="19"/>
+    </row>
+    <row r="130" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C130" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D130" s="20" t="s">
+      <c r="C130" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D130" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E130" s="20">
+      <c r="E130" s="19">
         <v>1989</v>
       </c>
-      <c r="F130" s="20">
+      <c r="F130" s="19">
         <v>918892</v>
       </c>
-      <c r="G130" s="20">
+      <c r="G130" s="19">
         <v>21242106</v>
       </c>
-      <c r="H130" s="20">
+      <c r="H130" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>4.3258046071326446E-2</v>
       </c>
-      <c r="I130" s="39">
+      <c r="I130" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.9483373033454144E-9</v>
       </c>
-      <c r="J130" s="20"/>
-      <c r="K130" s="20"/>
-      <c r="L130" s="20"/>
-      <c r="M130" s="20"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="19" t="s">
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+    </row>
+    <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B131" s="20" t="s">
+      <c r="B131" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C131" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D131" s="20" t="s">
+      <c r="C131" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D131" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E131" s="20">
+      <c r="E131" s="19">
         <v>1989</v>
       </c>
-      <c r="F131" s="20">
+      <c r="F131" s="19">
         <v>732178</v>
       </c>
-      <c r="G131" s="20">
+      <c r="G131" s="19">
         <v>21242106</v>
       </c>
-      <c r="H131" s="20">
+      <c r="H131" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>3.4468239636879693E-2</v>
       </c>
-      <c r="I131" s="39">
+      <c r="I131" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.5667081264548027E-9</v>
       </c>
-      <c r="J131" s="20"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="20"/>
-      <c r="M131" s="20"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
+      <c r="J131" s="19"/>
+      <c r="K131" s="19"/>
+      <c r="L131" s="19"/>
+      <c r="M131" s="19"/>
+    </row>
+    <row r="132" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B132" s="20" t="s">
+      <c r="B132" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C132" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D132" s="20" t="s">
+      <c r="C132" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D132" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E132" s="20">
+      <c r="E132" s="19">
         <v>1989</v>
       </c>
-      <c r="F132" s="20">
+      <c r="F132" s="19">
         <v>574532</v>
       </c>
-      <c r="G132" s="20">
+      <c r="G132" s="19">
         <v>21242106</v>
       </c>
-      <c r="H132" s="20">
+      <c r="H132" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>2.7046847426521647E-2</v>
       </c>
-      <c r="I132" s="39">
+      <c r="I132" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.2388279895980232E-9</v>
       </c>
-      <c r="J132" s="20"/>
-      <c r="K132" s="20"/>
-      <c r="L132" s="20"/>
-      <c r="M132" s="20"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="19" t="s">
+      <c r="J132" s="19"/>
+      <c r="K132" s="19"/>
+      <c r="L132" s="19"/>
+      <c r="M132" s="19"/>
+    </row>
+    <row r="133" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C133" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D133" s="20" t="s">
+      <c r="C133" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D133" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E133" s="20">
+      <c r="E133" s="19">
         <v>1989</v>
       </c>
-      <c r="F133" s="20">
+      <c r="F133" s="19">
         <v>476523</v>
       </c>
-      <c r="G133" s="20">
+      <c r="G133" s="19">
         <v>21242106</v>
       </c>
-      <c r="H133" s="20">
+      <c r="H133" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>2.243294520797514E-2</v>
       </c>
-      <c r="I133" s="39">
+      <c r="I133" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.0323697743185692E-9</v>
       </c>
-      <c r="J133" s="20"/>
-      <c r="K133" s="20"/>
-      <c r="L133" s="20"/>
-      <c r="M133" s="20"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="19" t="s">
+      <c r="J133" s="19"/>
+      <c r="K133" s="19"/>
+      <c r="L133" s="19"/>
+      <c r="M133" s="19"/>
+    </row>
+    <row r="134" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B134" s="20" t="s">
+      <c r="B134" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C134" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D134" s="20" t="s">
+      <c r="C134" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D134" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E134" s="20">
+      <c r="E134" s="19">
         <v>1989</v>
       </c>
-      <c r="F134" s="20">
+      <c r="F134" s="19">
         <v>360172</v>
       </c>
-      <c r="G134" s="20">
+      <c r="G134" s="19">
         <v>21242106</v>
       </c>
-      <c r="H134" s="20">
+      <c r="H134" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.6955569283008003E-2</v>
       </c>
-      <c r="I134" s="39">
+      <c r="I134" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>7.8467163064232515E-10</v>
       </c>
-      <c r="J134" s="20"/>
-      <c r="K134" s="20"/>
-      <c r="L134" s="20"/>
-      <c r="M134" s="20"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="19" t="s">
+      <c r="J134" s="19"/>
+      <c r="K134" s="19"/>
+      <c r="L134" s="19"/>
+      <c r="M134" s="19"/>
+    </row>
+    <row r="135" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C135" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D135" s="20" t="s">
+      <c r="C135" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E135" s="20">
+      <c r="E135" s="19">
         <v>1989</v>
       </c>
-      <c r="F135" s="20">
+      <c r="F135" s="19">
         <v>318397</v>
       </c>
-      <c r="G135" s="20">
+      <c r="G135" s="19">
         <v>21242106</v>
       </c>
-      <c r="H135" s="20">
+      <c r="H135" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.4988956368073863E-2</v>
       </c>
-      <c r="I135" s="39">
+      <c r="I135" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>6.9504820073253754E-10</v>
       </c>
-      <c r="J135" s="20"/>
-      <c r="K135" s="20"/>
-      <c r="L135" s="20"/>
-      <c r="M135" s="20"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="19" t="s">
+      <c r="J135" s="19"/>
+      <c r="K135" s="19"/>
+      <c r="L135" s="19"/>
+      <c r="M135" s="19"/>
+    </row>
+    <row r="136" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B136" s="20" t="s">
+      <c r="B136" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C136" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D136" s="20" t="s">
+      <c r="C136" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D136" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E136" s="20">
+      <c r="E136" s="19">
         <v>1989</v>
       </c>
-      <c r="F136" s="20">
+      <c r="F136" s="19">
         <v>230670</v>
       </c>
-      <c r="G136" s="20">
+      <c r="G136" s="19">
         <v>21242106</v>
       </c>
-      <c r="H136" s="20">
+      <c r="H136" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.085909278486794E-2</v>
       </c>
-      <c r="I136" s="39">
+      <c r="I136" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>5.0565480130630977E-10</v>
       </c>
-      <c r="J136" s="20"/>
-      <c r="K136" s="20"/>
-      <c r="L136" s="20"/>
-      <c r="M136" s="20"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="19" t="s">
+      <c r="J136" s="19"/>
+      <c r="K136" s="19"/>
+      <c r="L136" s="19"/>
+      <c r="M136" s="19"/>
+    </row>
+    <row r="137" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C137" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D137" s="20" t="s">
+      <c r="C137" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D137" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E137" s="20">
+      <c r="E137" s="19">
         <v>1989</v>
       </c>
-      <c r="F137" s="20">
+      <c r="F137" s="19">
         <v>174178</v>
       </c>
-      <c r="G137" s="20">
+      <c r="G137" s="19">
         <v>21242106</v>
       </c>
-      <c r="H137" s="20">
+      <c r="H137" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>8.199657792876092E-3</v>
       </c>
-      <c r="I137" s="39">
+      <c r="I137" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.8284449785514764E-10</v>
       </c>
-      <c r="J137" s="20"/>
-      <c r="K137" s="20"/>
-      <c r="L137" s="20"/>
-      <c r="M137" s="20"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="19" t="s">
+      <c r="J137" s="19"/>
+      <c r="K137" s="19"/>
+      <c r="L137" s="19"/>
+      <c r="M137" s="19"/>
+    </row>
+    <row r="138" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A138" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B138" s="20" t="s">
+      <c r="B138" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C138" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D138" s="20" t="s">
+      <c r="C138" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D138" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E138" s="20">
+      <c r="E138" s="19">
         <v>1989</v>
       </c>
-      <c r="F138" s="20">
+      <c r="F138" s="19">
         <v>127076</v>
       </c>
-      <c r="G138" s="20">
+      <c r="G138" s="19">
         <v>21242106</v>
       </c>
-      <c r="H138" s="20">
+      <c r="H138" s="19">
         <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>5.982269366323659E-3</v>
       </c>
-      <c r="I138" s="39">
+      <c r="I138" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.7993843075410722E-10</v>
       </c>
-      <c r="J138" s="20"/>
-      <c r="K138" s="20"/>
-      <c r="L138" s="20"/>
-      <c r="M138" s="20"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="17" t="s">
+      <c r="J138" s="19"/>
+      <c r="K138" s="19"/>
+      <c r="L138" s="19"/>
+      <c r="M138" s="19"/>
+    </row>
+    <row r="139" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A139" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B139" s="18" t="s">
+      <c r="B139" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C139" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D139" s="18" t="s">
+      <c r="C139" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="E139" s="18">
+      <c r="E139" s="17">
         <v>1999</v>
       </c>
-      <c r="F139" s="18">
+      <c r="F139" s="17">
         <v>4534902</v>
       </c>
-      <c r="G139" s="18">
+      <c r="G139" s="17">
         <v>28279219</v>
       </c>
-      <c r="H139" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H139" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.16036164223630081</v>
       </c>
-      <c r="I139" s="38">
+      <c r="I139" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>4.7612978963661429E-9</v>
       </c>
-      <c r="J139" s="18"/>
-      <c r="K139" s="18"/>
-      <c r="L139" s="18"/>
-      <c r="M139" s="18"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="17" t="s">
+      <c r="J139" s="17"/>
+      <c r="K139" s="17"/>
+      <c r="L139" s="17"/>
+      <c r="M139" s="17"/>
+    </row>
+    <row r="140" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A140" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C140" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D140" s="18" t="s">
+      <c r="C140" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D140" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E140" s="18">
+      <c r="E140" s="17">
         <v>1999</v>
       </c>
-      <c r="F140" s="18">
+      <c r="F140" s="17">
         <v>3963136</v>
       </c>
-      <c r="G140" s="18">
+      <c r="G140" s="17">
         <v>28279219</v>
       </c>
-      <c r="H140" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H140" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.14014304991944793</v>
       </c>
-      <c r="I140" s="38">
+      <c r="I140" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>4.2611847052325967E-9</v>
       </c>
-      <c r="J140" s="18"/>
-      <c r="K140" s="18"/>
-      <c r="L140" s="18"/>
-      <c r="M140" s="18"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="17" t="s">
+      <c r="J140" s="17"/>
+      <c r="K140" s="17"/>
+      <c r="L140" s="17"/>
+      <c r="M140" s="17"/>
+    </row>
+    <row r="141" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A141" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C141" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D141" s="18" t="s">
+      <c r="C141" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D141" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E141" s="18">
+      <c r="E141" s="17">
         <v>1999</v>
       </c>
-      <c r="F141" s="18">
+      <c r="F141" s="17">
         <v>4038635</v>
       </c>
-      <c r="G141" s="18">
+      <c r="G141" s="17">
         <v>28279219</v>
       </c>
-      <c r="H141" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H141" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.14281281954781</v>
       </c>
-      <c r="I141" s="38">
+      <c r="I141" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>4.3288790302382347E-9</v>
       </c>
-      <c r="J141" s="18"/>
-      <c r="K141" s="18"/>
-      <c r="L141" s="18"/>
-      <c r="M141" s="18"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="17" t="s">
+      <c r="J141" s="17"/>
+      <c r="K141" s="17"/>
+      <c r="L141" s="17"/>
+      <c r="M141" s="17"/>
+    </row>
+    <row r="142" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A142" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B142" s="18" t="s">
+      <c r="B142" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C142" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D142" s="18" t="s">
+      <c r="C142" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D142" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E142" s="18">
+      <c r="E142" s="17">
         <v>1999</v>
       </c>
-      <c r="F142" s="18">
+      <c r="F142" s="17">
         <v>3403178</v>
       </c>
-      <c r="G142" s="18">
+      <c r="G142" s="17">
         <v>28279219</v>
       </c>
-      <c r="H142" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H142" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.12034200803070269</v>
       </c>
-      <c r="I142" s="38">
+      <c r="I142" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.7433781015607605E-9</v>
       </c>
-      <c r="J142" s="18"/>
-      <c r="K142" s="18"/>
-      <c r="L142" s="18"/>
-      <c r="M142" s="18"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="17" t="s">
+      <c r="J142" s="17"/>
+      <c r="K142" s="17"/>
+      <c r="L142" s="17"/>
+      <c r="M142" s="17"/>
+    </row>
+    <row r="143" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A143" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B143" s="18" t="s">
+      <c r="B143" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C143" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D143" s="18" t="s">
+      <c r="C143" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D143" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E143" s="18">
+      <c r="E143" s="17">
         <v>1999</v>
       </c>
-      <c r="F143" s="18">
+      <c r="F143" s="17">
         <v>2832918</v>
       </c>
-      <c r="G143" s="18">
+      <c r="G143" s="17">
         <v>28279219</v>
       </c>
-      <c r="H143" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H143" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.10017667036702817</v>
       </c>
-      <c r="I143" s="38">
+      <c r="I143" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.1875457763244433E-9</v>
       </c>
-      <c r="J143" s="18"/>
-      <c r="K143" s="18"/>
-      <c r="L143" s="18"/>
-      <c r="M143" s="18"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="17" t="s">
+      <c r="J143" s="17"/>
+      <c r="K143" s="17"/>
+      <c r="L143" s="17"/>
+      <c r="M143" s="17"/>
+    </row>
+    <row r="144" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B144" s="18" t="s">
+      <c r="B144" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C144" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D144" s="18" t="s">
+      <c r="C144" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D144" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E144" s="18">
+      <c r="E144" s="17">
         <v>1999</v>
       </c>
-      <c r="F144" s="18">
+      <c r="F144" s="17">
         <v>2259503</v>
       </c>
-      <c r="G144" s="18">
+      <c r="G144" s="17">
         <v>28279219</v>
       </c>
-      <c r="H144" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H144" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>7.9899766680260872E-2</v>
       </c>
-      <c r="I144" s="38">
+      <c r="I144" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.5996401797624167E-9</v>
       </c>
-      <c r="J144" s="18"/>
-      <c r="K144" s="18"/>
-      <c r="L144" s="18"/>
-      <c r="M144" s="18"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="17" t="s">
+      <c r="J144" s="17"/>
+      <c r="K144" s="17"/>
+      <c r="L144" s="17"/>
+      <c r="M144" s="17"/>
+    </row>
+    <row r="145" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A145" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B145" s="18" t="s">
+      <c r="B145" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C145" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D145" s="18" t="s">
+      <c r="C145" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D145" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E145" s="18">
+      <c r="E145" s="17">
         <v>1999</v>
       </c>
-      <c r="F145" s="18">
+      <c r="F145" s="17">
         <v>1685922</v>
       </c>
-      <c r="G145" s="18">
+      <c r="G145" s="17">
         <v>28279219</v>
       </c>
-      <c r="H145" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H145" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>5.9616992958681073E-2</v>
       </c>
-      <c r="I145" s="38">
+      <c r="I145" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.9824736711875122E-9</v>
       </c>
-      <c r="J145" s="18"/>
-      <c r="K145" s="18"/>
-      <c r="L145" s="18"/>
-      <c r="M145" s="18"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="17" t="s">
+      <c r="J145" s="17"/>
+      <c r="K145" s="17"/>
+      <c r="L145" s="17"/>
+      <c r="M145" s="17"/>
+    </row>
+    <row r="146" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A146" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B146" s="18" t="s">
+      <c r="B146" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C146" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D146" s="18" t="s">
+      <c r="C146" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D146" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E146" s="18">
+      <c r="E146" s="17">
         <v>1999</v>
       </c>
-      <c r="F146" s="18">
+      <c r="F146" s="17">
         <v>1419012</v>
       </c>
-      <c r="G146" s="18">
+      <c r="G146" s="17">
         <v>28279219</v>
       </c>
-      <c r="H146" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H146" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>5.0178613489997727E-2</v>
       </c>
-      <c r="I146" s="38">
+      <c r="I146" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.685361969799065E-9</v>
       </c>
-      <c r="J146" s="18"/>
-      <c r="K146" s="18"/>
-      <c r="L146" s="18"/>
-      <c r="M146" s="18"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="17" t="s">
+      <c r="J146" s="17"/>
+      <c r="K146" s="17"/>
+      <c r="L146" s="17"/>
+      <c r="M146" s="17"/>
+    </row>
+    <row r="147" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A147" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B147" s="18" t="s">
+      <c r="B147" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C147" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D147" s="18" t="s">
+      <c r="C147" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E147" s="18">
+      <c r="E147" s="17">
         <v>1999</v>
       </c>
-      <c r="F147" s="18">
+      <c r="F147" s="17">
         <v>1033491</v>
       </c>
-      <c r="G147" s="18">
+      <c r="G147" s="17">
         <v>28279219</v>
       </c>
-      <c r="H147" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H147" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>3.6545952701169011E-2</v>
       </c>
-      <c r="I147" s="38">
+      <c r="I147" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.2450961266763743E-9</v>
       </c>
-      <c r="J147" s="18"/>
-      <c r="K147" s="18"/>
-      <c r="L147" s="18"/>
-      <c r="M147" s="18"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="17" t="s">
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+    </row>
+    <row r="148" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A148" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B148" s="18" t="s">
+      <c r="B148" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C148" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D148" s="18" t="s">
+      <c r="C148" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="E148" s="18">
+      <c r="E148" s="17">
         <v>1999</v>
       </c>
-      <c r="F148" s="18">
+      <c r="F148" s="17">
         <v>838328</v>
       </c>
-      <c r="G148" s="18">
+      <c r="G148" s="17">
         <v>28279219</v>
       </c>
-      <c r="H148" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H148" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>2.9644665929423299E-2</v>
       </c>
-      <c r="I148" s="38">
+      <c r="I148" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.0172084211857546E-9</v>
       </c>
-      <c r="J148" s="18"/>
-      <c r="K148" s="18"/>
-      <c r="L148" s="18"/>
-      <c r="M148" s="18"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="17" t="s">
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+    </row>
+    <row r="149" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A149" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B149" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C149" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D149" s="18" t="s">
+      <c r="C149" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D149" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E149" s="18">
+      <c r="E149" s="17">
         <v>1999</v>
       </c>
-      <c r="F149" s="18">
+      <c r="F149" s="17">
         <v>684806</v>
       </c>
-      <c r="G149" s="18">
+      <c r="G149" s="17">
         <v>28279219</v>
       </c>
-      <c r="H149" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H149" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>2.4215873854224898E-2</v>
       </c>
-      <c r="I149" s="38">
+      <c r="I149" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>8.3557701178738938E-10</v>
       </c>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="17" t="s">
+      <c r="J149" s="17"/>
+      <c r="K149" s="17"/>
+      <c r="L149" s="17"/>
+      <c r="M149" s="17"/>
+    </row>
+    <row r="150" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A150" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B150" s="18" t="s">
+      <c r="B150" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C150" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D150" s="18" t="s">
+      <c r="C150" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D150" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E150" s="18">
+      <c r="E150" s="17">
         <v>1999</v>
       </c>
-      <c r="F150" s="18">
+      <c r="F150" s="17">
         <v>459916</v>
       </c>
-      <c r="G150" s="18">
+      <c r="G150" s="17">
         <v>28279219</v>
       </c>
-      <c r="H150" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H150" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.6263391149522199E-2</v>
       </c>
-      <c r="I150" s="38">
+      <c r="I150" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>5.6574735171575428E-10</v>
       </c>
-      <c r="J150" s="18"/>
-      <c r="K150" s="18"/>
-      <c r="L150" s="18"/>
-      <c r="M150" s="18"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="17" t="s">
+      <c r="J150" s="17"/>
+      <c r="K150" s="17"/>
+      <c r="L150" s="17"/>
+      <c r="M150" s="17"/>
+    </row>
+    <row r="151" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B151" s="18" t="s">
+      <c r="B151" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C151" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D151" s="18" t="s">
+      <c r="C151" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D151" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E151" s="18">
+      <c r="E151" s="17">
         <v>1999</v>
       </c>
-      <c r="F151" s="18">
+      <c r="F151" s="17">
         <v>409228</v>
       </c>
-      <c r="G151" s="18">
+      <c r="G151" s="17">
         <v>28279219</v>
       </c>
-      <c r="H151" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H151" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.4470979555694236E-2</v>
       </c>
-      <c r="I151" s="38">
+      <c r="I151" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>5.04312736019793E-10</v>
       </c>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="18"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="17" t="s">
+      <c r="J151" s="17"/>
+      <c r="K151" s="17"/>
+      <c r="L151" s="17"/>
+      <c r="M151" s="17"/>
+    </row>
+    <row r="152" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A152" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C152" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D152" s="18" t="s">
+      <c r="C152" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D152" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="E152" s="18">
+      <c r="E152" s="17">
         <v>1999</v>
       </c>
-      <c r="F152" s="18">
+      <c r="F152" s="17">
         <v>301333</v>
       </c>
-      <c r="G152" s="18">
+      <c r="G152" s="17">
         <v>28279219</v>
       </c>
-      <c r="H152" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H152" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.0655633735853879E-2</v>
       </c>
-      <c r="I152" s="38">
+      <c r="I152" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.7278579742747534E-10</v>
       </c>
-      <c r="J152" s="18"/>
-      <c r="K152" s="18"/>
-      <c r="L152" s="18"/>
-      <c r="M152" s="18"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="17" t="s">
+      <c r="J152" s="17"/>
+      <c r="K152" s="17"/>
+      <c r="L152" s="17"/>
+      <c r="M152" s="17"/>
+    </row>
+    <row r="153" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A153" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B153" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C153" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D153" s="18" t="s">
+      <c r="C153" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D153" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E153" s="18">
+      <c r="E153" s="17">
         <v>1999</v>
       </c>
-      <c r="F153" s="18">
+      <c r="F153" s="17">
         <v>254125</v>
       </c>
-      <c r="G153" s="18">
+      <c r="G153" s="17">
         <v>28279219</v>
       </c>
-      <c r="H153" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H153" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>8.9862807031552035E-3</v>
       </c>
-      <c r="I153" s="38">
+      <c r="I153" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.1491419413949525E-10</v>
       </c>
-      <c r="J153" s="18"/>
-      <c r="K153" s="18"/>
-      <c r="L153" s="18"/>
-      <c r="M153" s="18"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="17" t="s">
+      <c r="J153" s="17"/>
+      <c r="K153" s="17"/>
+      <c r="L153" s="17"/>
+      <c r="M153" s="17"/>
+    </row>
+    <row r="154" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A154" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B154" s="18" t="s">
+      <c r="B154" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C154" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D154" s="18" t="s">
+      <c r="C154" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D154" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="E154" s="18">
+      <c r="E154" s="17">
         <v>1999</v>
       </c>
-      <c r="F154" s="18">
+      <c r="F154" s="17">
         <v>160786</v>
       </c>
-      <c r="G154" s="18">
+      <c r="G154" s="17">
         <v>28279219</v>
       </c>
-      <c r="H154" s="18">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H154" s="17">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>5.6856591407280378E-3</v>
       </c>
-      <c r="I154" s="38">
+      <c r="I154" s="37">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.9991119347615269E-10</v>
       </c>
-      <c r="J154" s="18"/>
-      <c r="K154" s="18"/>
-      <c r="L154" s="18"/>
-      <c r="M154" s="18"/>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="19" t="s">
+      <c r="J154" s="17"/>
+      <c r="K154" s="17"/>
+      <c r="L154" s="17"/>
+      <c r="M154" s="17"/>
+    </row>
+    <row r="155" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B155" s="20" t="s">
+      <c r="B155" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C155" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D155" s="20" t="s">
+      <c r="C155" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D155" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E155" s="20">
+      <c r="E155" s="19">
         <v>2009</v>
       </c>
-      <c r="F155" s="20">
+      <c r="F155" s="19">
         <v>5939306</v>
       </c>
-      <c r="G155" s="20">
+      <c r="G155" s="19">
         <v>38205310</v>
       </c>
-      <c r="H155" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H155" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.15545760523864352</v>
       </c>
-      <c r="I155" s="39">
+      <c r="I155" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.4364473999061804E-9</v>
       </c>
-      <c r="J155" s="20"/>
-      <c r="K155" s="20"/>
-      <c r="L155" s="20"/>
-      <c r="M155" s="20"/>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="19" t="s">
+      <c r="J155" s="19"/>
+      <c r="K155" s="19"/>
+      <c r="L155" s="19"/>
+      <c r="M155" s="19"/>
+    </row>
+    <row r="156" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B156" s="20" t="s">
+      <c r="B156" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C156" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D156" s="20" t="s">
+      <c r="C156" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D156" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E156" s="20">
+      <c r="E156" s="19">
         <v>2009</v>
       </c>
-      <c r="F156" s="20">
+      <c r="F156" s="19">
         <v>5597716</v>
       </c>
-      <c r="G156" s="20">
+      <c r="G156" s="19">
         <v>38205310</v>
       </c>
-      <c r="H156" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H156" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.14651670147421916</v>
       </c>
-      <c r="I156" s="39">
+      <c r="I156" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>3.2730936527758496E-9</v>
       </c>
-      <c r="J156" s="20"/>
-      <c r="K156" s="20"/>
-      <c r="L156" s="20"/>
-      <c r="M156" s="20"/>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="19" t="s">
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+    </row>
+    <row r="157" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B157" s="20" t="s">
+      <c r="B157" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C157" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D157" s="20" t="s">
+      <c r="C157" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D157" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E157" s="20">
+      <c r="E157" s="19">
         <v>2009</v>
       </c>
-      <c r="F157" s="20">
+      <c r="F157" s="19">
         <v>5034855</v>
       </c>
-      <c r="G157" s="20">
+      <c r="G157" s="19">
         <v>38205310</v>
       </c>
-      <c r="H157" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H157" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.13178416822164249</v>
       </c>
-      <c r="I157" s="39">
+      <c r="I157" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.9947957817322335E-9</v>
       </c>
-      <c r="J157" s="20"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="20"/>
-      <c r="M157" s="20"/>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="19" t="s">
+      <c r="J157" s="19"/>
+      <c r="K157" s="19"/>
+      <c r="L157" s="19"/>
+      <c r="M157" s="19"/>
+    </row>
+    <row r="158" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B158" s="20" t="s">
+      <c r="B158" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C158" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D158" s="20" t="s">
+      <c r="C158" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D158" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E158" s="20">
+      <c r="E158" s="19">
         <v>2009</v>
       </c>
-      <c r="F158" s="20">
+      <c r="F158" s="19">
         <v>4169543</v>
       </c>
-      <c r="G158" s="20">
+      <c r="G158" s="19">
         <v>38205310</v>
       </c>
-      <c r="H158" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H158" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>0.10913516995412417</v>
       </c>
-      <c r="I158" s="39">
+      <c r="I158" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.5447950725490409E-9</v>
       </c>
-      <c r="J158" s="20"/>
-      <c r="K158" s="20"/>
-      <c r="L158" s="20"/>
-      <c r="M158" s="20"/>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="19" t="s">
+      <c r="J158" s="19"/>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+    </row>
+    <row r="159" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B159" s="20" t="s">
+      <c r="B159" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C159" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D159" s="20" t="s">
+      <c r="C159" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D159" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="E159" s="20">
+      <c r="E159" s="19">
         <v>2009</v>
       </c>
-      <c r="F159" s="20">
+      <c r="F159" s="19">
         <v>3775103</v>
       </c>
-      <c r="G159" s="20">
+      <c r="G159" s="19">
         <v>38205310</v>
       </c>
-      <c r="H159" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H159" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>9.8810950624402732E-2</v>
       </c>
-      <c r="I159" s="39">
+      <c r="I159" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.3307583857088082E-9</v>
       </c>
-      <c r="J159" s="20"/>
-      <c r="K159" s="20"/>
-      <c r="L159" s="20"/>
-      <c r="M159" s="20"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="19" t="s">
+      <c r="J159" s="19"/>
+      <c r="K159" s="19"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="19"/>
+    </row>
+    <row r="160" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A160" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B160" s="20" t="s">
+      <c r="B160" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C160" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D160" s="20" t="s">
+      <c r="C160" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D160" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E160" s="20">
+      <c r="E160" s="19">
         <v>2009</v>
       </c>
-      <c r="F160" s="20">
+      <c r="F160" s="19">
         <v>3201226</v>
       </c>
-      <c r="G160" s="20">
+      <c r="G160" s="19">
         <v>38205310</v>
       </c>
-      <c r="H160" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H160" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>8.3790080488811633E-2</v>
       </c>
-      <c r="I160" s="39">
+      <c r="I160" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.0093882997020596E-9</v>
       </c>
-      <c r="J160" s="20"/>
-      <c r="K160" s="20"/>
-      <c r="L160" s="20"/>
-      <c r="M160" s="20"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="19" t="s">
+      <c r="J160" s="19"/>
+      <c r="K160" s="19"/>
+      <c r="L160" s="19"/>
+      <c r="M160" s="19"/>
+    </row>
+    <row r="161" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A161" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B161" s="20" t="s">
+      <c r="B161" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C161" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D161" s="20" t="s">
+      <c r="C161" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D161" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E161" s="20">
+      <c r="E161" s="19">
         <v>2009</v>
       </c>
-      <c r="F161" s="20">
+      <c r="F161" s="19">
         <v>2519506</v>
       </c>
-      <c r="G161" s="20">
+      <c r="G161" s="19">
         <v>38205310</v>
       </c>
-      <c r="H161" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H161" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>6.59464875432237E-2</v>
       </c>
-      <c r="I161" s="39">
+      <c r="I161" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.6122771500593803E-9</v>
       </c>
-      <c r="J161" s="20"/>
-      <c r="K161" s="20"/>
-      <c r="L161" s="20"/>
-      <c r="M161" s="20"/>
-    </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="19" t="s">
+      <c r="J161" s="19"/>
+      <c r="K161" s="19"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+    </row>
+    <row r="162" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A162" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B162" s="20" t="s">
+      <c r="B162" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C162" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D162" s="20" t="s">
+      <c r="C162" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D162" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E162" s="20">
+      <c r="E162" s="19">
         <v>2009</v>
       </c>
-      <c r="F162" s="20">
+      <c r="F162" s="19">
         <v>2008632</v>
       </c>
-      <c r="G162" s="20">
+      <c r="G162" s="19">
         <v>38205310</v>
       </c>
-      <c r="H162" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H162" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>5.257468137282488E-2</v>
       </c>
-      <c r="I162" s="39">
+      <c r="I162" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.3037607665366628E-9</v>
       </c>
-      <c r="J162" s="20"/>
-      <c r="K162" s="20"/>
-      <c r="L162" s="20"/>
-      <c r="M162" s="20"/>
-    </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="19" t="s">
+      <c r="J162" s="19"/>
+      <c r="K162" s="19"/>
+      <c r="L162" s="19"/>
+      <c r="M162" s="19"/>
+    </row>
+    <row r="163" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A163" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B163" s="20" t="s">
+      <c r="B163" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C163" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D163" s="20" t="s">
+      <c r="C163" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D163" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E163" s="20">
+      <c r="E163" s="19">
         <v>2009</v>
       </c>
-      <c r="F163" s="20">
+      <c r="F163" s="19">
         <v>1476169</v>
       </c>
-      <c r="G163" s="20">
+      <c r="G163" s="19">
         <v>38205310</v>
       </c>
-      <c r="H163" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H163" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>3.8637796683235914E-2</v>
       </c>
-      <c r="I163" s="39">
+      <c r="I163" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>9.7224488822890954E-10</v>
       </c>
-      <c r="J163" s="20"/>
-      <c r="K163" s="20"/>
-      <c r="L163" s="20"/>
-      <c r="M163" s="20"/>
-    </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="19" t="s">
+      <c r="J163" s="19"/>
+      <c r="K163" s="19"/>
+      <c r="L163" s="19"/>
+      <c r="M163" s="19"/>
+    </row>
+    <row r="164" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A164" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B164" s="20" t="s">
+      <c r="B164" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C164" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D164" s="20" t="s">
+      <c r="C164" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D164" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E164" s="20">
+      <c r="E164" s="19">
         <v>2009</v>
       </c>
-      <c r="F164" s="20">
+      <c r="F164" s="19">
         <v>1272745</v>
       </c>
-      <c r="G164" s="20">
+      <c r="G164" s="19">
         <v>38205310</v>
       </c>
-      <c r="H164" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H164" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>3.3313301213888855E-2</v>
       </c>
-      <c r="I164" s="39">
+      <c r="I164" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>8.429070507770141E-10</v>
       </c>
-      <c r="J164" s="20"/>
-      <c r="K164" s="20"/>
-      <c r="L164" s="20"/>
-      <c r="M164" s="20"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="19" t="s">
+      <c r="J164" s="19"/>
+      <c r="K164" s="19"/>
+      <c r="L164" s="19"/>
+      <c r="M164" s="19"/>
+    </row>
+    <row r="165" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A165" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B165" s="20" t="s">
+      <c r="B165" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C165" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D165" s="20" t="s">
+      <c r="C165" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D165" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E165" s="20">
+      <c r="E165" s="19">
         <v>2009</v>
       </c>
-      <c r="F165" s="20">
+      <c r="F165" s="19">
         <v>956206</v>
       </c>
-      <c r="G165" s="20">
+      <c r="G165" s="19">
         <v>38205310</v>
       </c>
-      <c r="H165" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H165" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>2.5028091644852507E-2</v>
       </c>
-      <c r="I165" s="39">
+      <c r="I165" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>6.3869881630248177E-10</v>
       </c>
-      <c r="J165" s="20"/>
-      <c r="K165" s="20"/>
-      <c r="L165" s="20"/>
-      <c r="M165" s="20"/>
-    </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="19" t="s">
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="19"/>
+    </row>
+    <row r="166" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A166" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B166" s="20" t="s">
+      <c r="B166" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C166" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D166" s="20" t="s">
+      <c r="C166" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D166" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E166" s="20">
+      <c r="E166" s="19">
         <v>2009</v>
       </c>
-      <c r="F166" s="20">
+      <c r="F166" s="19">
         <v>711953</v>
       </c>
-      <c r="G166" s="20">
+      <c r="G166" s="19">
         <v>38205310</v>
       </c>
-      <c r="H166" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H166" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.8634922737179729E-2</v>
       </c>
-      <c r="I166" s="39">
+      <c r="I166" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>4.7866808021605036E-10</v>
       </c>
-      <c r="J166" s="20"/>
-      <c r="K166" s="20"/>
-      <c r="L166" s="20"/>
-      <c r="M166" s="20"/>
-    </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="19" t="s">
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="19"/>
+    </row>
+    <row r="167" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A167" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B167" s="20" t="s">
+      <c r="B167" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C167" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D167" s="20" t="s">
+      <c r="C167" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D167" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E167" s="20">
+      <c r="E167" s="19">
         <v>2009</v>
       </c>
-      <c r="F167" s="20">
+      <c r="F167" s="19">
         <v>593778</v>
       </c>
-      <c r="G167" s="20">
+      <c r="G167" s="19">
         <v>38205310</v>
       </c>
-      <c r="H167" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H167" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.5541766314682435E-2</v>
       </c>
-      <c r="I167" s="39">
+      <c r="I167" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>4.0047364658216983E-10</v>
       </c>
-      <c r="J167" s="20"/>
-      <c r="K167" s="20"/>
-      <c r="L167" s="20"/>
-      <c r="M167" s="20"/>
-    </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="19" t="s">
+      <c r="J167" s="19"/>
+      <c r="K167" s="19"/>
+      <c r="L167" s="19"/>
+      <c r="M167" s="19"/>
+    </row>
+    <row r="168" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A168" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B168" s="20" t="s">
+      <c r="B168" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C168" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D168" s="20" t="s">
+      <c r="C168" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D168" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E168" s="20">
+      <c r="E168" s="19">
         <v>2009</v>
       </c>
-      <c r="F168" s="20">
+      <c r="F168" s="19">
         <v>390763</v>
       </c>
-      <c r="G168" s="20">
+      <c r="G168" s="19">
         <v>38205310</v>
       </c>
-      <c r="H168" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H168" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>1.022797616352282E-2</v>
       </c>
-      <c r="I168" s="39">
+      <c r="I168" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.6497271366522689E-10</v>
       </c>
-      <c r="J168" s="20"/>
-      <c r="K168" s="20"/>
-      <c r="L168" s="20"/>
-      <c r="M168" s="20"/>
-    </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="19" t="s">
+      <c r="J168" s="19"/>
+      <c r="K168" s="19"/>
+      <c r="L168" s="19"/>
+      <c r="M168" s="19"/>
+    </row>
+    <row r="169" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A169" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B169" s="20" t="s">
+      <c r="B169" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C169" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D169" s="20" t="s">
+      <c r="C169" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D169" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="E169" s="20">
+      <c r="E169" s="19">
         <v>2009</v>
       </c>
-      <c r="F169" s="20">
+      <c r="F169" s="19">
         <v>339301</v>
       </c>
-      <c r="G169" s="20">
+      <c r="G169" s="19">
         <v>38205310</v>
       </c>
-      <c r="H169" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H169" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>8.8809906266956087E-3</v>
       </c>
-      <c r="I169" s="39">
+      <c r="I169" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>2.3038992831583237E-10</v>
       </c>
-      <c r="J169" s="20"/>
-      <c r="K169" s="20"/>
-      <c r="L169" s="20"/>
-      <c r="M169" s="20"/>
-    </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="19" t="s">
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
+      <c r="L169" s="19"/>
+      <c r="M169" s="19"/>
+    </row>
+    <row r="170" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="A170" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B170" s="20" t="s">
+      <c r="B170" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="C170" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="D170" s="20" t="s">
+      <c r="C170" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D170" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E170" s="20">
+      <c r="E170" s="19">
         <v>2009</v>
       </c>
-      <c r="F170" s="20">
+      <c r="F170" s="19">
         <v>218508</v>
       </c>
-      <c r="G170" s="20">
+      <c r="G170" s="19">
         <v>38205310</v>
       </c>
-      <c r="H170" s="20">
-        <f>Table1[n]/Table1[Total N]</f>
+      <c r="H170" s="19">
+        <f>Table1[[#This Row],[n]]/Table1[[#This Row],[Total N]]</f>
         <v>5.719309698049826E-3</v>
       </c>
-      <c r="I170" s="39">
+      <c r="I170" s="38">
         <f>(Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]]))/Table1[[#This Row],[Total N]]</f>
         <v>1.4884316328352313E-10</v>
       </c>
-      <c r="J170" s="20"/>
-      <c r="K170" s="20"/>
-      <c r="L170" s="20"/>
-      <c r="M170" s="20"/>
-    </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="18" t="s">
+      <c r="J170" s="19"/>
+      <c r="K170" s="19"/>
+      <c r="L170" s="19"/>
+      <c r="M170" s="19"/>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B171" s="18" t="s">
+      <c r="B171" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C171" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D171" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E171" s="18">
+      <c r="C171" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D171" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E171" s="17">
         <v>1979</v>
       </c>
-      <c r="F171" s="18"/>
-      <c r="G171" s="18"/>
-      <c r="H171" s="18">
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17">
         <v>15297576</v>
       </c>
-      <c r="I171" s="38">
+      <c r="I171" s="37">
         <f>SUM(I107:I122)</f>
         <v>5.8000354704160582E-8</v>
       </c>
-      <c r="J171" s="18"/>
-      <c r="K171" s="18"/>
-      <c r="L171" s="18"/>
-      <c r="M171" s="18"/>
-    </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="18" t="s">
+      <c r="J171" s="17"/>
+      <c r="K171" s="17"/>
+      <c r="L171" s="17"/>
+      <c r="M171" s="17"/>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B172" s="18" t="s">
+      <c r="B172" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C172" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D172" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E172" s="18">
+      <c r="C172" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D172" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E172" s="17">
         <v>1989</v>
       </c>
-      <c r="F172" s="18"/>
-      <c r="G172" s="18"/>
-      <c r="H172" s="18">
+      <c r="F172" s="17"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17">
         <v>21242106</v>
       </c>
-      <c r="I172" s="38">
+      <c r="I172" s="37">
         <f>SUM(I123:I138)</f>
         <v>4.1759651462031905E-8</v>
       </c>
-      <c r="J172" s="18"/>
-      <c r="K172" s="18"/>
-      <c r="L172" s="18"/>
-      <c r="M172" s="18"/>
-    </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="18" t="s">
+      <c r="J172" s="17"/>
+      <c r="K172" s="17"/>
+      <c r="L172" s="17"/>
+      <c r="M172" s="17"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B173" s="18" t="s">
+      <c r="B173" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C173" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D173" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E173" s="18">
+      <c r="C173" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D173" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E173" s="17">
         <v>1999</v>
       </c>
-      <c r="F173" s="18"/>
-      <c r="G173" s="18"/>
-      <c r="H173" s="18">
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17">
         <v>28279219</v>
       </c>
-      <c r="I173" s="38">
+      <c r="I173" s="37">
         <f>SUM(I139:I154)</f>
         <v>3.1605314162899356E-8</v>
       </c>
-      <c r="J173" s="18"/>
-      <c r="K173" s="18"/>
-      <c r="L173" s="18"/>
-      <c r="M173" s="18"/>
-    </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="18" t="s">
+      <c r="J173" s="17"/>
+      <c r="K173" s="17"/>
+      <c r="L173" s="17"/>
+      <c r="M173" s="17"/>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B174" s="18" t="s">
+      <c r="B174" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C174" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D174" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E174" s="18">
+      <c r="C174" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D174" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E174" s="17">
         <v>2009</v>
       </c>
-      <c r="F174" s="18"/>
-      <c r="G174" s="18"/>
-      <c r="H174" s="18">
+      <c r="F174" s="17"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17">
         <v>38205310</v>
       </c>
-      <c r="I174" s="38">
+      <c r="I174" s="37">
         <f>SUM(I155:I170)</f>
         <v>2.3482514796341427E-8</v>
       </c>
-      <c r="J174" s="18"/>
-      <c r="K174" s="18"/>
-      <c r="L174" s="18"/>
-      <c r="M174" s="18"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="17"/>
+      <c r="L174" s="17"/>
+      <c r="M174" s="17"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>85</v>
+      </c>
+      <c r="B175" t="s">
+        <v>89</v>
+      </c>
+      <c r="C175" t="s">
+        <v>88</v>
+      </c>
+      <c r="D175" t="s">
+        <v>59</v>
+      </c>
+      <c r="E175">
+        <v>2018</v>
+      </c>
+      <c r="H175">
+        <f>(3+20)/(3+20+10+28+7+27+7+6)</f>
+        <v>0.21296296296296297</v>
+      </c>
+      <c r="I175" s="28">
+        <f>Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]])/(3+20+10+28+7+27+7+6)</f>
+        <v>1.5519420311944315E-3</v>
+      </c>
+      <c r="J175" s="39"/>
+      <c r="K175" s="39"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>86</v>
+      </c>
+      <c r="B176" t="s">
+        <v>89</v>
+      </c>
+      <c r="C176" t="s">
+        <v>88</v>
+      </c>
+      <c r="D176" t="s">
+        <v>88</v>
+      </c>
+      <c r="E176">
+        <v>2018</v>
+      </c>
+      <c r="H176">
+        <f>(10+28+7+27)/(3+20+10+28+7+27+7+6)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I176" s="28">
+        <f>Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]])/(3+20+10+28+7+27+7+6)</f>
+        <v>2.05761316872428E-3</v>
+      </c>
+      <c r="J176" s="39"/>
+      <c r="K176" s="39"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>87</v>
+      </c>
+      <c r="B177" t="s">
+        <v>89</v>
+      </c>
+      <c r="C177" t="s">
+        <v>88</v>
+      </c>
+      <c r="D177" t="s">
+        <v>88</v>
+      </c>
+      <c r="E177">
+        <v>2018</v>
+      </c>
+      <c r="H177">
+        <v>0.12037037037037046</v>
+      </c>
+      <c r="I177" s="28">
+        <f>Table1[[#This Row],[Prevalence]]*(1-Table1[[#This Row],[Prevalence]])/(3+20+10+28+7+27+7+6)</f>
+        <v>9.8038281765991018E-4</v>
+      </c>
+      <c r="J177" s="39"/>
+      <c r="K177" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/Calibration_targets_Kenya.xlsx
+++ b/Config/Calibration_targets_Kenya.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clh89/MATLAB/Projects/Kenya_treatment/Config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8100F71B-A7CA-B041-869D-E52E28DF66BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D87ABD-9465-C245-821A-C43E3FC9A469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33160" yWindow="-1960" windowWidth="30720" windowHeight="17900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="91">
   <si>
     <t>Criteria</t>
   </si>
@@ -306,6 +306,9 @@
   </si>
   <si>
     <t>Mungo 2021</t>
+  </si>
+  <si>
+    <t>2017-2020</t>
   </si>
 </sst>
 </file>
@@ -833,8 +836,8 @@
   <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J182" sqref="J182"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E175" sqref="E175:E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7189,8 +7192,8 @@
       <c r="D175" t="s">
         <v>59</v>
       </c>
-      <c r="E175">
-        <v>2018</v>
+      <c r="E175" t="s">
+        <v>90</v>
       </c>
       <c r="H175">
         <f>(3+20)/(3+20+10+28+7+27+7+6)</f>
@@ -7216,8 +7219,8 @@
       <c r="D176" t="s">
         <v>88</v>
       </c>
-      <c r="E176">
-        <v>2018</v>
+      <c r="E176" t="s">
+        <v>90</v>
       </c>
       <c r="H176">
         <f>(10+28+7+27)/(3+20+10+28+7+27+7+6)</f>
@@ -7243,8 +7246,8 @@
       <c r="D177" t="s">
         <v>88</v>
       </c>
-      <c r="E177">
-        <v>2018</v>
+      <c r="E177" t="s">
+        <v>90</v>
       </c>
       <c r="H177">
         <v>0.12037037037037046</v>
